--- a/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47632FE-8CBA-482D-9F0E-DA4FA39E799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -502,7 +503,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -549,6 +550,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -584,6 +602,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,17 +770,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -800,7 +835,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -857,7 +892,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -914,7 +949,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -969,7 +1004,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1026,7 +1061,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1083,7 +1118,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1138,7 +1173,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1350,7 +1385,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1407,7 +1442,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1566,7 +1601,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1725,7 +1760,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1884,7 +1919,7 @@
         <v>6590</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2043,7 +2078,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>15599</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2257,7 +2292,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2416,7 +2451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2575,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2734,7 +2769,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2893,7 +2928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -3050,7 +3085,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>65</v>
       </c>
@@ -3107,7 +3142,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
@@ -3266,7 +3301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>68</v>
       </c>
@@ -3423,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>69</v>
       </c>
@@ -3580,7 +3615,7 @@
         <v>15925</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3635,7 +3670,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3690,7 +3725,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3745,7 +3780,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
@@ -3902,7 +3937,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3957,7 +3992,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
@@ -4014,7 +4049,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4332,7 +4367,7 @@
         <v>4022</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4491,7 +4526,7 @@
         <v>6014</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4650,7 +4685,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
@@ -4807,7 +4842,7 @@
         <v>15211</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>73</v>
       </c>
@@ -4864,7 +4899,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>56</v>
       </c>
@@ -5023,7 +5058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>59</v>
       </c>
@@ -5182,7 +5217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
@@ -5341,7 +5376,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>61</v>
       </c>
@@ -5500,7 +5535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>74</v>
       </c>
@@ -5657,7 +5692,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>65</v>
       </c>
@@ -5714,7 +5749,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>66</v>
       </c>
@@ -5873,7 +5908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>68</v>
       </c>
@@ -6030,7 +6065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>75</v>
       </c>
@@ -6087,7 +6122,7 @@
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>76</v>
       </c>
@@ -6244,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="16" t="s">
         <v>69</v>
       </c>
@@ -6401,7 +6436,7 @@
         <v>15537</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6456,7 +6491,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6511,7 +6546,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6566,7 +6601,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>77</v>
       </c>
@@ -6723,7 +6758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6778,7 +6813,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>78</v>
       </c>
@@ -6835,7 +6870,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6994,7 +7029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7153,7 +7188,7 @@
         <v>1430834</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7312,7 +7347,7 @@
         <v>1626537</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -7471,7 +7506,7 @@
         <v>762402</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>72</v>
       </c>
@@ -7628,7 +7663,7 @@
         <v>3819773</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -7685,7 +7720,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -7844,7 +7879,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>59</v>
       </c>
@@ -8003,7 +8038,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>60</v>
       </c>
@@ -8162,7 +8197,7 @@
         <v>37581</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>61</v>
       </c>
@@ -8321,7 +8356,7 @@
         <v>16705</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>74</v>
       </c>
@@ -8478,7 +8513,7 @@
         <v>57511</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>81</v>
       </c>
@@ -8535,7 +8570,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
@@ -8685,7 +8720,7 @@
         <v>8864</v>
       </c>
       <c r="AZ67" s="11">
-        <v>7414</v>
+        <v>7404</v>
       </c>
       <c r="BA67" s="11">
         <v>7218</v>
@@ -8694,7 +8729,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
         <v>68</v>
       </c>
@@ -8844,7 +8879,7 @@
         <v>8864</v>
       </c>
       <c r="AZ68" s="17">
-        <v>7414</v>
+        <v>7404</v>
       </c>
       <c r="BA68" s="17">
         <v>7218</v>
@@ -8853,7 +8888,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="18" t="s">
         <v>82</v>
       </c>
@@ -8910,7 +8945,7 @@
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>76</v>
       </c>
@@ -9069,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>83</v>
       </c>
@@ -9126,7 +9161,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>84</v>
       </c>
@@ -9285,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="16" t="s">
         <v>69</v>
       </c>
@@ -9433,7 +9468,7 @@
         <v>3173007</v>
       </c>
       <c r="AZ73" s="17">
-        <v>3036598</v>
+        <v>3036588</v>
       </c>
       <c r="BA73" s="17">
         <v>2822174</v>
@@ -9442,7 +9477,7 @@
         <v>3878250</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9497,7 +9532,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9552,7 +9587,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9607,7 +9642,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>85</v>
       </c>
@@ -9764,7 +9799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9819,7 +9854,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
@@ -9876,7 +9911,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>59</v>
       </c>
@@ -10035,7 +10070,7 @@
         <v>355751865</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>60</v>
       </c>
@@ -10194,7 +10229,7 @@
         <v>270458430</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>61</v>
       </c>
@@ -10353,7 +10388,7 @@
         <v>147324058</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>88</v>
       </c>
@@ -10410,7 +10445,7 @@
       <c r="BA83" s="9"/>
       <c r="BB83" s="9"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>59</v>
       </c>
@@ -10569,7 +10604,7 @@
         <v>248076923</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>60</v>
       </c>
@@ -10728,7 +10763,7 @@
         <v>177268868</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>61</v>
       </c>
@@ -10887,7 +10922,7 @@
         <v>165396040</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -10944,7 +10979,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>66</v>
       </c>

--- a/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47632FE-8CBA-482D-9F0E-DA4FA39E799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E3DD21-30F5-441C-A6E3-05B250FA0E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1537,11 +1537,11 @@
       <c r="AG11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>0</v>
+      <c r="AH11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ11" s="11" t="s">
         <v>58</v>
@@ -1570,11 +1570,11 @@
       <c r="AR11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>0</v>
+      <c r="AS11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>58</v>
@@ -1669,95 +1669,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>4997</v>
       </c>
       <c r="Z12" s="13">
-        <v>4997</v>
+        <v>4441</v>
       </c>
       <c r="AA12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="AB12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="AC12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="AD12" s="13">
-        <v>5117</v>
+        <v>6366</v>
       </c>
       <c r="AE12" s="13">
-        <v>6366</v>
+        <v>6970</v>
       </c>
       <c r="AF12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AG12" s="13">
-        <v>3508</v>
+        <v>5188</v>
       </c>
       <c r="AH12" s="13">
-        <v>5188</v>
+        <v>2215</v>
       </c>
       <c r="AI12" s="13">
-        <v>2215</v>
+        <v>2061</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2061</v>
+        <v>2723</v>
       </c>
       <c r="AK12" s="13">
-        <v>2723</v>
+        <v>5501</v>
       </c>
       <c r="AL12" s="13">
-        <v>5501</v>
+        <v>4003</v>
       </c>
       <c r="AM12" s="13">
-        <v>4003</v>
+        <v>4551</v>
       </c>
       <c r="AN12" s="13">
-        <v>4551</v>
+        <v>3295</v>
       </c>
       <c r="AO12" s="13">
-        <v>3295</v>
+        <v>2765</v>
       </c>
       <c r="AP12" s="13">
-        <v>2765</v>
+        <v>2834</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2834</v>
+        <v>2715</v>
       </c>
       <c r="AR12" s="13">
-        <v>2715</v>
+        <v>4639</v>
       </c>
       <c r="AS12" s="13">
-        <v>4639</v>
+        <v>3613</v>
       </c>
       <c r="AT12" s="13">
-        <v>3613</v>
+        <v>1794</v>
       </c>
       <c r="AU12" s="13">
-        <v>1794</v>
+        <v>2501</v>
       </c>
       <c r="AV12" s="13">
-        <v>2501</v>
+        <v>4251</v>
       </c>
       <c r="AW12" s="13">
-        <v>4251</v>
+        <v>3746</v>
       </c>
       <c r="AX12" s="13">
-        <v>3746</v>
+        <v>3859</v>
       </c>
       <c r="AY12" s="13">
-        <v>3859</v>
+        <v>4508</v>
       </c>
       <c r="AZ12" s="13">
-        <v>4508</v>
+        <v>3251</v>
       </c>
       <c r="BA12" s="13">
-        <v>3251</v>
+        <v>3575</v>
       </c>
       <c r="BB12" s="13">
-        <v>3575</v>
+        <v>3828</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1828,95 +1828,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>3960</v>
       </c>
       <c r="Z13" s="11">
-        <v>3960</v>
+        <v>2649</v>
       </c>
       <c r="AA13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="AB13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="AC13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="AD13" s="11">
-        <v>4166</v>
+        <v>5116</v>
       </c>
       <c r="AE13" s="11">
-        <v>5116</v>
+        <v>5700</v>
       </c>
       <c r="AF13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AG13" s="11">
-        <v>3767</v>
+        <v>5489</v>
       </c>
       <c r="AH13" s="11">
-        <v>5489</v>
+        <v>2828</v>
       </c>
       <c r="AI13" s="11">
-        <v>2828</v>
+        <v>885</v>
       </c>
       <c r="AJ13" s="11">
-        <v>885</v>
+        <v>3298</v>
       </c>
       <c r="AK13" s="11">
-        <v>3298</v>
+        <v>5308</v>
       </c>
       <c r="AL13" s="11">
-        <v>5308</v>
+        <v>3649</v>
       </c>
       <c r="AM13" s="11">
-        <v>3649</v>
+        <v>4833</v>
       </c>
       <c r="AN13" s="11">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="AO13" s="11">
-        <v>3167</v>
+        <v>3605</v>
       </c>
       <c r="AP13" s="11">
-        <v>3605</v>
+        <v>4516</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4516</v>
+        <v>4017</v>
       </c>
       <c r="AR13" s="11">
-        <v>4017</v>
+        <v>4980</v>
       </c>
       <c r="AS13" s="11">
-        <v>4980</v>
+        <v>4203</v>
       </c>
       <c r="AT13" s="11">
-        <v>4203</v>
+        <v>2345</v>
       </c>
       <c r="AU13" s="11">
-        <v>2345</v>
+        <v>3369</v>
       </c>
       <c r="AV13" s="11">
-        <v>3369</v>
+        <v>4648</v>
       </c>
       <c r="AW13" s="11">
-        <v>4648</v>
+        <v>5280</v>
       </c>
       <c r="AX13" s="11">
-        <v>5280</v>
+        <v>5422</v>
       </c>
       <c r="AY13" s="11">
-        <v>5422</v>
+        <v>5367</v>
       </c>
       <c r="AZ13" s="11">
-        <v>5367</v>
+        <v>4848</v>
       </c>
       <c r="BA13" s="11">
-        <v>4848</v>
+        <v>6590</v>
       </c>
       <c r="BB13" s="11">
-        <v>6590</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1987,95 +1987,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>4231</v>
       </c>
       <c r="Z14" s="13">
-        <v>4231</v>
+        <v>2713</v>
       </c>
       <c r="AA14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="AB14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="AC14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="AD14" s="13">
-        <v>3392</v>
+        <v>4538</v>
       </c>
       <c r="AE14" s="13">
-        <v>4538</v>
+        <v>5244</v>
       </c>
       <c r="AF14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AG14" s="13">
-        <v>5692</v>
+        <v>5304</v>
       </c>
       <c r="AH14" s="13">
-        <v>5304</v>
+        <v>2420</v>
       </c>
       <c r="AI14" s="13">
-        <v>2420</v>
+        <v>2852</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2852</v>
+        <v>3732</v>
       </c>
       <c r="AK14" s="13">
-        <v>3732</v>
+        <v>4830</v>
       </c>
       <c r="AL14" s="13">
-        <v>4830</v>
+        <v>4123</v>
       </c>
       <c r="AM14" s="13">
-        <v>4123</v>
+        <v>5325</v>
       </c>
       <c r="AN14" s="13">
-        <v>5325</v>
+        <v>4369</v>
       </c>
       <c r="AO14" s="13">
-        <v>4369</v>
+        <v>4139</v>
       </c>
       <c r="AP14" s="13">
-        <v>4139</v>
+        <v>3623</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3623</v>
+        <v>3654</v>
       </c>
       <c r="AR14" s="13">
-        <v>3654</v>
+        <v>5474</v>
       </c>
       <c r="AS14" s="13">
-        <v>5474</v>
+        <v>4187</v>
       </c>
       <c r="AT14" s="13">
-        <v>4187</v>
+        <v>2374</v>
       </c>
       <c r="AU14" s="13">
-        <v>2374</v>
+        <v>3537</v>
       </c>
       <c r="AV14" s="13">
-        <v>3537</v>
+        <v>4053</v>
       </c>
       <c r="AW14" s="13">
-        <v>4053</v>
+        <v>4099</v>
       </c>
       <c r="AX14" s="13">
-        <v>4099</v>
+        <v>4562</v>
       </c>
       <c r="AY14" s="13">
-        <v>4562</v>
+        <v>4648</v>
       </c>
       <c r="AZ14" s="13">
-        <v>4648</v>
+        <v>3860</v>
       </c>
       <c r="BA14" s="13">
-        <v>3860</v>
+        <v>5434</v>
       </c>
       <c r="BB14" s="13">
-        <v>5434</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2145,94 +2145,94 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>13188</v>
       </c>
       <c r="Z15" s="15">
-        <v>13188</v>
+        <v>9803</v>
       </c>
       <c r="AA15" s="15">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="AB15" s="15">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AC15" s="15">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AD15" s="15">
-        <v>12675</v>
+        <v>16020</v>
       </c>
       <c r="AE15" s="15">
-        <v>16020</v>
+        <v>17914</v>
       </c>
       <c r="AF15" s="15">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AG15" s="15">
-        <v>12967</v>
+        <v>15981</v>
       </c>
       <c r="AH15" s="15">
-        <v>15981</v>
+        <v>7463</v>
       </c>
       <c r="AI15" s="15">
-        <v>7463</v>
+        <v>5798</v>
       </c>
       <c r="AJ15" s="15">
-        <v>5798</v>
+        <v>9753</v>
       </c>
       <c r="AK15" s="15">
-        <v>9753</v>
+        <v>15639</v>
       </c>
       <c r="AL15" s="15">
-        <v>15639</v>
+        <v>11775</v>
       </c>
       <c r="AM15" s="15">
-        <v>11775</v>
+        <v>14709</v>
       </c>
       <c r="AN15" s="15">
-        <v>14709</v>
+        <v>10831</v>
       </c>
       <c r="AO15" s="15">
-        <v>10831</v>
+        <v>10509</v>
       </c>
       <c r="AP15" s="15">
-        <v>10509</v>
+        <v>10973</v>
       </c>
       <c r="AQ15" s="15">
-        <v>10973</v>
+        <v>10386</v>
       </c>
       <c r="AR15" s="15">
-        <v>10386</v>
+        <v>15093</v>
       </c>
       <c r="AS15" s="15">
-        <v>15093</v>
+        <v>12003</v>
       </c>
       <c r="AT15" s="15">
-        <v>12003</v>
+        <v>6513</v>
       </c>
       <c r="AU15" s="15">
-        <v>6513</v>
+        <v>9407</v>
       </c>
       <c r="AV15" s="15">
-        <v>9407</v>
+        <v>12952</v>
       </c>
       <c r="AW15" s="15">
-        <v>12952</v>
+        <v>13125</v>
       </c>
       <c r="AX15" s="15">
-        <v>13125</v>
+        <v>13843</v>
       </c>
       <c r="AY15" s="15">
-        <v>13843</v>
+        <v>14523</v>
       </c>
       <c r="AZ15" s="15">
-        <v>14523</v>
+        <v>11959</v>
       </c>
       <c r="BA15" s="15">
-        <v>11959</v>
+        <v>15599</v>
       </c>
       <c r="BB15" s="15">
-        <v>15599</v>
+        <v>15985</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2387,11 +2387,11 @@
       <c r="AG17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AH17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2420,11 +2420,11 @@
       <c r="AR17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>0</v>
+      <c r="AS17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2519,95 +2519,95 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>6</v>
       </c>
       <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>11</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK18" s="13">
         <v>6</v>
       </c>
-      <c r="AA18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="13">
+      <c r="AL18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>28</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>35</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>12</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>18</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>48</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AV18" s="13">
         <v>11</v>
       </c>
-      <c r="AF18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
+      <c r="AW18" s="13">
+        <v>65</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>69</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AZ18" s="13">
+        <v>15</v>
+      </c>
+      <c r="BA18" s="13">
         <v>13</v>
       </c>
-      <c r="AI18" s="13">
-        <v>4</v>
-      </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>3</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>6</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>28</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>3</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>35</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>12</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>18</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>48</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>11</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>65</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>69</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>47</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>15</v>
-      </c>
       <c r="BB18" s="13">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2678,11 +2678,11 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>5</v>
       </c>
       <c r="Z19" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -2694,79 +2694,79 @@
         <v>0</v>
       </c>
       <c r="AD19" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE19" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF19" s="11">
         <v>0</v>
       </c>
       <c r="AG19" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH19" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" s="11">
         <v>11</v>
       </c>
-      <c r="AI19" s="11">
-        <v>10</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AK19" s="11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AL19" s="11">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AM19" s="11">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AN19" s="11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AO19" s="11">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AP19" s="11">
+        <v>232</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>234</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>89</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>352</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU19" s="11">
         <v>46</v>
       </c>
-      <c r="AQ19" s="11">
-        <v>232</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>234</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>89</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>352</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>9</v>
-      </c>
       <c r="AV19" s="11">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AW19" s="11">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AX19" s="11">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AY19" s="11">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AZ19" s="11">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="BA19" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="BB19" s="11">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2837,11 +2837,11 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>9</v>
       </c>
       <c r="Z20" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA20" s="13">
         <v>0</v>
@@ -2853,79 +2853,79 @@
         <v>0</v>
       </c>
       <c r="AD20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AE20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="13">
         <v>0</v>
       </c>
       <c r="AG20" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH20" s="13">
-        <v>13</v>
-      </c>
-      <c r="AI20" s="13">
         <v>4</v>
       </c>
-      <c r="AJ20" s="13" t="s">
-        <v>58</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>6</v>
       </c>
       <c r="AK20" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL20" s="13">
         <v>3</v>
       </c>
       <c r="AM20" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AN20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>25</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>19</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>16</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>47</v>
+      </c>
+      <c r="AT20" s="13">
         <v>10</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>25</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>8</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>19</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>16</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>47</v>
       </c>
       <c r="AU20" s="13">
         <v>10</v>
       </c>
       <c r="AV20" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AX20" s="13">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AY20" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AZ20" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BA20" s="13">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="BB20" s="13">
-        <v>101</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -2995,94 +2995,94 @@
         <v>0</v>
       </c>
       <c r="Y21" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="15">
+        <v>76</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="15">
+        <v>37</v>
+      </c>
+      <c r="AH21" s="15">
+        <v>18</v>
+      </c>
+      <c r="AI21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="15">
         <v>20</v>
       </c>
-      <c r="AA21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="15">
-        <v>76</v>
-      </c>
-      <c r="AF21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="15">
-        <v>37</v>
-      </c>
-      <c r="AI21" s="15">
-        <v>18</v>
-      </c>
-      <c r="AJ21" s="15">
-        <v>0</v>
-      </c>
       <c r="AK21" s="15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AL21" s="15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AM21" s="15">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AN21" s="15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AO21" s="15">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AP21" s="15">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AQ21" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AR21" s="15">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AS21" s="15">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AT21" s="15">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AU21" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AV21" s="15">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AW21" s="15">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AX21" s="15">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AY21" s="15">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AZ21" s="15">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="BA21" s="15">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="BB21" s="15">
-        <v>326</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3276,17 +3276,17 @@
       <c r="AT23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV23" s="11">
-        <v>0</v>
+      <c r="AU23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="11" t="s">
-        <v>58</v>
+      <c r="AX23" s="11">
+        <v>0</v>
       </c>
       <c r="AY23" s="11">
         <v>0</v>
@@ -3367,8 +3367,8 @@
       <c r="X24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="17" t="s">
-        <v>58</v>
+      <c r="Y24" s="17">
+        <v>0</v>
       </c>
       <c r="Z24" s="17">
         <v>0</v>
@@ -3525,94 +3525,94 @@
         <v>0</v>
       </c>
       <c r="Y25" s="15">
-        <v>0</v>
+        <v>13208</v>
       </c>
       <c r="Z25" s="15">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="AA25" s="15">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="AB25" s="15">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AC25" s="15">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AD25" s="15">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AE25" s="15">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AF25" s="15">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AG25" s="15">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AH25" s="15">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AI25" s="15">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AJ25" s="15">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AK25" s="15">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AL25" s="15">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AM25" s="15">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AN25" s="15">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AO25" s="15">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AP25" s="15">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AQ25" s="15">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AR25" s="15">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AS25" s="15">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AT25" s="15">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AU25" s="15">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AV25" s="15">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AW25" s="15">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AX25" s="15">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AY25" s="15">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AZ25" s="15">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="BA25" s="15">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="BB25" s="15">
-        <v>15925</v>
+        <v>16161</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4144,11 +4144,11 @@
       <c r="AG32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI32" s="11">
-        <v>0</v>
+      <c r="AH32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ32" s="11" t="s">
         <v>58</v>
@@ -4177,11 +4177,11 @@
       <c r="AR32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT32" s="11">
-        <v>0</v>
+      <c r="AS32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU32" s="11" t="s">
         <v>58</v>
@@ -4276,95 +4276,95 @@
       <c r="X33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="13" t="s">
-        <v>58</v>
+      <c r="Y33" s="13">
+        <v>5028</v>
       </c>
       <c r="Z33" s="13">
-        <v>5028</v>
+        <v>4877</v>
       </c>
       <c r="AA33" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="AB33" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="AC33" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="AD33" s="13">
-        <v>4801</v>
+        <v>5824</v>
       </c>
       <c r="AE33" s="13">
-        <v>5824</v>
+        <v>6862</v>
       </c>
       <c r="AF33" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AG33" s="13">
-        <v>4729</v>
+        <v>4990</v>
       </c>
       <c r="AH33" s="13">
-        <v>4990</v>
+        <v>1225</v>
       </c>
       <c r="AI33" s="13">
-        <v>1225</v>
+        <v>3209</v>
       </c>
       <c r="AJ33" s="13">
-        <v>3209</v>
+        <v>2619</v>
       </c>
       <c r="AK33" s="13">
-        <v>2619</v>
+        <v>4945</v>
       </c>
       <c r="AL33" s="13">
-        <v>4945</v>
+        <v>4010</v>
       </c>
       <c r="AM33" s="13">
-        <v>4010</v>
+        <v>4594</v>
       </c>
       <c r="AN33" s="13">
-        <v>4594</v>
+        <v>2861</v>
       </c>
       <c r="AO33" s="13">
-        <v>2861</v>
+        <v>3593</v>
       </c>
       <c r="AP33" s="13">
-        <v>3593</v>
+        <v>2382</v>
       </c>
       <c r="AQ33" s="13">
-        <v>2382</v>
+        <v>3474</v>
       </c>
       <c r="AR33" s="13">
-        <v>3474</v>
+        <v>3958</v>
       </c>
       <c r="AS33" s="13">
-        <v>3958</v>
+        <v>4310</v>
       </c>
       <c r="AT33" s="13">
-        <v>4310</v>
+        <v>1439</v>
       </c>
       <c r="AU33" s="13">
-        <v>1439</v>
+        <v>2751</v>
       </c>
       <c r="AV33" s="13">
-        <v>2751</v>
+        <v>3564</v>
       </c>
       <c r="AW33" s="13">
-        <v>3564</v>
+        <v>3449</v>
       </c>
       <c r="AX33" s="13">
-        <v>3449</v>
+        <v>4047</v>
       </c>
       <c r="AY33" s="13">
-        <v>4047</v>
+        <v>3956</v>
       </c>
       <c r="AZ33" s="13">
-        <v>3956</v>
+        <v>3187</v>
       </c>
       <c r="BA33" s="13">
-        <v>3187</v>
+        <v>4022</v>
       </c>
       <c r="BB33" s="13">
-        <v>4022</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4435,95 +4435,95 @@
       <c r="X34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="11" t="s">
-        <v>58</v>
+      <c r="Y34" s="11">
+        <v>3400</v>
       </c>
       <c r="Z34" s="11">
-        <v>3400</v>
+        <v>3243</v>
       </c>
       <c r="AA34" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="AB34" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="AC34" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="AD34" s="11">
-        <v>4270</v>
+        <v>4391</v>
       </c>
       <c r="AE34" s="11">
-        <v>4391</v>
+        <v>5310</v>
       </c>
       <c r="AF34" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AG34" s="11">
-        <v>4881</v>
+        <v>5074</v>
       </c>
       <c r="AH34" s="11">
-        <v>5074</v>
+        <v>1954</v>
       </c>
       <c r="AI34" s="11">
-        <v>1954</v>
+        <v>2387</v>
       </c>
       <c r="AJ34" s="11">
-        <v>2387</v>
+        <v>2808</v>
       </c>
       <c r="AK34" s="11">
-        <v>2808</v>
+        <v>4656</v>
       </c>
       <c r="AL34" s="11">
-        <v>4656</v>
+        <v>4038</v>
       </c>
       <c r="AM34" s="11">
-        <v>4038</v>
+        <v>4092</v>
       </c>
       <c r="AN34" s="11">
-        <v>4092</v>
+        <v>2895</v>
       </c>
       <c r="AO34" s="11">
-        <v>2895</v>
+        <v>4237</v>
       </c>
       <c r="AP34" s="11">
-        <v>4237</v>
+        <v>3583</v>
       </c>
       <c r="AQ34" s="11">
-        <v>3583</v>
+        <v>3833</v>
       </c>
       <c r="AR34" s="11">
-        <v>3833</v>
+        <v>4767</v>
       </c>
       <c r="AS34" s="11">
-        <v>4767</v>
+        <v>5390</v>
       </c>
       <c r="AT34" s="11">
-        <v>5390</v>
+        <v>2251</v>
       </c>
       <c r="AU34" s="11">
-        <v>2251</v>
+        <v>3756</v>
       </c>
       <c r="AV34" s="11">
-        <v>3756</v>
+        <v>3727</v>
       </c>
       <c r="AW34" s="11">
-        <v>3727</v>
+        <v>5520</v>
       </c>
       <c r="AX34" s="11">
-        <v>5520</v>
+        <v>5729</v>
       </c>
       <c r="AY34" s="11">
-        <v>5729</v>
+        <v>5236</v>
       </c>
       <c r="AZ34" s="11">
-        <v>5236</v>
+        <v>4694</v>
       </c>
       <c r="BA34" s="11">
-        <v>4694</v>
+        <v>6014</v>
       </c>
       <c r="BB34" s="11">
-        <v>6014</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4594,95 +4594,95 @@
       <c r="X35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="13" t="s">
-        <v>58</v>
+      <c r="Y35" s="13">
+        <v>3995</v>
       </c>
       <c r="Z35" s="13">
-        <v>3995</v>
+        <v>2870</v>
       </c>
       <c r="AA35" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="AB35" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="AC35" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="AD35" s="13">
-        <v>3060</v>
+        <v>4152</v>
       </c>
       <c r="AE35" s="13">
-        <v>4152</v>
+        <v>4784</v>
       </c>
       <c r="AF35" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AG35" s="13">
-        <v>5942</v>
+        <v>4383</v>
       </c>
       <c r="AH35" s="13">
-        <v>4383</v>
+        <v>2230</v>
       </c>
       <c r="AI35" s="13">
-        <v>2230</v>
+        <v>3022</v>
       </c>
       <c r="AJ35" s="13">
-        <v>3022</v>
+        <v>3182</v>
       </c>
       <c r="AK35" s="13">
-        <v>3182</v>
+        <v>4672</v>
       </c>
       <c r="AL35" s="13">
-        <v>4672</v>
+        <v>3714</v>
       </c>
       <c r="AM35" s="13">
-        <v>3714</v>
+        <v>5351</v>
       </c>
       <c r="AN35" s="13">
-        <v>5351</v>
+        <v>4041</v>
       </c>
       <c r="AO35" s="13">
-        <v>4041</v>
+        <v>4085</v>
       </c>
       <c r="AP35" s="13">
-        <v>4085</v>
+        <v>3345</v>
       </c>
       <c r="AQ35" s="13">
-        <v>3345</v>
+        <v>4231</v>
       </c>
       <c r="AR35" s="13">
-        <v>4231</v>
+        <v>5165</v>
       </c>
       <c r="AS35" s="13">
-        <v>5165</v>
+        <v>5171</v>
       </c>
       <c r="AT35" s="13">
-        <v>5171</v>
+        <v>1838</v>
       </c>
       <c r="AU35" s="13">
-        <v>1838</v>
+        <v>3684</v>
       </c>
       <c r="AV35" s="13">
-        <v>3684</v>
+        <v>3630</v>
       </c>
       <c r="AW35" s="13">
-        <v>3630</v>
+        <v>4112</v>
       </c>
       <c r="AX35" s="13">
-        <v>4112</v>
+        <v>4788</v>
       </c>
       <c r="AY35" s="13">
-        <v>4788</v>
+        <v>4406</v>
       </c>
       <c r="AZ35" s="13">
-        <v>4406</v>
+        <v>3890</v>
       </c>
       <c r="BA35" s="13">
-        <v>3890</v>
+        <v>5175</v>
       </c>
       <c r="BB35" s="13">
-        <v>5175</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4752,94 +4752,94 @@
         <v>0</v>
       </c>
       <c r="Y36" s="15">
-        <v>0</v>
+        <v>12423</v>
       </c>
       <c r="Z36" s="15">
-        <v>12423</v>
+        <v>10990</v>
       </c>
       <c r="AA36" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="AB36" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AC36" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AD36" s="15">
-        <v>12131</v>
+        <v>14367</v>
       </c>
       <c r="AE36" s="15">
-        <v>14367</v>
+        <v>16956</v>
       </c>
       <c r="AF36" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AG36" s="15">
-        <v>15552</v>
+        <v>14447</v>
       </c>
       <c r="AH36" s="15">
-        <v>14447</v>
+        <v>5409</v>
       </c>
       <c r="AI36" s="15">
-        <v>5409</v>
+        <v>8618</v>
       </c>
       <c r="AJ36" s="15">
-        <v>8618</v>
+        <v>8609</v>
       </c>
       <c r="AK36" s="15">
-        <v>8609</v>
+        <v>14273</v>
       </c>
       <c r="AL36" s="15">
-        <v>14273</v>
+        <v>11762</v>
       </c>
       <c r="AM36" s="15">
-        <v>11762</v>
+        <v>14037</v>
       </c>
       <c r="AN36" s="15">
-        <v>14037</v>
+        <v>9797</v>
       </c>
       <c r="AO36" s="15">
-        <v>9797</v>
+        <v>11915</v>
       </c>
       <c r="AP36" s="15">
-        <v>11915</v>
+        <v>9310</v>
       </c>
       <c r="AQ36" s="15">
-        <v>9310</v>
+        <v>11538</v>
       </c>
       <c r="AR36" s="15">
-        <v>11538</v>
+        <v>13890</v>
       </c>
       <c r="AS36" s="15">
-        <v>13890</v>
+        <v>14871</v>
       </c>
       <c r="AT36" s="15">
-        <v>14871</v>
+        <v>5528</v>
       </c>
       <c r="AU36" s="15">
-        <v>5528</v>
+        <v>10191</v>
       </c>
       <c r="AV36" s="15">
-        <v>10191</v>
+        <v>10921</v>
       </c>
       <c r="AW36" s="15">
-        <v>10921</v>
+        <v>13081</v>
       </c>
       <c r="AX36" s="15">
-        <v>13081</v>
+        <v>14564</v>
       </c>
       <c r="AY36" s="15">
-        <v>14564</v>
+        <v>13598</v>
       </c>
       <c r="AZ36" s="15">
-        <v>13598</v>
+        <v>11771</v>
       </c>
       <c r="BA36" s="15">
-        <v>11771</v>
+        <v>15211</v>
       </c>
       <c r="BB36" s="15">
-        <v>15211</v>
+        <v>14420</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4994,11 +4994,11 @@
       <c r="AG38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI38" s="11">
-        <v>0</v>
+      <c r="AH38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>58</v>
@@ -5027,11 +5027,11 @@
       <c r="AR38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT38" s="11">
-        <v>0</v>
+      <c r="AS38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU38" s="11" t="s">
         <v>58</v>
@@ -5126,95 +5126,95 @@
       <c r="X39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="13" t="s">
-        <v>58</v>
+      <c r="Y39" s="13">
+        <v>6</v>
       </c>
       <c r="Z39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>11</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AK39" s="13">
         <v>6</v>
       </c>
-      <c r="AA39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="13">
+      <c r="AL39" s="13">
+        <v>8</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>28</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>23</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>35</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>12</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>18</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>48</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AU39" s="13">
+        <v>8</v>
+      </c>
+      <c r="AV39" s="13">
         <v>11</v>
       </c>
-      <c r="AF39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="13">
+      <c r="AW39" s="13">
+        <v>65</v>
+      </c>
+      <c r="AX39" s="13">
+        <v>69</v>
+      </c>
+      <c r="AY39" s="13">
+        <v>47</v>
+      </c>
+      <c r="AZ39" s="13">
+        <v>15</v>
+      </c>
+      <c r="BA39" s="13">
         <v>13</v>
       </c>
-      <c r="AI39" s="13">
-        <v>4</v>
-      </c>
-      <c r="AJ39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>6</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>8</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>28</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>23</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>35</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>12</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>18</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>48</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>4</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>8</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>11</v>
-      </c>
-      <c r="AX39" s="13">
-        <v>65</v>
-      </c>
-      <c r="AY39" s="13">
-        <v>69</v>
-      </c>
-      <c r="AZ39" s="13">
-        <v>47</v>
-      </c>
-      <c r="BA39" s="13">
-        <v>15</v>
-      </c>
       <c r="BB39" s="13">
-        <v>13</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5285,11 +5285,11 @@
       <c r="X40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="11" t="s">
-        <v>58</v>
+      <c r="Y40" s="11">
+        <v>5</v>
       </c>
       <c r="Z40" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="11">
         <v>0</v>
@@ -5301,79 +5301,79 @@
         <v>0</v>
       </c>
       <c r="AD40" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE40" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="11">
         <v>0</v>
       </c>
       <c r="AG40" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH40" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ40" s="11">
         <v>11</v>
       </c>
-      <c r="AI40" s="11">
-        <v>10</v>
-      </c>
-      <c r="AJ40" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AK40" s="11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AL40" s="11">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AM40" s="11">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AN40" s="11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AO40" s="11">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AP40" s="11">
+        <v>232</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>234</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>89</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>352</v>
+      </c>
+      <c r="AT40" s="11">
+        <v>9</v>
+      </c>
+      <c r="AU40" s="11">
         <v>46</v>
       </c>
-      <c r="AQ40" s="11">
-        <v>232</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>234</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>89</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>352</v>
-      </c>
-      <c r="AU40" s="11">
-        <v>9</v>
-      </c>
       <c r="AV40" s="11">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AW40" s="11">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AX40" s="11">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AY40" s="11">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AZ40" s="11">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="BA40" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="BB40" s="11">
-        <v>212</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5444,11 +5444,11 @@
       <c r="X41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y41" s="13" t="s">
-        <v>58</v>
+      <c r="Y41" s="13">
+        <v>9</v>
       </c>
       <c r="Z41" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="13">
         <v>0</v>
@@ -5460,79 +5460,79 @@
         <v>0</v>
       </c>
       <c r="AD41" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AE41" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="13">
         <v>0</v>
       </c>
       <c r="AG41" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH41" s="13">
-        <v>13</v>
-      </c>
-      <c r="AI41" s="13">
         <v>4</v>
       </c>
-      <c r="AJ41" s="13" t="s">
-        <v>58</v>
+      <c r="AI41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ41" s="13">
+        <v>6</v>
       </c>
       <c r="AK41" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AL41" s="13">
         <v>3</v>
       </c>
       <c r="AM41" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AN41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>25</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>8</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>19</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>16</v>
+      </c>
+      <c r="AS41" s="13">
+        <v>47</v>
+      </c>
+      <c r="AT41" s="13">
         <v>10</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>25</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>8</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>19</v>
-      </c>
-      <c r="AS41" s="13">
-        <v>16</v>
-      </c>
-      <c r="AT41" s="13">
-        <v>47</v>
       </c>
       <c r="AU41" s="13">
         <v>10</v>
       </c>
       <c r="AV41" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW41" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AX41" s="13">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AY41" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AZ41" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="BA41" s="13">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="BB41" s="13">
-        <v>101</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5602,94 +5602,94 @@
         <v>0</v>
       </c>
       <c r="Y42" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>76</v>
+      </c>
+      <c r="AE42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="15">
+        <v>37</v>
+      </c>
+      <c r="AH42" s="15">
+        <v>18</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="15">
         <v>20</v>
       </c>
-      <c r="AA42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="15">
-        <v>76</v>
-      </c>
-      <c r="AF42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="15">
-        <v>37</v>
-      </c>
-      <c r="AI42" s="15">
-        <v>18</v>
-      </c>
-      <c r="AJ42" s="15">
-        <v>0</v>
-      </c>
       <c r="AK42" s="15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AL42" s="15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AM42" s="15">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AN42" s="15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AO42" s="15">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AP42" s="15">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AQ42" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AR42" s="15">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AS42" s="15">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AT42" s="15">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AU42" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AV42" s="15">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AW42" s="15">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AX42" s="15">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AY42" s="15">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AZ42" s="15">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="BA42" s="15">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="BB42" s="15">
-        <v>326</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5883,17 +5883,17 @@
       <c r="AT44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV44" s="11">
-        <v>0</v>
+      <c r="AU44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX44" s="11" t="s">
-        <v>58</v>
+      <c r="AX44" s="11">
+        <v>0</v>
       </c>
       <c r="AY44" s="11">
         <v>0</v>
@@ -5974,8 +5974,8 @@
       <c r="X45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="17" t="s">
-        <v>58</v>
+      <c r="Y45" s="17">
+        <v>0</v>
       </c>
       <c r="Z45" s="17">
         <v>0</v>
@@ -6188,8 +6188,8 @@
       <c r="X47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="15" t="s">
-        <v>58</v>
+      <c r="Y47" s="15">
+        <v>0</v>
       </c>
       <c r="Z47" s="15">
         <v>0</v>
@@ -6346,94 +6346,94 @@
         <v>0</v>
       </c>
       <c r="Y48" s="17">
-        <v>0</v>
+        <v>12443</v>
       </c>
       <c r="Z48" s="17">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="AA48" s="17">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="AB48" s="17">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AC48" s="17">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AD48" s="17">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AE48" s="17">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AF48" s="17">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AG48" s="17">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AH48" s="17">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AI48" s="17">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AJ48" s="17">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AK48" s="17">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AL48" s="17">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AM48" s="17">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AN48" s="17">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AO48" s="17">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AP48" s="17">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AQ48" s="17">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AR48" s="17">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AS48" s="17">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AT48" s="17">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AU48" s="17">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AV48" s="17">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AW48" s="17">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AX48" s="17">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AY48" s="17">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AZ48" s="17">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="BA48" s="17">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="BB48" s="17">
-        <v>15537</v>
+        <v>14596</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6965,8 +6965,8 @@
       <c r="AG55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="11" t="s">
-        <v>58</v>
+      <c r="AH55" s="11">
+        <v>0</v>
       </c>
       <c r="AI55" s="11">
         <v>0</v>
@@ -7001,8 +7001,8 @@
       <c r="AS55" s="11">
         <v>0</v>
       </c>
-      <c r="AT55" s="11">
-        <v>0</v>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU55" s="11" t="s">
         <v>58</v>
@@ -7097,95 +7097,95 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>616646</v>
       </c>
       <c r="Z56" s="13">
-        <v>616646</v>
+        <v>599851</v>
       </c>
       <c r="AA56" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="AB56" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="AC56" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="AD56" s="13">
-        <v>762474</v>
+        <v>931426</v>
       </c>
       <c r="AE56" s="13">
-        <v>931426</v>
+        <v>1210523</v>
       </c>
       <c r="AF56" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AG56" s="13">
-        <v>792902</v>
+        <v>859086</v>
       </c>
       <c r="AH56" s="13">
-        <v>859086</v>
+        <v>232727</v>
       </c>
       <c r="AI56" s="13">
-        <v>232727</v>
+        <v>638333</v>
       </c>
       <c r="AJ56" s="13">
-        <v>638333</v>
+        <v>599912</v>
       </c>
       <c r="AK56" s="13">
-        <v>599912</v>
+        <v>1086802</v>
       </c>
       <c r="AL56" s="13">
-        <v>1086802</v>
+        <v>963842</v>
       </c>
       <c r="AM56" s="13">
-        <v>963842</v>
+        <v>1185274</v>
       </c>
       <c r="AN56" s="13">
-        <v>1185274</v>
+        <v>694052</v>
       </c>
       <c r="AO56" s="13">
-        <v>694052</v>
+        <v>873969</v>
       </c>
       <c r="AP56" s="13">
-        <v>873969</v>
+        <v>619276</v>
       </c>
       <c r="AQ56" s="13">
-        <v>619276</v>
+        <v>856651</v>
       </c>
       <c r="AR56" s="13">
-        <v>856651</v>
+        <v>878466</v>
       </c>
       <c r="AS56" s="13">
-        <v>878466</v>
+        <v>1000199</v>
       </c>
       <c r="AT56" s="13">
-        <v>1000199</v>
+        <v>398941</v>
       </c>
       <c r="AU56" s="13">
-        <v>398941</v>
+        <v>744596</v>
       </c>
       <c r="AV56" s="13">
-        <v>744596</v>
+        <v>1099057</v>
       </c>
       <c r="AW56" s="13">
-        <v>1099057</v>
+        <v>1141676</v>
       </c>
       <c r="AX56" s="13">
-        <v>1141676</v>
+        <v>1128354</v>
       </c>
       <c r="AY56" s="13">
-        <v>1128354</v>
+        <v>1213104</v>
       </c>
       <c r="AZ56" s="13">
-        <v>1213104</v>
+        <v>1080945</v>
       </c>
       <c r="BA56" s="13">
-        <v>1080945</v>
+        <v>1430834</v>
       </c>
       <c r="BB56" s="13">
-        <v>1430834</v>
+        <v>1264780</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7256,95 +7256,95 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>392359</v>
       </c>
       <c r="Z57" s="11">
-        <v>392359</v>
+        <v>369450</v>
       </c>
       <c r="AA57" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="AB57" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="AC57" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="AD57" s="11">
-        <v>676661</v>
+        <v>698396</v>
       </c>
       <c r="AE57" s="11">
-        <v>698396</v>
+        <v>837746</v>
       </c>
       <c r="AF57" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AG57" s="11">
-        <v>760151</v>
+        <v>816710</v>
       </c>
       <c r="AH57" s="11">
-        <v>816710</v>
+        <v>311136</v>
       </c>
       <c r="AI57" s="11">
-        <v>311136</v>
+        <v>359496</v>
       </c>
       <c r="AJ57" s="11">
-        <v>359496</v>
+        <v>427359</v>
       </c>
       <c r="AK57" s="11">
-        <v>427359</v>
+        <v>847067</v>
       </c>
       <c r="AL57" s="11">
-        <v>847067</v>
+        <v>797931</v>
       </c>
       <c r="AM57" s="11">
-        <v>797931</v>
+        <v>818224</v>
       </c>
       <c r="AN57" s="11">
-        <v>818224</v>
+        <v>555686</v>
       </c>
       <c r="AO57" s="11">
-        <v>555686</v>
+        <v>819305</v>
       </c>
       <c r="AP57" s="11">
-        <v>819305</v>
+        <v>673372</v>
       </c>
       <c r="AQ57" s="11">
-        <v>673372</v>
+        <v>689735</v>
       </c>
       <c r="AR57" s="11">
-        <v>689735</v>
+        <v>877278</v>
       </c>
       <c r="AS57" s="11">
-        <v>877278</v>
+        <v>984707</v>
       </c>
       <c r="AT57" s="11">
-        <v>984707</v>
+        <v>446848</v>
       </c>
       <c r="AU57" s="11">
-        <v>446848</v>
+        <v>791817</v>
       </c>
       <c r="AV57" s="11">
-        <v>791817</v>
+        <v>916710</v>
       </c>
       <c r="AW57" s="11">
-        <v>916710</v>
+        <v>1394519</v>
       </c>
       <c r="AX57" s="11">
-        <v>1394519</v>
+        <v>1302420</v>
       </c>
       <c r="AY57" s="11">
-        <v>1302420</v>
+        <v>1162021</v>
       </c>
       <c r="AZ57" s="11">
-        <v>1162021</v>
+        <v>1157839</v>
       </c>
       <c r="BA57" s="11">
-        <v>1157839</v>
+        <v>1626537</v>
       </c>
       <c r="BB57" s="11">
-        <v>1626537</v>
+        <v>1506714</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7415,95 +7415,95 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>309560</v>
       </c>
       <c r="Z58" s="13">
-        <v>309560</v>
+        <v>190654</v>
       </c>
       <c r="AA58" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="AB58" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="AC58" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="AD58" s="13">
-        <v>272077</v>
+        <v>391506</v>
       </c>
       <c r="AE58" s="13">
-        <v>391506</v>
+        <v>471571</v>
       </c>
       <c r="AF58" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AG58" s="13">
-        <v>581794</v>
+        <v>471337</v>
       </c>
       <c r="AH58" s="13">
-        <v>471337</v>
+        <v>224718</v>
       </c>
       <c r="AI58" s="13">
-        <v>224718</v>
+        <v>304049</v>
       </c>
       <c r="AJ58" s="13">
-        <v>304049</v>
+        <v>320928</v>
       </c>
       <c r="AK58" s="13">
-        <v>320928</v>
+        <v>510603</v>
       </c>
       <c r="AL58" s="13">
-        <v>510603</v>
+        <v>470813</v>
       </c>
       <c r="AM58" s="13">
-        <v>470813</v>
+        <v>719251</v>
       </c>
       <c r="AN58" s="13">
-        <v>719251</v>
+        <v>434340</v>
       </c>
       <c r="AO58" s="13">
-        <v>434340</v>
+        <v>438896</v>
       </c>
       <c r="AP58" s="13">
-        <v>438896</v>
+        <v>363204</v>
       </c>
       <c r="AQ58" s="13">
-        <v>363204</v>
+        <v>447217</v>
       </c>
       <c r="AR58" s="13">
-        <v>447217</v>
+        <v>552378</v>
       </c>
       <c r="AS58" s="13">
-        <v>552378</v>
+        <v>582195</v>
       </c>
       <c r="AT58" s="13">
-        <v>582195</v>
+        <v>239411</v>
       </c>
       <c r="AU58" s="13">
-        <v>239411</v>
+        <v>461908</v>
       </c>
       <c r="AV58" s="13">
-        <v>461908</v>
+        <v>556739</v>
       </c>
       <c r="AW58" s="13">
-        <v>556739</v>
+        <v>587901</v>
       </c>
       <c r="AX58" s="13">
-        <v>587901</v>
+        <v>693579</v>
       </c>
       <c r="AY58" s="13">
-        <v>693579</v>
+        <v>602769</v>
       </c>
       <c r="AZ58" s="13">
-        <v>602769</v>
+        <v>543359</v>
       </c>
       <c r="BA58" s="13">
-        <v>543359</v>
+        <v>762402</v>
       </c>
       <c r="BB58" s="13">
-        <v>762402</v>
+        <v>754831</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7573,94 +7573,94 @@
         <v>0</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>1318565</v>
       </c>
       <c r="Z59" s="15">
-        <v>1318565</v>
+        <v>1159955</v>
       </c>
       <c r="AA59" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="AB59" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AC59" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AD59" s="15">
-        <v>1711212</v>
+        <v>2021328</v>
       </c>
       <c r="AE59" s="15">
-        <v>2021328</v>
+        <v>2519840</v>
       </c>
       <c r="AF59" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AG59" s="15">
-        <v>2134847</v>
+        <v>2147133</v>
       </c>
       <c r="AH59" s="15">
-        <v>2147133</v>
+        <v>768581</v>
       </c>
       <c r="AI59" s="15">
-        <v>768581</v>
+        <v>1301878</v>
       </c>
       <c r="AJ59" s="15">
-        <v>1301878</v>
+        <v>1348199</v>
       </c>
       <c r="AK59" s="15">
-        <v>1348199</v>
+        <v>2444472</v>
       </c>
       <c r="AL59" s="15">
-        <v>2444472</v>
+        <v>2232586</v>
       </c>
       <c r="AM59" s="15">
-        <v>2232586</v>
+        <v>2722749</v>
       </c>
       <c r="AN59" s="15">
-        <v>2722749</v>
+        <v>1684078</v>
       </c>
       <c r="AO59" s="15">
-        <v>1684078</v>
+        <v>2132170</v>
       </c>
       <c r="AP59" s="15">
-        <v>2132170</v>
+        <v>1655852</v>
       </c>
       <c r="AQ59" s="15">
-        <v>1655852</v>
+        <v>1993603</v>
       </c>
       <c r="AR59" s="15">
-        <v>1993603</v>
+        <v>2308122</v>
       </c>
       <c r="AS59" s="15">
-        <v>2308122</v>
+        <v>2567101</v>
       </c>
       <c r="AT59" s="15">
-        <v>2567101</v>
+        <v>1085200</v>
       </c>
       <c r="AU59" s="15">
-        <v>1085200</v>
+        <v>1998321</v>
       </c>
       <c r="AV59" s="15">
-        <v>1998321</v>
+        <v>2572506</v>
       </c>
       <c r="AW59" s="15">
-        <v>2572506</v>
+        <v>3124096</v>
       </c>
       <c r="AX59" s="15">
-        <v>3124096</v>
+        <v>3124353</v>
       </c>
       <c r="AY59" s="15">
-        <v>3124353</v>
+        <v>2977894</v>
       </c>
       <c r="AZ59" s="15">
-        <v>2977894</v>
+        <v>2782143</v>
       </c>
       <c r="BA59" s="15">
-        <v>2782143</v>
+        <v>3819773</v>
       </c>
       <c r="BB59" s="15">
-        <v>3819773</v>
+        <v>3526325</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7815,8 +7815,8 @@
       <c r="AG61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH61" s="11" t="s">
-        <v>58</v>
+      <c r="AH61" s="11">
+        <v>0</v>
       </c>
       <c r="AI61" s="11">
         <v>0</v>
@@ -7851,8 +7851,8 @@
       <c r="AS61" s="11">
         <v>0</v>
       </c>
-      <c r="AT61" s="11">
-        <v>0</v>
+      <c r="AT61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU61" s="11" t="s">
         <v>58</v>
@@ -7947,11 +7947,11 @@
       <c r="X62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="13" t="s">
-        <v>58</v>
+      <c r="Y62" s="13">
+        <v>1551</v>
       </c>
       <c r="Z62" s="13">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="AA62" s="13">
         <v>0</v>
@@ -7963,79 +7963,79 @@
         <v>0</v>
       </c>
       <c r="AD62" s="13">
-        <v>0</v>
+        <v>3067</v>
       </c>
       <c r="AE62" s="13">
-        <v>3067</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="13">
         <v>0</v>
       </c>
       <c r="AG62" s="13">
-        <v>0</v>
+        <v>3395</v>
       </c>
       <c r="AH62" s="13">
-        <v>3395</v>
+        <v>1105</v>
       </c>
       <c r="AI62" s="13">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="AJ62" s="13">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="AK62" s="13">
-        <v>828</v>
+        <v>1528</v>
       </c>
       <c r="AL62" s="13">
-        <v>1528</v>
+        <v>1403</v>
       </c>
       <c r="AM62" s="13">
-        <v>1403</v>
+        <v>7873</v>
       </c>
       <c r="AN62" s="13">
-        <v>7873</v>
+        <v>950</v>
       </c>
       <c r="AO62" s="13">
-        <v>950</v>
+        <v>5626</v>
       </c>
       <c r="AP62" s="13">
-        <v>5626</v>
+        <v>10433</v>
       </c>
       <c r="AQ62" s="13">
-        <v>10433</v>
+        <v>3364</v>
       </c>
       <c r="AR62" s="13">
-        <v>3364</v>
+        <v>5220</v>
       </c>
       <c r="AS62" s="13">
-        <v>5220</v>
+        <v>15188</v>
       </c>
       <c r="AT62" s="13">
-        <v>15188</v>
+        <v>1562</v>
       </c>
       <c r="AU62" s="13">
-        <v>1562</v>
+        <v>2366</v>
       </c>
       <c r="AV62" s="13">
-        <v>2366</v>
+        <v>5738</v>
       </c>
       <c r="AW62" s="13">
-        <v>5738</v>
+        <v>49254</v>
       </c>
       <c r="AX62" s="13">
-        <v>49254</v>
+        <v>22354</v>
       </c>
       <c r="AY62" s="13">
-        <v>22354</v>
+        <v>12742</v>
       </c>
       <c r="AZ62" s="13">
-        <v>12742</v>
+        <v>4940</v>
       </c>
       <c r="BA62" s="13">
-        <v>4940</v>
+        <v>3225</v>
       </c>
       <c r="BB62" s="13">
-        <v>3225</v>
+        <v>29139</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8106,11 +8106,11 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>628</v>
       </c>
       <c r="Z63" s="11">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="11">
         <v>0</v>
@@ -8122,79 +8122,79 @@
         <v>0</v>
       </c>
       <c r="AD63" s="11">
-        <v>0</v>
+        <v>3433</v>
       </c>
       <c r="AE63" s="11">
-        <v>3433</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="11">
         <v>0</v>
       </c>
       <c r="AG63" s="11">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="AH63" s="11">
-        <v>1257</v>
+        <v>710</v>
       </c>
       <c r="AI63" s="11">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="11">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AK63" s="11">
-        <v>1500</v>
+        <v>4562</v>
       </c>
       <c r="AL63" s="11">
-        <v>4562</v>
+        <v>1303</v>
       </c>
       <c r="AM63" s="11">
-        <v>1303</v>
+        <v>4360</v>
       </c>
       <c r="AN63" s="11">
-        <v>4360</v>
+        <v>2555</v>
       </c>
       <c r="AO63" s="11">
-        <v>2555</v>
+        <v>7376</v>
       </c>
       <c r="AP63" s="11">
-        <v>7376</v>
+        <v>34829</v>
       </c>
       <c r="AQ63" s="11">
-        <v>34829</v>
+        <v>19055</v>
       </c>
       <c r="AR63" s="11">
-        <v>19055</v>
+        <v>9777</v>
       </c>
       <c r="AS63" s="11">
-        <v>9777</v>
+        <v>34940</v>
       </c>
       <c r="AT63" s="11">
-        <v>34940</v>
+        <v>1311</v>
       </c>
       <c r="AU63" s="11">
-        <v>1311</v>
+        <v>8424</v>
       </c>
       <c r="AV63" s="11">
-        <v>8424</v>
+        <v>36915</v>
       </c>
       <c r="AW63" s="11">
-        <v>36915</v>
+        <v>31178</v>
       </c>
       <c r="AX63" s="11">
-        <v>31178</v>
+        <v>10651</v>
       </c>
       <c r="AY63" s="11">
-        <v>10651</v>
+        <v>27367</v>
       </c>
       <c r="AZ63" s="11">
-        <v>27367</v>
+        <v>18963</v>
       </c>
       <c r="BA63" s="11">
-        <v>18963</v>
+        <v>37581</v>
       </c>
       <c r="BB63" s="11">
-        <v>37581</v>
+        <v>17369</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8265,11 +8265,11 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>1307</v>
       </c>
       <c r="Z64" s="13">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="AA64" s="13">
         <v>0</v>
@@ -8281,79 +8281,79 @@
         <v>0</v>
       </c>
       <c r="AD64" s="13">
-        <v>0</v>
+        <v>7021</v>
       </c>
       <c r="AE64" s="13">
-        <v>7021</v>
+        <v>0</v>
       </c>
       <c r="AF64" s="13">
         <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="AH64" s="13">
-        <v>3342</v>
+        <v>667</v>
       </c>
       <c r="AI64" s="13">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="13">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="AK64" s="13">
-        <v>1052</v>
+        <v>439</v>
       </c>
       <c r="AL64" s="13">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AM64" s="13">
-        <v>462</v>
+        <v>2102</v>
       </c>
       <c r="AN64" s="13">
-        <v>2102</v>
+        <v>363</v>
       </c>
       <c r="AO64" s="13">
-        <v>363</v>
+        <v>5206</v>
       </c>
       <c r="AP64" s="13">
-        <v>5206</v>
+        <v>1489</v>
       </c>
       <c r="AQ64" s="13">
-        <v>1489</v>
+        <v>3002</v>
       </c>
       <c r="AR64" s="13">
-        <v>3002</v>
+        <v>3222</v>
       </c>
       <c r="AS64" s="13">
-        <v>3222</v>
+        <v>8233</v>
       </c>
       <c r="AT64" s="13">
-        <v>8233</v>
+        <v>1631</v>
       </c>
       <c r="AU64" s="13">
-        <v>1631</v>
+        <v>1815</v>
       </c>
       <c r="AV64" s="13">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="AW64" s="13">
-        <v>0</v>
+        <v>16185</v>
       </c>
       <c r="AX64" s="13">
-        <v>16185</v>
+        <v>6785</v>
       </c>
       <c r="AY64" s="13">
-        <v>6785</v>
+        <v>11181</v>
       </c>
       <c r="AZ64" s="13">
-        <v>11181</v>
+        <v>8910</v>
       </c>
       <c r="BA64" s="13">
-        <v>8910</v>
+        <v>16705</v>
       </c>
       <c r="BB64" s="13">
-        <v>16705</v>
+        <v>8185</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8423,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="Y65" s="15">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="Z65" s="15">
-        <v>3486</v>
+        <v>0</v>
       </c>
       <c r="AA65" s="15">
         <v>0</v>
@@ -8438,79 +8438,79 @@
         <v>0</v>
       </c>
       <c r="AD65" s="15">
-        <v>0</v>
+        <v>13521</v>
       </c>
       <c r="AE65" s="15">
-        <v>13521</v>
+        <v>0</v>
       </c>
       <c r="AF65" s="15">
         <v>0</v>
       </c>
       <c r="AG65" s="15">
-        <v>0</v>
+        <v>7994</v>
       </c>
       <c r="AH65" s="15">
-        <v>7994</v>
+        <v>2482</v>
       </c>
       <c r="AI65" s="15">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="15">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="AK65" s="15">
-        <v>3380</v>
+        <v>6529</v>
       </c>
       <c r="AL65" s="15">
-        <v>6529</v>
+        <v>3168</v>
       </c>
       <c r="AM65" s="15">
-        <v>3168</v>
+        <v>14335</v>
       </c>
       <c r="AN65" s="15">
-        <v>14335</v>
+        <v>3868</v>
       </c>
       <c r="AO65" s="15">
-        <v>3868</v>
+        <v>18208</v>
       </c>
       <c r="AP65" s="15">
-        <v>18208</v>
+        <v>46751</v>
       </c>
       <c r="AQ65" s="15">
-        <v>46751</v>
+        <v>25421</v>
       </c>
       <c r="AR65" s="15">
-        <v>25421</v>
+        <v>18219</v>
       </c>
       <c r="AS65" s="15">
-        <v>18219</v>
+        <v>58361</v>
       </c>
       <c r="AT65" s="15">
-        <v>58361</v>
+        <v>4504</v>
       </c>
       <c r="AU65" s="15">
-        <v>4504</v>
+        <v>12605</v>
       </c>
       <c r="AV65" s="15">
-        <v>12605</v>
+        <v>42653</v>
       </c>
       <c r="AW65" s="15">
-        <v>42653</v>
+        <v>96617</v>
       </c>
       <c r="AX65" s="15">
-        <v>96617</v>
+        <v>39790</v>
       </c>
       <c r="AY65" s="15">
-        <v>39790</v>
+        <v>51290</v>
       </c>
       <c r="AZ65" s="15">
-        <v>51290</v>
+        <v>32813</v>
       </c>
       <c r="BA65" s="15">
-        <v>32813</v>
+        <v>57511</v>
       </c>
       <c r="BB65" s="15">
-        <v>57511</v>
+        <v>54693</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8671,62 +8671,62 @@
       <c r="AI67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ67" s="11" t="s">
-        <v>58</v>
+      <c r="AJ67" s="11">
+        <v>6789</v>
       </c>
       <c r="AK67" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="11">
         <v>0</v>
       </c>
       <c r="AM67" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AN67" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AO67" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AP67" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AQ67" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AR67" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AS67" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AT67" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AU67" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AV67" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AW67" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AX67" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AY67" s="11">
-        <v>8864</v>
+        <v>7414</v>
       </c>
       <c r="AZ67" s="11">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="BA67" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BB67" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8797,8 +8797,8 @@
       <c r="X68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="17" t="s">
-        <v>58</v>
+      <c r="Y68" s="17">
+        <v>0</v>
       </c>
       <c r="Z68" s="17">
         <v>0</v>
@@ -8831,61 +8831,61 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="17">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AK68" s="17">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="17">
         <v>0</v>
       </c>
       <c r="AM68" s="17">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AN68" s="17">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AO68" s="17">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AP68" s="17">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AQ68" s="17">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AR68" s="17">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AS68" s="17">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AT68" s="17">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AU68" s="17">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AV68" s="17">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AW68" s="17">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AX68" s="17">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AY68" s="17">
-        <v>8864</v>
+        <v>7414</v>
       </c>
       <c r="AZ68" s="17">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="BA68" s="17">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BB68" s="17">
-        <v>966</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9013,8 +9013,8 @@
       <c r="X70" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="15" t="s">
-        <v>58</v>
+      <c r="Y70" s="15">
+        <v>0</v>
       </c>
       <c r="Z70" s="15">
         <v>0</v>
@@ -9229,8 +9229,8 @@
       <c r="X72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>58</v>
+      <c r="Y72" s="11">
+        <v>0</v>
       </c>
       <c r="Z72" s="11">
         <v>0</v>
@@ -9387,94 +9387,94 @@
         <v>0</v>
       </c>
       <c r="Y73" s="17">
-        <v>0</v>
+        <v>1322051</v>
       </c>
       <c r="Z73" s="17">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="AA73" s="17">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="AB73" s="17">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AC73" s="17">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AD73" s="17">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AE73" s="17">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AF73" s="17">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AG73" s="17">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AH73" s="17">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AI73" s="17">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AJ73" s="17">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AK73" s="17">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AL73" s="17">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AM73" s="17">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AN73" s="17">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AO73" s="17">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AP73" s="17">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AQ73" s="17">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AR73" s="17">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AS73" s="17">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AT73" s="17">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AU73" s="17">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AV73" s="17">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AW73" s="17">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AX73" s="17">
-        <v>3230045</v>
+        <v>3173007</v>
       </c>
       <c r="AY73" s="17">
-        <v>3173007</v>
+        <v>3036598</v>
       </c>
       <c r="AZ73" s="17">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="BA73" s="17">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="BB73" s="17">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9979,95 +9979,95 @@
       <c r="X80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="11" t="s">
-        <v>58</v>
+      <c r="Y80" s="11">
+        <v>122642403</v>
       </c>
       <c r="Z80" s="11">
-        <v>122642403</v>
+        <v>122995899</v>
       </c>
       <c r="AA80" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="AB80" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="AC80" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="AD80" s="11">
-        <v>158815663</v>
+        <v>159928915</v>
       </c>
       <c r="AE80" s="11">
-        <v>159928915</v>
+        <v>176409647</v>
       </c>
       <c r="AF80" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AG80" s="11">
-        <v>167668006</v>
+        <v>172161523</v>
       </c>
       <c r="AH80" s="11">
-        <v>172161523</v>
+        <v>189981224</v>
       </c>
       <c r="AI80" s="11">
-        <v>189981224</v>
+        <v>198919601</v>
       </c>
       <c r="AJ80" s="11">
-        <v>198919601</v>
+        <v>229061474</v>
       </c>
       <c r="AK80" s="11">
-        <v>229061474</v>
+        <v>219777958</v>
       </c>
       <c r="AL80" s="11">
-        <v>219777958</v>
+        <v>240359601</v>
       </c>
       <c r="AM80" s="11">
-        <v>240359601</v>
+        <v>258004789</v>
       </c>
       <c r="AN80" s="11">
-        <v>258004789</v>
+        <v>242590703</v>
       </c>
       <c r="AO80" s="11">
-        <v>242590703</v>
+        <v>243242137</v>
       </c>
       <c r="AP80" s="11">
-        <v>243242137</v>
+        <v>259981528</v>
       </c>
       <c r="AQ80" s="11">
-        <v>259981528</v>
+        <v>246589234</v>
       </c>
       <c r="AR80" s="11">
-        <v>246589234</v>
+        <v>221946943</v>
       </c>
       <c r="AS80" s="11">
-        <v>221946943</v>
+        <v>232064733</v>
       </c>
       <c r="AT80" s="11">
-        <v>232064733</v>
+        <v>277234885</v>
       </c>
       <c r="AU80" s="11">
-        <v>277234885</v>
+        <v>270663759</v>
       </c>
       <c r="AV80" s="11">
-        <v>270663759</v>
+        <v>308377385</v>
       </c>
       <c r="AW80" s="11">
-        <v>308377385</v>
+        <v>331016527</v>
       </c>
       <c r="AX80" s="11">
-        <v>331016527</v>
+        <v>306024180</v>
       </c>
       <c r="AY80" s="11">
-        <v>306024180</v>
+        <v>306649141</v>
       </c>
       <c r="AZ80" s="11">
-        <v>306649141</v>
+        <v>339173204</v>
       </c>
       <c r="BA80" s="11">
-        <v>339173204</v>
+        <v>355751865</v>
       </c>
       <c r="BB80" s="11">
-        <v>355751865</v>
+        <v>360438871</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -10138,95 +10138,95 @@
       <c r="X81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="13" t="s">
-        <v>58</v>
+      <c r="Y81" s="13">
+        <v>115399706</v>
       </c>
       <c r="Z81" s="13">
-        <v>115399706</v>
+        <v>113922294</v>
       </c>
       <c r="AA81" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="AB81" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="AC81" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="AD81" s="13">
-        <v>158468618</v>
+        <v>159051697</v>
       </c>
       <c r="AE81" s="13">
-        <v>159051697</v>
+        <v>157767608</v>
       </c>
       <c r="AF81" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AG81" s="13">
-        <v>155736734</v>
+        <v>160959795</v>
       </c>
       <c r="AH81" s="13">
-        <v>160959795</v>
+        <v>159230297</v>
       </c>
       <c r="AI81" s="13">
-        <v>159230297</v>
+        <v>150605781</v>
       </c>
       <c r="AJ81" s="13">
-        <v>150605781</v>
+        <v>152193376</v>
       </c>
       <c r="AK81" s="13">
-        <v>152193376</v>
+        <v>181930198</v>
       </c>
       <c r="AL81" s="13">
-        <v>181930198</v>
+        <v>197605498</v>
       </c>
       <c r="AM81" s="13">
-        <v>197605498</v>
+        <v>199956989</v>
       </c>
       <c r="AN81" s="13">
-        <v>199956989</v>
+        <v>191946805</v>
       </c>
       <c r="AO81" s="13">
-        <v>191946805</v>
+        <v>193369129</v>
       </c>
       <c r="AP81" s="13">
-        <v>193369129</v>
+        <v>187935250</v>
       </c>
       <c r="AQ81" s="13">
-        <v>187935250</v>
+        <v>179946517</v>
       </c>
       <c r="AR81" s="13">
-        <v>179946517</v>
+        <v>184031466</v>
       </c>
       <c r="AS81" s="13">
-        <v>184031466</v>
+        <v>182691466</v>
       </c>
       <c r="AT81" s="13">
-        <v>182691466</v>
+        <v>198510884</v>
       </c>
       <c r="AU81" s="13">
-        <v>198510884</v>
+        <v>210813898</v>
       </c>
       <c r="AV81" s="13">
-        <v>210813898</v>
+        <v>245964583</v>
       </c>
       <c r="AW81" s="13">
-        <v>245964583</v>
+        <v>252630254</v>
       </c>
       <c r="AX81" s="13">
-        <v>252630254</v>
+        <v>248870054</v>
       </c>
       <c r="AY81" s="13">
-        <v>248870054</v>
+        <v>221929144</v>
       </c>
       <c r="AZ81" s="13">
-        <v>221929144</v>
+        <v>246663613</v>
       </c>
       <c r="BA81" s="13">
-        <v>246663613</v>
+        <v>270458430</v>
       </c>
       <c r="BB81" s="13">
-        <v>270458430</v>
+        <v>254986292</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -10297,95 +10297,95 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>77486859</v>
       </c>
       <c r="Z82" s="11">
-        <v>77486859</v>
+        <v>66429965</v>
       </c>
       <c r="AA82" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="AB82" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="AC82" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="AD82" s="11">
-        <v>88914052</v>
+        <v>94293353</v>
       </c>
       <c r="AE82" s="11">
-        <v>94293353</v>
+        <v>98572533</v>
       </c>
       <c r="AF82" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AG82" s="11">
-        <v>97912151</v>
+        <v>107537531</v>
       </c>
       <c r="AH82" s="11">
-        <v>107537531</v>
+        <v>100770404</v>
       </c>
       <c r="AI82" s="11">
-        <v>100770404</v>
+        <v>100611846</v>
       </c>
       <c r="AJ82" s="11">
-        <v>100611846</v>
+        <v>100857322</v>
       </c>
       <c r="AK82" s="11">
-        <v>100857322</v>
+        <v>109290026</v>
       </c>
       <c r="AL82" s="11">
-        <v>109290026</v>
+        <v>126767097</v>
       </c>
       <c r="AM82" s="11">
-        <v>126767097</v>
+        <v>134414315</v>
       </c>
       <c r="AN82" s="11">
-        <v>134414315</v>
+        <v>107483296</v>
       </c>
       <c r="AO82" s="11">
-        <v>107483296</v>
+        <v>107440881</v>
       </c>
       <c r="AP82" s="11">
-        <v>107440881</v>
+        <v>108581166</v>
       </c>
       <c r="AQ82" s="11">
-        <v>108581166</v>
+        <v>105700071</v>
       </c>
       <c r="AR82" s="11">
-        <v>105700071</v>
+        <v>106946370</v>
       </c>
       <c r="AS82" s="11">
-        <v>106946370</v>
+        <v>112588474</v>
       </c>
       <c r="AT82" s="11">
-        <v>112588474</v>
+        <v>130256257</v>
       </c>
       <c r="AU82" s="11">
-        <v>130256257</v>
+        <v>125382193</v>
       </c>
       <c r="AV82" s="11">
-        <v>125382193</v>
+        <v>153371625</v>
       </c>
       <c r="AW82" s="11">
-        <v>153371625</v>
+        <v>142972033</v>
       </c>
       <c r="AX82" s="11">
-        <v>142972033</v>
+        <v>157230017</v>
       </c>
       <c r="AY82" s="11">
-        <v>157230017</v>
+        <v>136806400</v>
       </c>
       <c r="AZ82" s="11">
-        <v>136806400</v>
+        <v>139680977</v>
       </c>
       <c r="BA82" s="11">
-        <v>139680977</v>
+        <v>147324058</v>
       </c>
       <c r="BB82" s="11">
-        <v>147324058</v>
+        <v>150905838</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10513,12 +10513,12 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z84" s="11">
+      <c r="Y84" s="11">
         <v>258500000</v>
       </c>
+      <c r="Z84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA84" s="11" t="s">
         <v>58</v>
       </c>
@@ -10528,80 +10528,80 @@
       <c r="AC84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE84" s="11">
+      <c r="AD84" s="11">
         <v>278818182</v>
       </c>
+      <c r="AE84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AF84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG84" s="11" t="s">
-        <v>58</v>
+      <c r="AG84" s="11">
+        <v>261153846</v>
       </c>
       <c r="AH84" s="11">
-        <v>261153846</v>
-      </c>
-      <c r="AI84" s="11">
         <v>276250000</v>
       </c>
-      <c r="AJ84" s="11" t="s">
-        <v>58</v>
+      <c r="AI84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ84" s="11">
+        <v>276000000</v>
       </c>
       <c r="AK84" s="11">
-        <v>276000000</v>
+        <v>254666667</v>
       </c>
       <c r="AL84" s="11">
-        <v>254666667</v>
+        <v>175375000</v>
       </c>
       <c r="AM84" s="11">
-        <v>175375000</v>
+        <v>281178571</v>
       </c>
       <c r="AN84" s="11">
-        <v>281178571</v>
+        <v>316666667</v>
       </c>
       <c r="AO84" s="11">
-        <v>316666667</v>
+        <v>244608696</v>
       </c>
       <c r="AP84" s="11">
-        <v>244608696</v>
+        <v>298085714</v>
       </c>
       <c r="AQ84" s="11">
-        <v>298085714</v>
+        <v>280333333</v>
       </c>
       <c r="AR84" s="11">
-        <v>280333333</v>
+        <v>290000000</v>
       </c>
       <c r="AS84" s="11">
-        <v>290000000</v>
+        <v>316416667</v>
       </c>
       <c r="AT84" s="11">
-        <v>316416667</v>
+        <v>390500000</v>
       </c>
       <c r="AU84" s="11">
-        <v>390500000</v>
+        <v>295750000</v>
       </c>
       <c r="AV84" s="11">
-        <v>295750000</v>
+        <v>521636364</v>
       </c>
       <c r="AW84" s="11">
-        <v>521636364</v>
+        <v>757753846</v>
       </c>
       <c r="AX84" s="11">
-        <v>757753846</v>
+        <v>323971014</v>
       </c>
       <c r="AY84" s="11">
-        <v>323971014</v>
+        <v>271106383</v>
       </c>
       <c r="AZ84" s="11">
-        <v>271106383</v>
+        <v>329333333</v>
       </c>
       <c r="BA84" s="11">
-        <v>329333333</v>
+        <v>248076923</v>
       </c>
       <c r="BB84" s="11">
-        <v>248076923</v>
+        <v>462523810</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10672,12 +10672,12 @@
       <c r="X85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z85" s="13">
+      <c r="Y85" s="13">
         <v>125600000</v>
       </c>
+      <c r="Z85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AA85" s="13" t="s">
         <v>58</v>
       </c>
@@ -10687,80 +10687,80 @@
       <c r="AC85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE85" s="13">
+      <c r="AD85" s="13">
         <v>122607143</v>
       </c>
+      <c r="AE85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG85" s="13" t="s">
-        <v>58</v>
+      <c r="AG85" s="13">
+        <v>114272727</v>
       </c>
       <c r="AH85" s="13">
-        <v>114272727</v>
-      </c>
-      <c r="AI85" s="13">
         <v>71000000</v>
       </c>
-      <c r="AJ85" s="13" t="s">
-        <v>58</v>
+      <c r="AI85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ85" s="13">
+        <v>136363636</v>
       </c>
       <c r="AK85" s="13">
-        <v>136363636</v>
+        <v>138242424</v>
       </c>
       <c r="AL85" s="13">
-        <v>138242424</v>
+        <v>162875000</v>
       </c>
       <c r="AM85" s="13">
-        <v>162875000</v>
+        <v>161481481</v>
       </c>
       <c r="AN85" s="13">
-        <v>161481481</v>
+        <v>159687500</v>
       </c>
       <c r="AO85" s="13">
-        <v>159687500</v>
+        <v>160347826</v>
       </c>
       <c r="AP85" s="13">
-        <v>160347826</v>
+        <v>150125000</v>
       </c>
       <c r="AQ85" s="13">
-        <v>150125000</v>
+        <v>81431624</v>
       </c>
       <c r="AR85" s="13">
-        <v>81431624</v>
+        <v>109853933</v>
       </c>
       <c r="AS85" s="13">
-        <v>109853933</v>
+        <v>99261364</v>
       </c>
       <c r="AT85" s="13">
-        <v>99261364</v>
+        <v>145666667</v>
       </c>
       <c r="AU85" s="13">
-        <v>145666667</v>
+        <v>183130435</v>
       </c>
       <c r="AV85" s="13">
-        <v>183130435</v>
+        <v>70718391</v>
       </c>
       <c r="AW85" s="13">
-        <v>70718391</v>
+        <v>149177033</v>
       </c>
       <c r="AX85" s="13">
-        <v>149177033</v>
+        <v>147930556</v>
       </c>
       <c r="AY85" s="13">
-        <v>147930556</v>
+        <v>134151961</v>
       </c>
       <c r="AZ85" s="13">
-        <v>134151961</v>
+        <v>259767123</v>
       </c>
       <c r="BA85" s="13">
-        <v>259767123</v>
+        <v>177268868</v>
       </c>
       <c r="BB85" s="13">
-        <v>177268868</v>
+        <v>214432099</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10831,12 +10831,12 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z86" s="11">
+      <c r="Y86" s="11">
         <v>145222222</v>
       </c>
+      <c r="Z86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AA86" s="11" t="s">
         <v>58</v>
       </c>
@@ -10846,80 +10846,80 @@
       <c r="AC86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE86" s="11">
+      <c r="AD86" s="11">
         <v>189756757</v>
       </c>
+      <c r="AE86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AF86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG86" s="11" t="s">
-        <v>58</v>
+      <c r="AG86" s="11">
+        <v>257076923</v>
       </c>
       <c r="AH86" s="11">
-        <v>257076923</v>
-      </c>
-      <c r="AI86" s="11">
         <v>166750000</v>
       </c>
-      <c r="AJ86" s="11" t="s">
-        <v>58</v>
+      <c r="AI86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ86" s="11">
+        <v>175333333</v>
       </c>
       <c r="AK86" s="11">
-        <v>175333333</v>
+        <v>146333333</v>
       </c>
       <c r="AL86" s="11">
-        <v>146333333</v>
+        <v>154000000</v>
       </c>
       <c r="AM86" s="11">
-        <v>154000000</v>
+        <v>210200000</v>
       </c>
       <c r="AN86" s="11">
-        <v>210200000</v>
+        <v>181500000</v>
       </c>
       <c r="AO86" s="11">
+        <v>208240000</v>
+      </c>
+      <c r="AP86" s="11">
+        <v>186125000</v>
+      </c>
+      <c r="AQ86" s="11">
+        <v>158000000</v>
+      </c>
+      <c r="AR86" s="11">
+        <v>201375000</v>
+      </c>
+      <c r="AS86" s="11">
+        <v>175170213</v>
+      </c>
+      <c r="AT86" s="11">
+        <v>163100000</v>
+      </c>
+      <c r="AU86" s="11">
         <v>181500000</v>
       </c>
-      <c r="AP86" s="11">
-        <v>208240000</v>
-      </c>
-      <c r="AQ86" s="11">
-        <v>186125000</v>
-      </c>
-      <c r="AR86" s="11">
-        <v>158000000</v>
-      </c>
-      <c r="AS86" s="11">
-        <v>201375000</v>
-      </c>
-      <c r="AT86" s="11">
-        <v>175170213</v>
-      </c>
-      <c r="AU86" s="11">
-        <v>163100000</v>
-      </c>
-      <c r="AV86" s="11">
-        <v>181500000</v>
-      </c>
-      <c r="AW86" s="11" t="s">
-        <v>58</v>
+      <c r="AV86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW86" s="11">
+        <v>172180851</v>
       </c>
       <c r="AX86" s="11">
-        <v>172180851</v>
+        <v>138469388</v>
       </c>
       <c r="AY86" s="11">
-        <v>138469388</v>
+        <v>203290909</v>
       </c>
       <c r="AZ86" s="11">
-        <v>203290909</v>
+        <v>212142857</v>
       </c>
       <c r="BA86" s="11">
-        <v>212142857</v>
+        <v>165396040</v>
       </c>
       <c r="BB86" s="11">
-        <v>165396040</v>
+        <v>255781250</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11080,8 +11080,8 @@
       <c r="AI88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ88" s="11" t="s">
-        <v>58</v>
+      <c r="AJ88" s="11">
+        <v>0</v>
       </c>
       <c r="AK88" s="11">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E3DD21-30F5-441C-A6E3-05B250FA0E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +34,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
     <t>ماه 9 منتهی به 1397/09</t>
@@ -187,6 +183,9 @@
     <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -298,7 +297,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,7 +490,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -503,7 +502,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -550,23 +549,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -602,23 +584,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -770,17 +735,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -835,7 +800,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +857,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -949,7 +914,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1004,7 +969,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1061,7 +1026,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1118,7 +1083,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1173,7 +1138,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1385,7 +1350,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1442,7 +1407,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1534,11 +1499,11 @@
       <c r="AF11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>0</v>
+      <c r="AG11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
@@ -1567,11 +1532,11 @@
       <c r="AQ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>0</v>
+      <c r="AR11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
@@ -1601,7 +1566,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1666,101 +1631,101 @@
       <c r="W12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="X12" s="13">
+        <v>4997</v>
       </c>
       <c r="Y12" s="13">
-        <v>4997</v>
+        <v>4441</v>
       </c>
       <c r="Z12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="AA12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="AB12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="AC12" s="13">
-        <v>5117</v>
+        <v>6366</v>
       </c>
       <c r="AD12" s="13">
-        <v>6366</v>
+        <v>6970</v>
       </c>
       <c r="AE12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AF12" s="13">
-        <v>3508</v>
+        <v>5188</v>
       </c>
       <c r="AG12" s="13">
-        <v>5188</v>
+        <v>2215</v>
       </c>
       <c r="AH12" s="13">
-        <v>2215</v>
+        <v>2061</v>
       </c>
       <c r="AI12" s="13">
-        <v>2061</v>
+        <v>2723</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2723</v>
+        <v>5501</v>
       </c>
       <c r="AK12" s="13">
-        <v>5501</v>
+        <v>4003</v>
       </c>
       <c r="AL12" s="13">
-        <v>4003</v>
+        <v>4551</v>
       </c>
       <c r="AM12" s="13">
-        <v>4551</v>
+        <v>3295</v>
       </c>
       <c r="AN12" s="13">
-        <v>3295</v>
+        <v>2765</v>
       </c>
       <c r="AO12" s="13">
-        <v>2765</v>
+        <v>2834</v>
       </c>
       <c r="AP12" s="13">
-        <v>2834</v>
+        <v>2715</v>
       </c>
       <c r="AQ12" s="13">
-        <v>2715</v>
+        <v>4639</v>
       </c>
       <c r="AR12" s="13">
-        <v>4639</v>
+        <v>3613</v>
       </c>
       <c r="AS12" s="13">
-        <v>3613</v>
+        <v>1794</v>
       </c>
       <c r="AT12" s="13">
-        <v>1794</v>
+        <v>2501</v>
       </c>
       <c r="AU12" s="13">
-        <v>2501</v>
+        <v>4251</v>
       </c>
       <c r="AV12" s="13">
-        <v>4251</v>
+        <v>3746</v>
       </c>
       <c r="AW12" s="13">
-        <v>3746</v>
+        <v>3859</v>
       </c>
       <c r="AX12" s="13">
-        <v>3859</v>
+        <v>4508</v>
       </c>
       <c r="AY12" s="13">
-        <v>4508</v>
+        <v>3251</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3251</v>
+        <v>3575</v>
       </c>
       <c r="BA12" s="13">
-        <v>3575</v>
+        <v>3828</v>
       </c>
       <c r="BB12" s="13">
-        <v>3828</v>
+        <v>3884</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1825,101 +1790,101 @@
       <c r="W13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="X13" s="11">
+        <v>3960</v>
       </c>
       <c r="Y13" s="11">
-        <v>3960</v>
+        <v>2649</v>
       </c>
       <c r="Z13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="AA13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="AB13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="AC13" s="11">
-        <v>4166</v>
+        <v>5116</v>
       </c>
       <c r="AD13" s="11">
-        <v>5116</v>
+        <v>5700</v>
       </c>
       <c r="AE13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AF13" s="11">
-        <v>3767</v>
+        <v>5489</v>
       </c>
       <c r="AG13" s="11">
-        <v>5489</v>
+        <v>2828</v>
       </c>
       <c r="AH13" s="11">
-        <v>2828</v>
+        <v>885</v>
       </c>
       <c r="AI13" s="11">
-        <v>885</v>
+        <v>3298</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3298</v>
+        <v>5308</v>
       </c>
       <c r="AK13" s="11">
-        <v>5308</v>
+        <v>3649</v>
       </c>
       <c r="AL13" s="11">
-        <v>3649</v>
+        <v>4833</v>
       </c>
       <c r="AM13" s="11">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="AN13" s="11">
-        <v>3167</v>
+        <v>3605</v>
       </c>
       <c r="AO13" s="11">
-        <v>3605</v>
+        <v>4516</v>
       </c>
       <c r="AP13" s="11">
-        <v>4516</v>
+        <v>4017</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4017</v>
+        <v>4980</v>
       </c>
       <c r="AR13" s="11">
-        <v>4980</v>
+        <v>4203</v>
       </c>
       <c r="AS13" s="11">
-        <v>4203</v>
+        <v>2345</v>
       </c>
       <c r="AT13" s="11">
-        <v>2345</v>
+        <v>3369</v>
       </c>
       <c r="AU13" s="11">
-        <v>3369</v>
+        <v>4648</v>
       </c>
       <c r="AV13" s="11">
-        <v>4648</v>
+        <v>5280</v>
       </c>
       <c r="AW13" s="11">
-        <v>5280</v>
+        <v>5422</v>
       </c>
       <c r="AX13" s="11">
-        <v>5422</v>
+        <v>5367</v>
       </c>
       <c r="AY13" s="11">
-        <v>5367</v>
+        <v>4848</v>
       </c>
       <c r="AZ13" s="11">
-        <v>4848</v>
+        <v>6590</v>
       </c>
       <c r="BA13" s="11">
-        <v>6590</v>
+        <v>6571</v>
       </c>
       <c r="BB13" s="11">
-        <v>6571</v>
+        <v>6871</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1984,101 +1949,101 @@
       <c r="W14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="X14" s="13">
+        <v>4231</v>
       </c>
       <c r="Y14" s="13">
-        <v>4231</v>
+        <v>2713</v>
       </c>
       <c r="Z14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="AA14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="AB14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="AC14" s="13">
-        <v>3392</v>
+        <v>4538</v>
       </c>
       <c r="AD14" s="13">
-        <v>4538</v>
+        <v>5244</v>
       </c>
       <c r="AE14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AF14" s="13">
-        <v>5692</v>
+        <v>5304</v>
       </c>
       <c r="AG14" s="13">
-        <v>5304</v>
+        <v>2420</v>
       </c>
       <c r="AH14" s="13">
-        <v>2420</v>
+        <v>2852</v>
       </c>
       <c r="AI14" s="13">
-        <v>2852</v>
+        <v>3732</v>
       </c>
       <c r="AJ14" s="13">
-        <v>3732</v>
+        <v>4830</v>
       </c>
       <c r="AK14" s="13">
-        <v>4830</v>
+        <v>4123</v>
       </c>
       <c r="AL14" s="13">
-        <v>4123</v>
+        <v>5325</v>
       </c>
       <c r="AM14" s="13">
-        <v>5325</v>
+        <v>4369</v>
       </c>
       <c r="AN14" s="13">
-        <v>4369</v>
+        <v>4139</v>
       </c>
       <c r="AO14" s="13">
-        <v>4139</v>
+        <v>3623</v>
       </c>
       <c r="AP14" s="13">
-        <v>3623</v>
+        <v>3654</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3654</v>
+        <v>5474</v>
       </c>
       <c r="AR14" s="13">
-        <v>5474</v>
+        <v>4187</v>
       </c>
       <c r="AS14" s="13">
-        <v>4187</v>
+        <v>2374</v>
       </c>
       <c r="AT14" s="13">
-        <v>2374</v>
+        <v>3537</v>
       </c>
       <c r="AU14" s="13">
-        <v>3537</v>
+        <v>4053</v>
       </c>
       <c r="AV14" s="13">
-        <v>4053</v>
+        <v>4099</v>
       </c>
       <c r="AW14" s="13">
-        <v>4099</v>
+        <v>4562</v>
       </c>
       <c r="AX14" s="13">
-        <v>4562</v>
+        <v>4648</v>
       </c>
       <c r="AY14" s="13">
-        <v>4648</v>
+        <v>3860</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3860</v>
+        <v>5434</v>
       </c>
       <c r="BA14" s="13">
-        <v>5434</v>
+        <v>5586</v>
       </c>
       <c r="BB14" s="13">
-        <v>5586</v>
+        <v>5071</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2142,100 +2107,100 @@
         <v>0</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>13188</v>
       </c>
       <c r="Y15" s="15">
-        <v>13188</v>
+        <v>9803</v>
       </c>
       <c r="Z15" s="15">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="AA15" s="15">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AB15" s="15">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AC15" s="15">
-        <v>12675</v>
+        <v>16020</v>
       </c>
       <c r="AD15" s="15">
-        <v>16020</v>
+        <v>17914</v>
       </c>
       <c r="AE15" s="15">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AF15" s="15">
-        <v>12967</v>
+        <v>15981</v>
       </c>
       <c r="AG15" s="15">
-        <v>15981</v>
+        <v>7463</v>
       </c>
       <c r="AH15" s="15">
-        <v>7463</v>
+        <v>5798</v>
       </c>
       <c r="AI15" s="15">
-        <v>5798</v>
+        <v>9753</v>
       </c>
       <c r="AJ15" s="15">
-        <v>9753</v>
+        <v>15639</v>
       </c>
       <c r="AK15" s="15">
-        <v>15639</v>
+        <v>11775</v>
       </c>
       <c r="AL15" s="15">
-        <v>11775</v>
+        <v>14709</v>
       </c>
       <c r="AM15" s="15">
-        <v>14709</v>
+        <v>10831</v>
       </c>
       <c r="AN15" s="15">
-        <v>10831</v>
+        <v>10509</v>
       </c>
       <c r="AO15" s="15">
-        <v>10509</v>
+        <v>10973</v>
       </c>
       <c r="AP15" s="15">
-        <v>10973</v>
+        <v>10386</v>
       </c>
       <c r="AQ15" s="15">
-        <v>10386</v>
+        <v>15093</v>
       </c>
       <c r="AR15" s="15">
-        <v>15093</v>
+        <v>12003</v>
       </c>
       <c r="AS15" s="15">
-        <v>12003</v>
+        <v>6513</v>
       </c>
       <c r="AT15" s="15">
-        <v>6513</v>
+        <v>9407</v>
       </c>
       <c r="AU15" s="15">
-        <v>9407</v>
+        <v>12952</v>
       </c>
       <c r="AV15" s="15">
-        <v>12952</v>
+        <v>13125</v>
       </c>
       <c r="AW15" s="15">
-        <v>13125</v>
+        <v>13843</v>
       </c>
       <c r="AX15" s="15">
-        <v>13843</v>
+        <v>14523</v>
       </c>
       <c r="AY15" s="15">
-        <v>14523</v>
+        <v>11959</v>
       </c>
       <c r="AZ15" s="15">
-        <v>11959</v>
+        <v>15599</v>
       </c>
       <c r="BA15" s="15">
-        <v>15599</v>
+        <v>15985</v>
       </c>
       <c r="BB15" s="15">
-        <v>15985</v>
+        <v>15826</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2292,7 +2257,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2384,11 +2349,11 @@
       <c r="AF17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2417,11 +2382,11 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>0</v>
+      <c r="AR17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT17" s="11" t="s">
         <v>58</v>
@@ -2451,7 +2416,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2516,101 +2481,101 @@
       <c r="W18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="X18" s="13">
+        <v>6</v>
       </c>
       <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>11</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>13</v>
+      </c>
+      <c r="AG18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="13">
         <v>6</v>
       </c>
-      <c r="Z18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="13">
+      <c r="AK18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>28</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>35</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>18</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>48</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU18" s="13">
         <v>11</v>
       </c>
-      <c r="AE18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="13">
+      <c r="AV18" s="13">
+        <v>65</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>69</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>15</v>
+      </c>
+      <c r="AZ18" s="13">
         <v>13</v>
       </c>
-      <c r="AH18" s="13">
-        <v>4</v>
-      </c>
-      <c r="AI18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="13">
+      <c r="BA18" s="13">
+        <v>63</v>
+      </c>
+      <c r="BB18" s="13">
         <v>3</v>
       </c>
-      <c r="AK18" s="13">
-        <v>6</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>28</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>35</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>12</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>18</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>48</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>4</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>11</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>65</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>69</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>15</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>13</v>
-      </c>
-      <c r="BB18" s="13">
-        <v>63</v>
-      </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2675,11 +2640,11 @@
       <c r="W19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="X19" s="11">
+        <v>5</v>
       </c>
       <c r="Y19" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2691,85 +2656,85 @@
         <v>0</v>
       </c>
       <c r="AC19" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD19" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="11">
         <v>0</v>
       </c>
       <c r="AF19" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG19" s="11">
+        <v>10</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="11">
         <v>11</v>
       </c>
-      <c r="AH19" s="11">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AJ19" s="11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AK19" s="11">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AL19" s="11">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AM19" s="11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AN19" s="11">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AO19" s="11">
+        <v>232</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>234</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>89</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>352</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT19" s="11">
         <v>46</v>
       </c>
-      <c r="AP19" s="11">
-        <v>232</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>234</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>89</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>352</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>9</v>
-      </c>
       <c r="AU19" s="11">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AV19" s="11">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AW19" s="11">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AX19" s="11">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AY19" s="11">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AZ19" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="BA19" s="11">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="BB19" s="11">
-        <v>81</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2834,11 +2799,11 @@
       <c r="W20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="X20" s="13">
+        <v>9</v>
       </c>
       <c r="Y20" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2850,85 +2815,85 @@
         <v>0</v>
       </c>
       <c r="AC20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AD20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="13">
         <v>0</v>
       </c>
       <c r="AF20" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG20" s="13">
-        <v>13</v>
-      </c>
-      <c r="AH20" s="13">
         <v>4</v>
       </c>
-      <c r="AI20" s="13" t="s">
-        <v>58</v>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>6</v>
       </c>
       <c r="AJ20" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK20" s="13">
         <v>3</v>
       </c>
       <c r="AL20" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>25</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>19</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>16</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>47</v>
+      </c>
+      <c r="AS20" s="13">
         <v>10</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>25</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>8</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>19</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>16</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>47</v>
       </c>
       <c r="AT20" s="13">
         <v>10</v>
       </c>
       <c r="AU20" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AW20" s="13">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AX20" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AY20" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AZ20" s="13">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="BA20" s="13">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="BB20" s="13">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -2992,100 +2957,100 @@
         <v>0</v>
       </c>
       <c r="X21" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="15">
+        <v>37</v>
+      </c>
+      <c r="AG21" s="15">
+        <v>18</v>
+      </c>
+      <c r="AH21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="15">
         <v>20</v>
       </c>
-      <c r="Z21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="15">
-        <v>76</v>
-      </c>
-      <c r="AE21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="15">
-        <v>37</v>
-      </c>
-      <c r="AH21" s="15">
-        <v>18</v>
-      </c>
-      <c r="AI21" s="15">
-        <v>0</v>
-      </c>
       <c r="AJ21" s="15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AK21" s="15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AL21" s="15">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AM21" s="15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AN21" s="15">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AO21" s="15">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AP21" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AQ21" s="15">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AR21" s="15">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AS21" s="15">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AT21" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AU21" s="15">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AV21" s="15">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AW21" s="15">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AX21" s="15">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AY21" s="15">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AZ21" s="15">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="BA21" s="15">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="BB21" s="15">
-        <v>176</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>65</v>
       </c>
@@ -3142,7 +3107,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>66</v>
       </c>
@@ -3273,11 +3238,11 @@
       <c r="AS23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>0</v>
+      <c r="AT23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>58</v>
@@ -3285,11 +3250,11 @@
       <c r="AW23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>0</v>
+      <c r="AX23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ23" s="11" t="s">
         <v>58</v>
@@ -3301,7 +3266,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>68</v>
       </c>
@@ -3364,8 +3329,8 @@
       <c r="W24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X24" s="17" t="s">
-        <v>58</v>
+      <c r="X24" s="17">
+        <v>0</v>
       </c>
       <c r="Y24" s="17">
         <v>0</v>
@@ -3458,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>69</v>
       </c>
@@ -3522,100 +3487,100 @@
         <v>0</v>
       </c>
       <c r="X25" s="15">
-        <v>0</v>
+        <v>13208</v>
       </c>
       <c r="Y25" s="15">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="Z25" s="15">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="AA25" s="15">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AB25" s="15">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AC25" s="15">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AD25" s="15">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AE25" s="15">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AF25" s="15">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AG25" s="15">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AH25" s="15">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AI25" s="15">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AJ25" s="15">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AK25" s="15">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AL25" s="15">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AM25" s="15">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AN25" s="15">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AO25" s="15">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AP25" s="15">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AQ25" s="15">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AR25" s="15">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AS25" s="15">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AT25" s="15">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AU25" s="15">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AV25" s="15">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AW25" s="15">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AX25" s="15">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AY25" s="15">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AZ25" s="15">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="BA25" s="15">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="BB25" s="15">
-        <v>16161</v>
+        <v>16402</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3670,7 +3635,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3725,7 +3690,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3780,7 +3745,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>70</v>
       </c>
@@ -3937,7 +3902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3992,7 +3957,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>71</v>
       </c>
@@ -4049,7 +4014,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4141,11 +4106,11 @@
       <c r="AF32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH32" s="11">
-        <v>0</v>
+      <c r="AG32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="11" t="s">
         <v>58</v>
@@ -4174,11 +4139,11 @@
       <c r="AQ32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS32" s="11">
-        <v>0</v>
+      <c r="AR32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT32" s="11" t="s">
         <v>58</v>
@@ -4208,7 +4173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4273,101 +4238,101 @@
       <c r="W33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X33" s="13" t="s">
-        <v>58</v>
+      <c r="X33" s="13">
+        <v>5028</v>
       </c>
       <c r="Y33" s="13">
-        <v>5028</v>
+        <v>4877</v>
       </c>
       <c r="Z33" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="AA33" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="AB33" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="AC33" s="13">
-        <v>4801</v>
+        <v>5824</v>
       </c>
       <c r="AD33" s="13">
-        <v>5824</v>
+        <v>6862</v>
       </c>
       <c r="AE33" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AF33" s="13">
-        <v>4729</v>
+        <v>4990</v>
       </c>
       <c r="AG33" s="13">
-        <v>4990</v>
+        <v>1225</v>
       </c>
       <c r="AH33" s="13">
-        <v>1225</v>
+        <v>3209</v>
       </c>
       <c r="AI33" s="13">
-        <v>3209</v>
+        <v>2619</v>
       </c>
       <c r="AJ33" s="13">
-        <v>2619</v>
+        <v>4945</v>
       </c>
       <c r="AK33" s="13">
-        <v>4945</v>
+        <v>4010</v>
       </c>
       <c r="AL33" s="13">
-        <v>4010</v>
+        <v>4594</v>
       </c>
       <c r="AM33" s="13">
-        <v>4594</v>
+        <v>2861</v>
       </c>
       <c r="AN33" s="13">
-        <v>2861</v>
+        <v>3593</v>
       </c>
       <c r="AO33" s="13">
-        <v>3593</v>
+        <v>2382</v>
       </c>
       <c r="AP33" s="13">
-        <v>2382</v>
+        <v>3474</v>
       </c>
       <c r="AQ33" s="13">
-        <v>3474</v>
+        <v>3958</v>
       </c>
       <c r="AR33" s="13">
-        <v>3958</v>
+        <v>4310</v>
       </c>
       <c r="AS33" s="13">
-        <v>4310</v>
+        <v>1439</v>
       </c>
       <c r="AT33" s="13">
-        <v>1439</v>
+        <v>2751</v>
       </c>
       <c r="AU33" s="13">
-        <v>2751</v>
+        <v>3564</v>
       </c>
       <c r="AV33" s="13">
-        <v>3564</v>
+        <v>3449</v>
       </c>
       <c r="AW33" s="13">
-        <v>3449</v>
+        <v>4047</v>
       </c>
       <c r="AX33" s="13">
-        <v>4047</v>
+        <v>3956</v>
       </c>
       <c r="AY33" s="13">
-        <v>3956</v>
+        <v>3187</v>
       </c>
       <c r="AZ33" s="13">
-        <v>3187</v>
+        <v>4022</v>
       </c>
       <c r="BA33" s="13">
-        <v>4022</v>
+        <v>3509</v>
       </c>
       <c r="BB33" s="13">
-        <v>3509</v>
+        <v>4570</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4432,101 +4397,101 @@
       <c r="W34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X34" s="11" t="s">
-        <v>58</v>
+      <c r="X34" s="11">
+        <v>3400</v>
       </c>
       <c r="Y34" s="11">
-        <v>3400</v>
+        <v>3243</v>
       </c>
       <c r="Z34" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="AA34" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="AB34" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="AC34" s="11">
-        <v>4270</v>
+        <v>4391</v>
       </c>
       <c r="AD34" s="11">
-        <v>4391</v>
+        <v>5310</v>
       </c>
       <c r="AE34" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AF34" s="11">
-        <v>4881</v>
+        <v>5074</v>
       </c>
       <c r="AG34" s="11">
-        <v>5074</v>
+        <v>1954</v>
       </c>
       <c r="AH34" s="11">
-        <v>1954</v>
+        <v>2387</v>
       </c>
       <c r="AI34" s="11">
-        <v>2387</v>
+        <v>2808</v>
       </c>
       <c r="AJ34" s="11">
-        <v>2808</v>
+        <v>4656</v>
       </c>
       <c r="AK34" s="11">
-        <v>4656</v>
+        <v>4038</v>
       </c>
       <c r="AL34" s="11">
-        <v>4038</v>
+        <v>4092</v>
       </c>
       <c r="AM34" s="11">
-        <v>4092</v>
+        <v>2895</v>
       </c>
       <c r="AN34" s="11">
-        <v>2895</v>
+        <v>4237</v>
       </c>
       <c r="AO34" s="11">
-        <v>4237</v>
+        <v>3583</v>
       </c>
       <c r="AP34" s="11">
-        <v>3583</v>
+        <v>3833</v>
       </c>
       <c r="AQ34" s="11">
-        <v>3833</v>
+        <v>4767</v>
       </c>
       <c r="AR34" s="11">
-        <v>4767</v>
+        <v>5390</v>
       </c>
       <c r="AS34" s="11">
-        <v>5390</v>
+        <v>2251</v>
       </c>
       <c r="AT34" s="11">
-        <v>2251</v>
+        <v>3756</v>
       </c>
       <c r="AU34" s="11">
-        <v>3756</v>
+        <v>3727</v>
       </c>
       <c r="AV34" s="11">
-        <v>3727</v>
+        <v>5520</v>
       </c>
       <c r="AW34" s="11">
-        <v>5520</v>
+        <v>5729</v>
       </c>
       <c r="AX34" s="11">
-        <v>5729</v>
+        <v>5236</v>
       </c>
       <c r="AY34" s="11">
-        <v>5236</v>
+        <v>4694</v>
       </c>
       <c r="AZ34" s="11">
-        <v>4694</v>
+        <v>6014</v>
       </c>
       <c r="BA34" s="11">
-        <v>6014</v>
+        <v>5909</v>
       </c>
       <c r="BB34" s="11">
-        <v>5909</v>
+        <v>7119</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4591,101 +4556,101 @@
       <c r="W35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X35" s="13" t="s">
-        <v>58</v>
+      <c r="X35" s="13">
+        <v>3995</v>
       </c>
       <c r="Y35" s="13">
-        <v>3995</v>
+        <v>2870</v>
       </c>
       <c r="Z35" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="AA35" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="AB35" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="AC35" s="13">
-        <v>3060</v>
+        <v>4152</v>
       </c>
       <c r="AD35" s="13">
-        <v>4152</v>
+        <v>4784</v>
       </c>
       <c r="AE35" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AF35" s="13">
-        <v>5942</v>
+        <v>4383</v>
       </c>
       <c r="AG35" s="13">
-        <v>4383</v>
+        <v>2230</v>
       </c>
       <c r="AH35" s="13">
-        <v>2230</v>
+        <v>3022</v>
       </c>
       <c r="AI35" s="13">
-        <v>3022</v>
+        <v>3182</v>
       </c>
       <c r="AJ35" s="13">
-        <v>3182</v>
+        <v>4672</v>
       </c>
       <c r="AK35" s="13">
-        <v>4672</v>
+        <v>3714</v>
       </c>
       <c r="AL35" s="13">
-        <v>3714</v>
+        <v>5351</v>
       </c>
       <c r="AM35" s="13">
-        <v>5351</v>
+        <v>4041</v>
       </c>
       <c r="AN35" s="13">
-        <v>4041</v>
+        <v>4085</v>
       </c>
       <c r="AO35" s="13">
-        <v>4085</v>
+        <v>3345</v>
       </c>
       <c r="AP35" s="13">
-        <v>3345</v>
+        <v>4231</v>
       </c>
       <c r="AQ35" s="13">
-        <v>4231</v>
+        <v>5165</v>
       </c>
       <c r="AR35" s="13">
-        <v>5165</v>
+        <v>5171</v>
       </c>
       <c r="AS35" s="13">
-        <v>5171</v>
+        <v>1838</v>
       </c>
       <c r="AT35" s="13">
-        <v>1838</v>
+        <v>3684</v>
       </c>
       <c r="AU35" s="13">
-        <v>3684</v>
+        <v>3630</v>
       </c>
       <c r="AV35" s="13">
-        <v>3630</v>
+        <v>4112</v>
       </c>
       <c r="AW35" s="13">
-        <v>4112</v>
+        <v>4788</v>
       </c>
       <c r="AX35" s="13">
-        <v>4788</v>
+        <v>4406</v>
       </c>
       <c r="AY35" s="13">
-        <v>4406</v>
+        <v>3890</v>
       </c>
       <c r="AZ35" s="13">
-        <v>3890</v>
+        <v>5175</v>
       </c>
       <c r="BA35" s="13">
-        <v>5175</v>
+        <v>5002</v>
       </c>
       <c r="BB35" s="13">
-        <v>5002</v>
+        <v>5321</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
@@ -4749,100 +4714,100 @@
         <v>0</v>
       </c>
       <c r="X36" s="15">
-        <v>0</v>
+        <v>12423</v>
       </c>
       <c r="Y36" s="15">
-        <v>12423</v>
+        <v>10990</v>
       </c>
       <c r="Z36" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="AA36" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AB36" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AC36" s="15">
-        <v>12131</v>
+        <v>14367</v>
       </c>
       <c r="AD36" s="15">
-        <v>14367</v>
+        <v>16956</v>
       </c>
       <c r="AE36" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AF36" s="15">
-        <v>15552</v>
+        <v>14447</v>
       </c>
       <c r="AG36" s="15">
-        <v>14447</v>
+        <v>5409</v>
       </c>
       <c r="AH36" s="15">
-        <v>5409</v>
+        <v>8618</v>
       </c>
       <c r="AI36" s="15">
-        <v>8618</v>
+        <v>8609</v>
       </c>
       <c r="AJ36" s="15">
-        <v>8609</v>
+        <v>14273</v>
       </c>
       <c r="AK36" s="15">
-        <v>14273</v>
+        <v>11762</v>
       </c>
       <c r="AL36" s="15">
-        <v>11762</v>
+        <v>14037</v>
       </c>
       <c r="AM36" s="15">
-        <v>14037</v>
+        <v>9797</v>
       </c>
       <c r="AN36" s="15">
-        <v>9797</v>
+        <v>11915</v>
       </c>
       <c r="AO36" s="15">
-        <v>11915</v>
+        <v>9310</v>
       </c>
       <c r="AP36" s="15">
-        <v>9310</v>
+        <v>11538</v>
       </c>
       <c r="AQ36" s="15">
-        <v>11538</v>
+        <v>13890</v>
       </c>
       <c r="AR36" s="15">
-        <v>13890</v>
+        <v>14871</v>
       </c>
       <c r="AS36" s="15">
-        <v>14871</v>
+        <v>5528</v>
       </c>
       <c r="AT36" s="15">
-        <v>5528</v>
+        <v>10191</v>
       </c>
       <c r="AU36" s="15">
-        <v>10191</v>
+        <v>10921</v>
       </c>
       <c r="AV36" s="15">
-        <v>10921</v>
+        <v>13081</v>
       </c>
       <c r="AW36" s="15">
-        <v>13081</v>
+        <v>14564</v>
       </c>
       <c r="AX36" s="15">
-        <v>14564</v>
+        <v>13598</v>
       </c>
       <c r="AY36" s="15">
-        <v>13598</v>
+        <v>11771</v>
       </c>
       <c r="AZ36" s="15">
-        <v>11771</v>
+        <v>15211</v>
       </c>
       <c r="BA36" s="15">
-        <v>15211</v>
+        <v>14420</v>
       </c>
       <c r="BB36" s="15">
-        <v>14420</v>
+        <v>17010</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>73</v>
       </c>
@@ -4899,7 +4864,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>56</v>
       </c>
@@ -4991,11 +4956,11 @@
       <c r="AF38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH38" s="11">
-        <v>0</v>
+      <c r="AG38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="11" t="s">
         <v>58</v>
@@ -5024,11 +4989,11 @@
       <c r="AQ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="11">
-        <v>0</v>
+      <c r="AR38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT38" s="11" t="s">
         <v>58</v>
@@ -5058,7 +5023,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>59</v>
       </c>
@@ -5123,101 +5088,101 @@
       <c r="W39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X39" s="13" t="s">
-        <v>58</v>
+      <c r="X39" s="13">
+        <v>6</v>
       </c>
       <c r="Y39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>11</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>13</v>
+      </c>
+      <c r="AG39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AH39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ39" s="13">
         <v>6</v>
       </c>
-      <c r="Z39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13">
+      <c r="AK39" s="13">
+        <v>8</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>28</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>23</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>35</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>18</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>48</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT39" s="13">
+        <v>8</v>
+      </c>
+      <c r="AU39" s="13">
         <v>11</v>
       </c>
-      <c r="AE39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG39" s="13">
+      <c r="AV39" s="13">
+        <v>65</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>69</v>
+      </c>
+      <c r="AX39" s="13">
+        <v>47</v>
+      </c>
+      <c r="AY39" s="13">
+        <v>15</v>
+      </c>
+      <c r="AZ39" s="13">
         <v>13</v>
       </c>
-      <c r="AH39" s="13">
-        <v>4</v>
-      </c>
-      <c r="AI39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ39" s="13">
+      <c r="BA39" s="13">
+        <v>63</v>
+      </c>
+      <c r="BB39" s="13">
         <v>3</v>
       </c>
-      <c r="AK39" s="13">
-        <v>6</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>8</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>28</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>23</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>35</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>12</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>18</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>48</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>4</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>8</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>11</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>65</v>
-      </c>
-      <c r="AX39" s="13">
-        <v>69</v>
-      </c>
-      <c r="AY39" s="13">
-        <v>47</v>
-      </c>
-      <c r="AZ39" s="13">
-        <v>15</v>
-      </c>
-      <c r="BA39" s="13">
-        <v>13</v>
-      </c>
-      <c r="BB39" s="13">
-        <v>63</v>
-      </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>60</v>
       </c>
@@ -5282,11 +5247,11 @@
       <c r="W40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X40" s="11" t="s">
-        <v>58</v>
+      <c r="X40" s="11">
+        <v>5</v>
       </c>
       <c r="Y40" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11">
         <v>0</v>
@@ -5298,85 +5263,85 @@
         <v>0</v>
       </c>
       <c r="AC40" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AD40" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="11">
         <v>0</v>
       </c>
       <c r="AF40" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG40" s="11">
+        <v>10</v>
+      </c>
+      <c r="AH40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI40" s="11">
         <v>11</v>
       </c>
-      <c r="AH40" s="11">
-        <v>10</v>
-      </c>
-      <c r="AI40" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AJ40" s="11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AK40" s="11">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AL40" s="11">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AM40" s="11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AN40" s="11">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AO40" s="11">
+        <v>232</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>234</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>89</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>352</v>
+      </c>
+      <c r="AS40" s="11">
+        <v>9</v>
+      </c>
+      <c r="AT40" s="11">
         <v>46</v>
       </c>
-      <c r="AP40" s="11">
-        <v>232</v>
-      </c>
-      <c r="AQ40" s="11">
-        <v>234</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>89</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>352</v>
-      </c>
-      <c r="AT40" s="11">
-        <v>9</v>
-      </c>
       <c r="AU40" s="11">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AV40" s="11">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AW40" s="11">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AX40" s="11">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AY40" s="11">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AZ40" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="BA40" s="11">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="BB40" s="11">
-        <v>81</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
         <v>61</v>
       </c>
@@ -5441,11 +5406,11 @@
       <c r="W41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X41" s="13" t="s">
-        <v>58</v>
+      <c r="X41" s="13">
+        <v>9</v>
       </c>
       <c r="Y41" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="13">
         <v>0</v>
@@ -5457,85 +5422,85 @@
         <v>0</v>
       </c>
       <c r="AC41" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AD41" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="13">
         <v>0</v>
       </c>
       <c r="AF41" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AG41" s="13">
-        <v>13</v>
-      </c>
-      <c r="AH41" s="13">
         <v>4</v>
       </c>
-      <c r="AI41" s="13" t="s">
-        <v>58</v>
+      <c r="AH41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI41" s="13">
+        <v>6</v>
       </c>
       <c r="AJ41" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AK41" s="13">
         <v>3</v>
       </c>
       <c r="AL41" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>25</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>8</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>19</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>16</v>
+      </c>
+      <c r="AR41" s="13">
+        <v>47</v>
+      </c>
+      <c r="AS41" s="13">
         <v>10</v>
-      </c>
-      <c r="AN41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>25</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>8</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>19</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>16</v>
-      </c>
-      <c r="AS41" s="13">
-        <v>47</v>
       </c>
       <c r="AT41" s="13">
         <v>10</v>
       </c>
       <c r="AU41" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AW41" s="13">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AX41" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AY41" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AZ41" s="13">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="BA41" s="13">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="BB41" s="13">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>74</v>
       </c>
@@ -5599,100 +5564,100 @@
         <v>0</v>
       </c>
       <c r="X42" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>76</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>37</v>
+      </c>
+      <c r="AG42" s="15">
+        <v>18</v>
+      </c>
+      <c r="AH42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="15">
         <v>20</v>
       </c>
-      <c r="Z42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="15">
-        <v>76</v>
-      </c>
-      <c r="AE42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="15">
-        <v>37</v>
-      </c>
-      <c r="AH42" s="15">
-        <v>18</v>
-      </c>
-      <c r="AI42" s="15">
-        <v>0</v>
-      </c>
       <c r="AJ42" s="15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AK42" s="15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AL42" s="15">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AM42" s="15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AN42" s="15">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AO42" s="15">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AP42" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AQ42" s="15">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AR42" s="15">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AS42" s="15">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AT42" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AU42" s="15">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AV42" s="15">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AW42" s="15">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AX42" s="15">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AY42" s="15">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AZ42" s="15">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="BA42" s="15">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="BB42" s="15">
-        <v>176</v>
+        <v>576</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>65</v>
       </c>
@@ -5749,7 +5714,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>66</v>
       </c>
@@ -5880,11 +5845,11 @@
       <c r="AS44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU44" s="11">
-        <v>0</v>
+      <c r="AT44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV44" s="11" t="s">
         <v>58</v>
@@ -5892,11 +5857,11 @@
       <c r="AW44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX44" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="11">
-        <v>0</v>
+      <c r="AX44" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ44" s="11" t="s">
         <v>58</v>
@@ -5908,7 +5873,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>68</v>
       </c>
@@ -5971,8 +5936,8 @@
       <c r="W45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X45" s="17" t="s">
-        <v>58</v>
+      <c r="X45" s="17">
+        <v>0</v>
       </c>
       <c r="Y45" s="17">
         <v>0</v>
@@ -6065,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>75</v>
       </c>
@@ -6122,7 +6087,7 @@
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>76</v>
       </c>
@@ -6185,8 +6150,8 @@
       <c r="W47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X47" s="15" t="s">
-        <v>58</v>
+      <c r="X47" s="15">
+        <v>0</v>
       </c>
       <c r="Y47" s="15">
         <v>0</v>
@@ -6279,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>69</v>
       </c>
@@ -6343,100 +6308,100 @@
         <v>0</v>
       </c>
       <c r="X48" s="17">
-        <v>0</v>
+        <v>12443</v>
       </c>
       <c r="Y48" s="17">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="Z48" s="17">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="AA48" s="17">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AB48" s="17">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AC48" s="17">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AD48" s="17">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AE48" s="17">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AF48" s="17">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AG48" s="17">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AH48" s="17">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AI48" s="17">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AJ48" s="17">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AK48" s="17">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AL48" s="17">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AM48" s="17">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AN48" s="17">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AO48" s="17">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AP48" s="17">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AQ48" s="17">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AR48" s="17">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AS48" s="17">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AT48" s="17">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AU48" s="17">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AV48" s="17">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AW48" s="17">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AX48" s="17">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AY48" s="17">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AZ48" s="17">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="BA48" s="17">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="BB48" s="17">
-        <v>14596</v>
+        <v>17586</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6491,7 +6456,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6546,7 +6511,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6601,7 +6566,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>77</v>
       </c>
@@ -6758,7 +6723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6813,7 +6778,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>78</v>
       </c>
@@ -6870,7 +6835,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>56</v>
       </c>
@@ -6962,8 +6927,8 @@
       <c r="AF55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG55" s="11" t="s">
-        <v>58</v>
+      <c r="AG55" s="11">
+        <v>0</v>
       </c>
       <c r="AH55" s="11">
         <v>0</v>
@@ -6998,8 +6963,8 @@
       <c r="AR55" s="11">
         <v>0</v>
       </c>
-      <c r="AS55" s="11">
-        <v>0</v>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
@@ -7029,7 +6994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>59</v>
       </c>
@@ -7094,101 +7059,101 @@
       <c r="W56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="X56" s="13">
+        <v>616646</v>
       </c>
       <c r="Y56" s="13">
-        <v>616646</v>
+        <v>599851</v>
       </c>
       <c r="Z56" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="AA56" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="AB56" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="AC56" s="13">
-        <v>762474</v>
+        <v>931426</v>
       </c>
       <c r="AD56" s="13">
-        <v>931426</v>
+        <v>1210523</v>
       </c>
       <c r="AE56" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AF56" s="13">
-        <v>792902</v>
+        <v>859086</v>
       </c>
       <c r="AG56" s="13">
-        <v>859086</v>
+        <v>232727</v>
       </c>
       <c r="AH56" s="13">
-        <v>232727</v>
+        <v>638333</v>
       </c>
       <c r="AI56" s="13">
-        <v>638333</v>
+        <v>599912</v>
       </c>
       <c r="AJ56" s="13">
-        <v>599912</v>
+        <v>1086802</v>
       </c>
       <c r="AK56" s="13">
-        <v>1086802</v>
+        <v>963842</v>
       </c>
       <c r="AL56" s="13">
-        <v>963842</v>
+        <v>1185274</v>
       </c>
       <c r="AM56" s="13">
-        <v>1185274</v>
+        <v>694052</v>
       </c>
       <c r="AN56" s="13">
-        <v>694052</v>
+        <v>873969</v>
       </c>
       <c r="AO56" s="13">
-        <v>873969</v>
+        <v>619276</v>
       </c>
       <c r="AP56" s="13">
-        <v>619276</v>
+        <v>856651</v>
       </c>
       <c r="AQ56" s="13">
-        <v>856651</v>
+        <v>878466</v>
       </c>
       <c r="AR56" s="13">
-        <v>878466</v>
+        <v>1000199</v>
       </c>
       <c r="AS56" s="13">
-        <v>1000199</v>
+        <v>398941</v>
       </c>
       <c r="AT56" s="13">
-        <v>398941</v>
+        <v>744596</v>
       </c>
       <c r="AU56" s="13">
-        <v>744596</v>
+        <v>1099057</v>
       </c>
       <c r="AV56" s="13">
-        <v>1099057</v>
+        <v>1141676</v>
       </c>
       <c r="AW56" s="13">
-        <v>1141676</v>
+        <v>1278262</v>
       </c>
       <c r="AX56" s="13">
-        <v>1128354</v>
+        <v>1213104</v>
       </c>
       <c r="AY56" s="13">
-        <v>1213104</v>
+        <v>1080945</v>
       </c>
       <c r="AZ56" s="13">
-        <v>1080945</v>
+        <v>1430834</v>
       </c>
       <c r="BA56" s="13">
-        <v>1430834</v>
+        <v>1264780</v>
       </c>
       <c r="BB56" s="13">
-        <v>1264780</v>
+        <v>1515421</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>60</v>
       </c>
@@ -7253,101 +7218,101 @@
       <c r="W57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="X57" s="11">
+        <v>392359</v>
       </c>
       <c r="Y57" s="11">
-        <v>392359</v>
+        <v>369450</v>
       </c>
       <c r="Z57" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="AA57" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="AB57" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="AC57" s="11">
-        <v>676661</v>
+        <v>698396</v>
       </c>
       <c r="AD57" s="11">
-        <v>698396</v>
+        <v>837746</v>
       </c>
       <c r="AE57" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AF57" s="11">
-        <v>760151</v>
+        <v>816710</v>
       </c>
       <c r="AG57" s="11">
-        <v>816710</v>
+        <v>311136</v>
       </c>
       <c r="AH57" s="11">
-        <v>311136</v>
+        <v>359496</v>
       </c>
       <c r="AI57" s="11">
-        <v>359496</v>
+        <v>427359</v>
       </c>
       <c r="AJ57" s="11">
-        <v>427359</v>
+        <v>847067</v>
       </c>
       <c r="AK57" s="11">
-        <v>847067</v>
+        <v>797931</v>
       </c>
       <c r="AL57" s="11">
-        <v>797931</v>
+        <v>818224</v>
       </c>
       <c r="AM57" s="11">
-        <v>818224</v>
+        <v>555686</v>
       </c>
       <c r="AN57" s="11">
-        <v>555686</v>
+        <v>819305</v>
       </c>
       <c r="AO57" s="11">
-        <v>819305</v>
+        <v>673372</v>
       </c>
       <c r="AP57" s="11">
-        <v>673372</v>
+        <v>689735</v>
       </c>
       <c r="AQ57" s="11">
-        <v>689735</v>
+        <v>877278</v>
       </c>
       <c r="AR57" s="11">
-        <v>877278</v>
+        <v>984707</v>
       </c>
       <c r="AS57" s="11">
-        <v>984707</v>
+        <v>446848</v>
       </c>
       <c r="AT57" s="11">
-        <v>446848</v>
+        <v>791817</v>
       </c>
       <c r="AU57" s="11">
-        <v>791817</v>
+        <v>916710</v>
       </c>
       <c r="AV57" s="11">
-        <v>916710</v>
+        <v>1394519</v>
       </c>
       <c r="AW57" s="11">
-        <v>1394519</v>
+        <v>1472106</v>
       </c>
       <c r="AX57" s="11">
-        <v>1302420</v>
+        <v>1162021</v>
       </c>
       <c r="AY57" s="11">
-        <v>1162021</v>
+        <v>1157839</v>
       </c>
       <c r="AZ57" s="11">
-        <v>1157839</v>
+        <v>1626537</v>
       </c>
       <c r="BA57" s="11">
-        <v>1626537</v>
+        <v>1506714</v>
       </c>
       <c r="BB57" s="11">
-        <v>1506714</v>
+        <v>1790087</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>61</v>
       </c>
@@ -7412,101 +7377,101 @@
       <c r="W58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X58" s="13" t="s">
-        <v>58</v>
+      <c r="X58" s="13">
+        <v>309560</v>
       </c>
       <c r="Y58" s="13">
-        <v>309560</v>
+        <v>190654</v>
       </c>
       <c r="Z58" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="AA58" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="AB58" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="AC58" s="13">
-        <v>272077</v>
+        <v>391506</v>
       </c>
       <c r="AD58" s="13">
-        <v>391506</v>
+        <v>471571</v>
       </c>
       <c r="AE58" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AF58" s="13">
-        <v>581794</v>
+        <v>471337</v>
       </c>
       <c r="AG58" s="13">
-        <v>471337</v>
+        <v>224718</v>
       </c>
       <c r="AH58" s="13">
-        <v>224718</v>
+        <v>304049</v>
       </c>
       <c r="AI58" s="13">
-        <v>304049</v>
+        <v>320928</v>
       </c>
       <c r="AJ58" s="13">
-        <v>320928</v>
+        <v>510603</v>
       </c>
       <c r="AK58" s="13">
-        <v>510603</v>
+        <v>470813</v>
       </c>
       <c r="AL58" s="13">
-        <v>470813</v>
+        <v>719251</v>
       </c>
       <c r="AM58" s="13">
-        <v>719251</v>
+        <v>434340</v>
       </c>
       <c r="AN58" s="13">
-        <v>434340</v>
+        <v>438896</v>
       </c>
       <c r="AO58" s="13">
-        <v>438896</v>
+        <v>363204</v>
       </c>
       <c r="AP58" s="13">
-        <v>363204</v>
+        <v>447217</v>
       </c>
       <c r="AQ58" s="13">
-        <v>447217</v>
+        <v>552378</v>
       </c>
       <c r="AR58" s="13">
-        <v>552378</v>
+        <v>582195</v>
       </c>
       <c r="AS58" s="13">
-        <v>582195</v>
+        <v>239411</v>
       </c>
       <c r="AT58" s="13">
-        <v>239411</v>
+        <v>461908</v>
       </c>
       <c r="AU58" s="13">
-        <v>461908</v>
+        <v>556739</v>
       </c>
       <c r="AV58" s="13">
-        <v>556739</v>
+        <v>587901</v>
       </c>
       <c r="AW58" s="13">
-        <v>587901</v>
+        <v>774201</v>
       </c>
       <c r="AX58" s="13">
-        <v>693579</v>
+        <v>602769</v>
       </c>
       <c r="AY58" s="13">
-        <v>602769</v>
+        <v>543359</v>
       </c>
       <c r="AZ58" s="13">
-        <v>543359</v>
+        <v>762402</v>
       </c>
       <c r="BA58" s="13">
-        <v>762402</v>
+        <v>754831</v>
       </c>
       <c r="BB58" s="13">
-        <v>754831</v>
+        <v>860800</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>72</v>
       </c>
@@ -7570,100 +7535,100 @@
         <v>0</v>
       </c>
       <c r="X59" s="15">
-        <v>0</v>
+        <v>1318565</v>
       </c>
       <c r="Y59" s="15">
-        <v>1318565</v>
+        <v>1159955</v>
       </c>
       <c r="Z59" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="AA59" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AB59" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AC59" s="15">
-        <v>1711212</v>
+        <v>2021328</v>
       </c>
       <c r="AD59" s="15">
-        <v>2021328</v>
+        <v>2519840</v>
       </c>
       <c r="AE59" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AF59" s="15">
-        <v>2134847</v>
+        <v>2147133</v>
       </c>
       <c r="AG59" s="15">
-        <v>2147133</v>
+        <v>768581</v>
       </c>
       <c r="AH59" s="15">
-        <v>768581</v>
+        <v>1301878</v>
       </c>
       <c r="AI59" s="15">
-        <v>1301878</v>
+        <v>1348199</v>
       </c>
       <c r="AJ59" s="15">
-        <v>1348199</v>
+        <v>2444472</v>
       </c>
       <c r="AK59" s="15">
-        <v>2444472</v>
+        <v>2232586</v>
       </c>
       <c r="AL59" s="15">
-        <v>2232586</v>
+        <v>2722749</v>
       </c>
       <c r="AM59" s="15">
-        <v>2722749</v>
+        <v>1684078</v>
       </c>
       <c r="AN59" s="15">
-        <v>1684078</v>
+        <v>2132170</v>
       </c>
       <c r="AO59" s="15">
-        <v>2132170</v>
+        <v>1655852</v>
       </c>
       <c r="AP59" s="15">
-        <v>1655852</v>
+        <v>1993603</v>
       </c>
       <c r="AQ59" s="15">
-        <v>1993603</v>
+        <v>2308122</v>
       </c>
       <c r="AR59" s="15">
-        <v>2308122</v>
+        <v>2567101</v>
       </c>
       <c r="AS59" s="15">
-        <v>2567101</v>
+        <v>1085200</v>
       </c>
       <c r="AT59" s="15">
-        <v>1085200</v>
+        <v>1998321</v>
       </c>
       <c r="AU59" s="15">
-        <v>1998321</v>
+        <v>2572506</v>
       </c>
       <c r="AV59" s="15">
-        <v>2572506</v>
+        <v>3124096</v>
       </c>
       <c r="AW59" s="15">
-        <v>3124096</v>
+        <v>3524569</v>
       </c>
       <c r="AX59" s="15">
-        <v>3124353</v>
+        <v>2977894</v>
       </c>
       <c r="AY59" s="15">
-        <v>2977894</v>
+        <v>2782143</v>
       </c>
       <c r="AZ59" s="15">
-        <v>2782143</v>
+        <v>3819773</v>
       </c>
       <c r="BA59" s="15">
-        <v>3819773</v>
+        <v>3526325</v>
       </c>
       <c r="BB59" s="15">
-        <v>3526325</v>
+        <v>4166308</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -7720,7 +7685,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -7812,8 +7777,8 @@
       <c r="AF61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG61" s="11" t="s">
-        <v>58</v>
+      <c r="AG61" s="11">
+        <v>0</v>
       </c>
       <c r="AH61" s="11">
         <v>0</v>
@@ -7848,8 +7813,8 @@
       <c r="AR61" s="11">
         <v>0</v>
       </c>
-      <c r="AS61" s="11">
-        <v>0</v>
+      <c r="AS61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>58</v>
@@ -7879,7 +7844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>59</v>
       </c>
@@ -7944,11 +7909,11 @@
       <c r="W62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X62" s="13" t="s">
-        <v>58</v>
+      <c r="X62" s="13">
+        <v>1551</v>
       </c>
       <c r="Y62" s="13">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="13">
         <v>0</v>
@@ -7960,85 +7925,85 @@
         <v>0</v>
       </c>
       <c r="AC62" s="13">
-        <v>0</v>
+        <v>3067</v>
       </c>
       <c r="AD62" s="13">
-        <v>3067</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="13">
         <v>0</v>
       </c>
       <c r="AF62" s="13">
-        <v>0</v>
+        <v>3395</v>
       </c>
       <c r="AG62" s="13">
-        <v>3395</v>
+        <v>1105</v>
       </c>
       <c r="AH62" s="13">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="13">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="AJ62" s="13">
-        <v>828</v>
+        <v>1528</v>
       </c>
       <c r="AK62" s="13">
-        <v>1528</v>
+        <v>1403</v>
       </c>
       <c r="AL62" s="13">
-        <v>1403</v>
+        <v>7873</v>
       </c>
       <c r="AM62" s="13">
-        <v>7873</v>
+        <v>950</v>
       </c>
       <c r="AN62" s="13">
-        <v>950</v>
+        <v>5626</v>
       </c>
       <c r="AO62" s="13">
-        <v>5626</v>
+        <v>10433</v>
       </c>
       <c r="AP62" s="13">
-        <v>10433</v>
+        <v>3364</v>
       </c>
       <c r="AQ62" s="13">
-        <v>3364</v>
+        <v>5220</v>
       </c>
       <c r="AR62" s="13">
-        <v>5220</v>
+        <v>15188</v>
       </c>
       <c r="AS62" s="13">
-        <v>15188</v>
+        <v>1562</v>
       </c>
       <c r="AT62" s="13">
-        <v>1562</v>
+        <v>2366</v>
       </c>
       <c r="AU62" s="13">
-        <v>2366</v>
+        <v>5738</v>
       </c>
       <c r="AV62" s="13">
-        <v>5738</v>
+        <v>49254</v>
       </c>
       <c r="AW62" s="13">
-        <v>49254</v>
+        <v>22354</v>
       </c>
       <c r="AX62" s="13">
-        <v>22354</v>
+        <v>12742</v>
       </c>
       <c r="AY62" s="13">
-        <v>12742</v>
+        <v>4940</v>
       </c>
       <c r="AZ62" s="13">
-        <v>4940</v>
+        <v>3225</v>
       </c>
       <c r="BA62" s="13">
-        <v>3225</v>
+        <v>29139</v>
       </c>
       <c r="BB62" s="13">
-        <v>29139</v>
+        <v>1349</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>60</v>
       </c>
@@ -8103,11 +8068,11 @@
       <c r="W63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="X63" s="11">
+        <v>628</v>
       </c>
       <c r="Y63" s="11">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="11">
         <v>0</v>
@@ -8119,85 +8084,85 @@
         <v>0</v>
       </c>
       <c r="AC63" s="11">
-        <v>0</v>
+        <v>3433</v>
       </c>
       <c r="AD63" s="11">
-        <v>3433</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="11">
         <v>0</v>
       </c>
       <c r="AF63" s="11">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="AG63" s="11">
-        <v>1257</v>
+        <v>710</v>
       </c>
       <c r="AH63" s="11">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="11">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AJ63" s="11">
-        <v>1500</v>
+        <v>4562</v>
       </c>
       <c r="AK63" s="11">
-        <v>4562</v>
+        <v>1303</v>
       </c>
       <c r="AL63" s="11">
-        <v>1303</v>
+        <v>4360</v>
       </c>
       <c r="AM63" s="11">
-        <v>4360</v>
+        <v>2555</v>
       </c>
       <c r="AN63" s="11">
-        <v>2555</v>
+        <v>7376</v>
       </c>
       <c r="AO63" s="11">
-        <v>7376</v>
+        <v>34829</v>
       </c>
       <c r="AP63" s="11">
-        <v>34829</v>
+        <v>19055</v>
       </c>
       <c r="AQ63" s="11">
-        <v>19055</v>
+        <v>9777</v>
       </c>
       <c r="AR63" s="11">
-        <v>9777</v>
+        <v>34940</v>
       </c>
       <c r="AS63" s="11">
-        <v>34940</v>
+        <v>1311</v>
       </c>
       <c r="AT63" s="11">
-        <v>1311</v>
+        <v>8424</v>
       </c>
       <c r="AU63" s="11">
-        <v>8424</v>
+        <v>36915</v>
       </c>
       <c r="AV63" s="11">
-        <v>36915</v>
+        <v>31178</v>
       </c>
       <c r="AW63" s="11">
-        <v>31178</v>
+        <v>10651</v>
       </c>
       <c r="AX63" s="11">
-        <v>10651</v>
+        <v>27367</v>
       </c>
       <c r="AY63" s="11">
-        <v>27367</v>
+        <v>18963</v>
       </c>
       <c r="AZ63" s="11">
-        <v>18963</v>
+        <v>37581</v>
       </c>
       <c r="BA63" s="11">
-        <v>37581</v>
+        <v>17369</v>
       </c>
       <c r="BB63" s="11">
-        <v>17369</v>
+        <v>83423</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>61</v>
       </c>
@@ -8262,11 +8227,11 @@
       <c r="W64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
+      <c r="X64" s="13">
+        <v>1307</v>
       </c>
       <c r="Y64" s="13">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="13">
         <v>0</v>
@@ -8278,85 +8243,85 @@
         <v>0</v>
       </c>
       <c r="AC64" s="13">
-        <v>0</v>
+        <v>7021</v>
       </c>
       <c r="AD64" s="13">
-        <v>7021</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="13">
         <v>0</v>
       </c>
       <c r="AF64" s="13">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="AG64" s="13">
-        <v>3342</v>
+        <v>667</v>
       </c>
       <c r="AH64" s="13">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="13">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="AJ64" s="13">
-        <v>1052</v>
+        <v>439</v>
       </c>
       <c r="AK64" s="13">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AL64" s="13">
-        <v>462</v>
+        <v>2102</v>
       </c>
       <c r="AM64" s="13">
-        <v>2102</v>
+        <v>363</v>
       </c>
       <c r="AN64" s="13">
-        <v>363</v>
+        <v>5206</v>
       </c>
       <c r="AO64" s="13">
-        <v>5206</v>
+        <v>1489</v>
       </c>
       <c r="AP64" s="13">
-        <v>1489</v>
+        <v>3002</v>
       </c>
       <c r="AQ64" s="13">
-        <v>3002</v>
+        <v>3222</v>
       </c>
       <c r="AR64" s="13">
-        <v>3222</v>
+        <v>8233</v>
       </c>
       <c r="AS64" s="13">
-        <v>8233</v>
+        <v>1631</v>
       </c>
       <c r="AT64" s="13">
-        <v>1631</v>
+        <v>1815</v>
       </c>
       <c r="AU64" s="13">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>16185</v>
       </c>
       <c r="AW64" s="13">
-        <v>16185</v>
+        <v>6785</v>
       </c>
       <c r="AX64" s="13">
-        <v>6785</v>
+        <v>11181</v>
       </c>
       <c r="AY64" s="13">
-        <v>11181</v>
+        <v>8910</v>
       </c>
       <c r="AZ64" s="13">
-        <v>8910</v>
+        <v>16705</v>
       </c>
       <c r="BA64" s="13">
-        <v>16705</v>
+        <v>8185</v>
       </c>
       <c r="BB64" s="13">
-        <v>8185</v>
+        <v>5246</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>74</v>
       </c>
@@ -8420,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="X65" s="15">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="Y65" s="15">
-        <v>3486</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="15">
         <v>0</v>
@@ -8435,85 +8400,85 @@
         <v>0</v>
       </c>
       <c r="AC65" s="15">
-        <v>0</v>
+        <v>13521</v>
       </c>
       <c r="AD65" s="15">
-        <v>13521</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="15">
         <v>0</v>
       </c>
       <c r="AF65" s="15">
-        <v>0</v>
+        <v>7994</v>
       </c>
       <c r="AG65" s="15">
-        <v>7994</v>
+        <v>2482</v>
       </c>
       <c r="AH65" s="15">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="15">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="AJ65" s="15">
-        <v>3380</v>
+        <v>6529</v>
       </c>
       <c r="AK65" s="15">
-        <v>6529</v>
+        <v>3168</v>
       </c>
       <c r="AL65" s="15">
-        <v>3168</v>
+        <v>14335</v>
       </c>
       <c r="AM65" s="15">
-        <v>14335</v>
+        <v>3868</v>
       </c>
       <c r="AN65" s="15">
-        <v>3868</v>
+        <v>18208</v>
       </c>
       <c r="AO65" s="15">
-        <v>18208</v>
+        <v>46751</v>
       </c>
       <c r="AP65" s="15">
-        <v>46751</v>
+        <v>25421</v>
       </c>
       <c r="AQ65" s="15">
-        <v>25421</v>
+        <v>18219</v>
       </c>
       <c r="AR65" s="15">
-        <v>18219</v>
+        <v>58361</v>
       </c>
       <c r="AS65" s="15">
-        <v>58361</v>
+        <v>4504</v>
       </c>
       <c r="AT65" s="15">
-        <v>4504</v>
+        <v>12605</v>
       </c>
       <c r="AU65" s="15">
-        <v>12605</v>
+        <v>42653</v>
       </c>
       <c r="AV65" s="15">
-        <v>42653</v>
+        <v>96617</v>
       </c>
       <c r="AW65" s="15">
-        <v>96617</v>
+        <v>39790</v>
       </c>
       <c r="AX65" s="15">
-        <v>39790</v>
+        <v>51290</v>
       </c>
       <c r="AY65" s="15">
-        <v>51290</v>
+        <v>32813</v>
       </c>
       <c r="AZ65" s="15">
-        <v>32813</v>
+        <v>57511</v>
       </c>
       <c r="BA65" s="15">
-        <v>57511</v>
+        <v>54693</v>
       </c>
       <c r="BB65" s="15">
-        <v>54693</v>
+        <v>90018</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>81</v>
       </c>
@@ -8570,7 +8535,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>66</v>
       </c>
@@ -8668,68 +8633,68 @@
       <c r="AH67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI67" s="11" t="s">
-        <v>58</v>
+      <c r="AI67" s="11">
+        <v>6789</v>
       </c>
       <c r="AJ67" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AK67" s="11">
         <v>0</v>
       </c>
       <c r="AL67" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AM67" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AN67" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AO67" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AP67" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AQ67" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AR67" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AS67" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AT67" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AU67" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AV67" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AW67" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AX67" s="11">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AY67" s="11">
-        <v>7414</v>
+        <v>7218</v>
       </c>
       <c r="AZ67" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BA67" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BB67" s="11">
-        <v>3723</v>
+        <v>4371</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>68</v>
       </c>
@@ -8794,8 +8759,8 @@
       <c r="W68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X68" s="17" t="s">
-        <v>58</v>
+      <c r="X68" s="17">
+        <v>0</v>
       </c>
       <c r="Y68" s="17">
         <v>0</v>
@@ -8828,67 +8793,67 @@
         <v>0</v>
       </c>
       <c r="AI68" s="17">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AJ68" s="17">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AK68" s="17">
         <v>0</v>
       </c>
       <c r="AL68" s="17">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AM68" s="17">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AN68" s="17">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AO68" s="17">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AP68" s="17">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AQ68" s="17">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AR68" s="17">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AS68" s="17">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AT68" s="17">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AU68" s="17">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AV68" s="17">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AW68" s="17">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AX68" s="17">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AY68" s="17">
-        <v>7414</v>
+        <v>7218</v>
       </c>
       <c r="AZ68" s="17">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="BA68" s="17">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BB68" s="17">
-        <v>3723</v>
+        <v>4371</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>82</v>
       </c>
@@ -8945,7 +8910,7 @@
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>76</v>
       </c>
@@ -9010,8 +8975,8 @@
       <c r="W70" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X70" s="15" t="s">
-        <v>58</v>
+      <c r="X70" s="15">
+        <v>0</v>
       </c>
       <c r="Y70" s="15">
         <v>0</v>
@@ -9104,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>83</v>
       </c>
@@ -9161,7 +9126,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>84</v>
       </c>
@@ -9226,8 +9191,8 @@
       <c r="W72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X72" s="11" t="s">
-        <v>58</v>
+      <c r="X72" s="11">
+        <v>0</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
@@ -9320,7 +9285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>69</v>
       </c>
@@ -9384,100 +9349,100 @@
         <v>0</v>
       </c>
       <c r="X73" s="17">
-        <v>0</v>
+        <v>1322051</v>
       </c>
       <c r="Y73" s="17">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="Z73" s="17">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="AA73" s="17">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AB73" s="17">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AC73" s="17">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AD73" s="17">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AE73" s="17">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AF73" s="17">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AG73" s="17">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AH73" s="17">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AI73" s="17">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AJ73" s="17">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AK73" s="17">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AL73" s="17">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AM73" s="17">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AN73" s="17">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AO73" s="17">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AP73" s="17">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AQ73" s="17">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AR73" s="17">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AS73" s="17">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AT73" s="17">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AU73" s="17">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AV73" s="17">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AW73" s="17">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AX73" s="17">
-        <v>3173007</v>
+        <v>3036588</v>
       </c>
       <c r="AY73" s="17">
-        <v>3036598</v>
+        <v>2822174</v>
       </c>
       <c r="AZ73" s="17">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="BA73" s="17">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="BB73" s="17">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9532,7 +9497,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9587,7 +9552,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9642,7 +9607,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>85</v>
       </c>
@@ -9799,7 +9764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9854,7 +9819,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>86</v>
       </c>
@@ -9911,7 +9876,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>59</v>
       </c>
@@ -9976,101 +9941,101 @@
       <c r="W80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X80" s="11" t="s">
-        <v>58</v>
+      <c r="X80" s="11">
+        <v>122642403</v>
       </c>
       <c r="Y80" s="11">
-        <v>122642403</v>
+        <v>122995899</v>
       </c>
       <c r="Z80" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="AA80" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="AB80" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="AC80" s="11">
-        <v>158815663</v>
+        <v>159928915</v>
       </c>
       <c r="AD80" s="11">
-        <v>159928915</v>
+        <v>176409647</v>
       </c>
       <c r="AE80" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AF80" s="11">
-        <v>167668006</v>
+        <v>172161523</v>
       </c>
       <c r="AG80" s="11">
-        <v>172161523</v>
+        <v>189981224</v>
       </c>
       <c r="AH80" s="11">
-        <v>189981224</v>
+        <v>198919601</v>
       </c>
       <c r="AI80" s="11">
-        <v>198919601</v>
+        <v>229061474</v>
       </c>
       <c r="AJ80" s="11">
-        <v>229061474</v>
+        <v>219777958</v>
       </c>
       <c r="AK80" s="11">
-        <v>219777958</v>
+        <v>240359601</v>
       </c>
       <c r="AL80" s="11">
-        <v>240359601</v>
+        <v>258004789</v>
       </c>
       <c r="AM80" s="11">
-        <v>258004789</v>
+        <v>242590703</v>
       </c>
       <c r="AN80" s="11">
-        <v>242590703</v>
+        <v>243242137</v>
       </c>
       <c r="AO80" s="11">
-        <v>243242137</v>
+        <v>259981528</v>
       </c>
       <c r="AP80" s="11">
-        <v>259981528</v>
+        <v>246589234</v>
       </c>
       <c r="AQ80" s="11">
-        <v>246589234</v>
+        <v>221946943</v>
       </c>
       <c r="AR80" s="11">
-        <v>221946943</v>
+        <v>232064733</v>
       </c>
       <c r="AS80" s="11">
-        <v>232064733</v>
+        <v>277234885</v>
       </c>
       <c r="AT80" s="11">
-        <v>277234885</v>
+        <v>270663759</v>
       </c>
       <c r="AU80" s="11">
-        <v>270663759</v>
+        <v>308377385</v>
       </c>
       <c r="AV80" s="11">
-        <v>308377385</v>
+        <v>331016527</v>
       </c>
       <c r="AW80" s="11">
-        <v>331016527</v>
+        <v>315854213</v>
       </c>
       <c r="AX80" s="11">
-        <v>306024180</v>
+        <v>306649141</v>
       </c>
       <c r="AY80" s="11">
-        <v>306649141</v>
+        <v>339173204</v>
       </c>
       <c r="AZ80" s="11">
-        <v>339173204</v>
+        <v>355751865</v>
       </c>
       <c r="BA80" s="11">
-        <v>355751865</v>
+        <v>360438871</v>
       </c>
       <c r="BB80" s="11">
-        <v>360438871</v>
+        <v>331601969</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>60</v>
       </c>
@@ -10135,101 +10100,101 @@
       <c r="W81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X81" s="13" t="s">
-        <v>58</v>
+      <c r="X81" s="13">
+        <v>115399706</v>
       </c>
       <c r="Y81" s="13">
-        <v>115399706</v>
+        <v>113922294</v>
       </c>
       <c r="Z81" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="AA81" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="AB81" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="AC81" s="13">
-        <v>158468618</v>
+        <v>159051697</v>
       </c>
       <c r="AD81" s="13">
-        <v>159051697</v>
+        <v>157767608</v>
       </c>
       <c r="AE81" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AF81" s="13">
-        <v>155736734</v>
+        <v>160959795</v>
       </c>
       <c r="AG81" s="13">
-        <v>160959795</v>
+        <v>159230297</v>
       </c>
       <c r="AH81" s="13">
-        <v>159230297</v>
+        <v>150605781</v>
       </c>
       <c r="AI81" s="13">
-        <v>150605781</v>
+        <v>152193376</v>
       </c>
       <c r="AJ81" s="13">
-        <v>152193376</v>
+        <v>181930198</v>
       </c>
       <c r="AK81" s="13">
-        <v>181930198</v>
+        <v>197605498</v>
       </c>
       <c r="AL81" s="13">
-        <v>197605498</v>
+        <v>199956989</v>
       </c>
       <c r="AM81" s="13">
-        <v>199956989</v>
+        <v>191946805</v>
       </c>
       <c r="AN81" s="13">
-        <v>191946805</v>
+        <v>193369129</v>
       </c>
       <c r="AO81" s="13">
-        <v>193369129</v>
+        <v>187935250</v>
       </c>
       <c r="AP81" s="13">
-        <v>187935250</v>
+        <v>179946517</v>
       </c>
       <c r="AQ81" s="13">
-        <v>179946517</v>
+        <v>184031466</v>
       </c>
       <c r="AR81" s="13">
-        <v>184031466</v>
+        <v>182691466</v>
       </c>
       <c r="AS81" s="13">
-        <v>182691466</v>
+        <v>198510884</v>
       </c>
       <c r="AT81" s="13">
-        <v>198510884</v>
+        <v>210813898</v>
       </c>
       <c r="AU81" s="13">
-        <v>210813898</v>
+        <v>245964583</v>
       </c>
       <c r="AV81" s="13">
-        <v>245964583</v>
+        <v>252630254</v>
       </c>
       <c r="AW81" s="13">
-        <v>252630254</v>
+        <v>256956886</v>
       </c>
       <c r="AX81" s="13">
-        <v>248870054</v>
+        <v>221929144</v>
       </c>
       <c r="AY81" s="13">
-        <v>221929144</v>
+        <v>246663613</v>
       </c>
       <c r="AZ81" s="13">
-        <v>246663613</v>
+        <v>270458430</v>
       </c>
       <c r="BA81" s="13">
-        <v>270458430</v>
+        <v>254986292</v>
       </c>
       <c r="BB81" s="13">
-        <v>254986292</v>
+        <v>251452030</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>61</v>
       </c>
@@ -10294,101 +10259,101 @@
       <c r="W82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X82" s="11" t="s">
-        <v>58</v>
+      <c r="X82" s="11">
+        <v>77486859</v>
       </c>
       <c r="Y82" s="11">
-        <v>77486859</v>
+        <v>66429965</v>
       </c>
       <c r="Z82" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="AA82" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="AB82" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="AC82" s="11">
-        <v>88914052</v>
+        <v>94293353</v>
       </c>
       <c r="AD82" s="11">
-        <v>94293353</v>
+        <v>98572533</v>
       </c>
       <c r="AE82" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AF82" s="11">
-        <v>97912151</v>
+        <v>107537531</v>
       </c>
       <c r="AG82" s="11">
-        <v>107537531</v>
+        <v>100770404</v>
       </c>
       <c r="AH82" s="11">
-        <v>100770404</v>
+        <v>100611846</v>
       </c>
       <c r="AI82" s="11">
-        <v>100611846</v>
+        <v>100857322</v>
       </c>
       <c r="AJ82" s="11">
-        <v>100857322</v>
+        <v>109290026</v>
       </c>
       <c r="AK82" s="11">
-        <v>109290026</v>
+        <v>126767097</v>
       </c>
       <c r="AL82" s="11">
-        <v>126767097</v>
+        <v>134414315</v>
       </c>
       <c r="AM82" s="11">
-        <v>134414315</v>
+        <v>107483296</v>
       </c>
       <c r="AN82" s="11">
-        <v>107483296</v>
+        <v>107440881</v>
       </c>
       <c r="AO82" s="11">
-        <v>107440881</v>
+        <v>108581166</v>
       </c>
       <c r="AP82" s="11">
-        <v>108581166</v>
+        <v>105700071</v>
       </c>
       <c r="AQ82" s="11">
-        <v>105700071</v>
+        <v>106946370</v>
       </c>
       <c r="AR82" s="11">
-        <v>106946370</v>
+        <v>112588474</v>
       </c>
       <c r="AS82" s="11">
-        <v>112588474</v>
+        <v>130256257</v>
       </c>
       <c r="AT82" s="11">
-        <v>130256257</v>
+        <v>125382193</v>
       </c>
       <c r="AU82" s="11">
-        <v>125382193</v>
+        <v>153371625</v>
       </c>
       <c r="AV82" s="11">
-        <v>153371625</v>
+        <v>142972033</v>
       </c>
       <c r="AW82" s="11">
-        <v>142972033</v>
+        <v>161696115</v>
       </c>
       <c r="AX82" s="11">
-        <v>157230017</v>
+        <v>136806400</v>
       </c>
       <c r="AY82" s="11">
-        <v>136806400</v>
+        <v>139680977</v>
       </c>
       <c r="AZ82" s="11">
-        <v>139680977</v>
+        <v>147324058</v>
       </c>
       <c r="BA82" s="11">
-        <v>147324058</v>
+        <v>150905838</v>
       </c>
       <c r="BB82" s="11">
-        <v>150905838</v>
+        <v>161774103</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>88</v>
       </c>
@@ -10445,7 +10410,7 @@
       <c r="BA83" s="9"/>
       <c r="BB83" s="9"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>59</v>
       </c>
@@ -10510,12 +10475,12 @@
       <c r="W84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y84" s="11">
+      <c r="X84" s="11">
         <v>258500000</v>
       </c>
+      <c r="Y84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Z84" s="11" t="s">
         <v>58</v>
       </c>
@@ -10525,86 +10490,86 @@
       <c r="AB84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD84" s="11">
+      <c r="AC84" s="11">
         <v>278818182</v>
       </c>
+      <c r="AD84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF84" s="11" t="s">
-        <v>58</v>
+      <c r="AF84" s="11">
+        <v>261153846</v>
       </c>
       <c r="AG84" s="11">
-        <v>261153846</v>
-      </c>
-      <c r="AH84" s="11">
         <v>276250000</v>
       </c>
-      <c r="AI84" s="11" t="s">
-        <v>58</v>
+      <c r="AH84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI84" s="11">
+        <v>276000000</v>
       </c>
       <c r="AJ84" s="11">
-        <v>276000000</v>
+        <v>254666667</v>
       </c>
       <c r="AK84" s="11">
-        <v>254666667</v>
+        <v>175375000</v>
       </c>
       <c r="AL84" s="11">
-        <v>175375000</v>
+        <v>281178571</v>
       </c>
       <c r="AM84" s="11">
-        <v>281178571</v>
+        <v>316666667</v>
       </c>
       <c r="AN84" s="11">
-        <v>316666667</v>
+        <v>244608696</v>
       </c>
       <c r="AO84" s="11">
-        <v>244608696</v>
+        <v>298085714</v>
       </c>
       <c r="AP84" s="11">
-        <v>298085714</v>
+        <v>280333333</v>
       </c>
       <c r="AQ84" s="11">
-        <v>280333333</v>
+        <v>290000000</v>
       </c>
       <c r="AR84" s="11">
-        <v>290000000</v>
+        <v>316416667</v>
       </c>
       <c r="AS84" s="11">
-        <v>316416667</v>
+        <v>390500000</v>
       </c>
       <c r="AT84" s="11">
-        <v>390500000</v>
+        <v>295750000</v>
       </c>
       <c r="AU84" s="11">
-        <v>295750000</v>
+        <v>521636364</v>
       </c>
       <c r="AV84" s="11">
-        <v>521636364</v>
+        <v>757753846</v>
       </c>
       <c r="AW84" s="11">
-        <v>757753846</v>
+        <v>323971014</v>
       </c>
       <c r="AX84" s="11">
-        <v>323971014</v>
+        <v>271106383</v>
       </c>
       <c r="AY84" s="11">
-        <v>271106383</v>
+        <v>329333333</v>
       </c>
       <c r="AZ84" s="11">
-        <v>329333333</v>
+        <v>248076923</v>
       </c>
       <c r="BA84" s="11">
-        <v>248076923</v>
+        <v>462523810</v>
       </c>
       <c r="BB84" s="11">
-        <v>462523810</v>
+        <v>449666667</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>60</v>
       </c>
@@ -10669,12 +10634,12 @@
       <c r="W85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y85" s="13">
+      <c r="X85" s="13">
         <v>125600000</v>
       </c>
+      <c r="Y85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Z85" s="13" t="s">
         <v>58</v>
       </c>
@@ -10684,86 +10649,86 @@
       <c r="AB85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD85" s="13">
+      <c r="AC85" s="13">
         <v>122607143</v>
       </c>
+      <c r="AD85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF85" s="13" t="s">
-        <v>58</v>
+      <c r="AF85" s="13">
+        <v>114272727</v>
       </c>
       <c r="AG85" s="13">
-        <v>114272727</v>
-      </c>
-      <c r="AH85" s="13">
         <v>71000000</v>
       </c>
-      <c r="AI85" s="13" t="s">
-        <v>58</v>
+      <c r="AH85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI85" s="13">
+        <v>136363636</v>
       </c>
       <c r="AJ85" s="13">
-        <v>136363636</v>
+        <v>138242424</v>
       </c>
       <c r="AK85" s="13">
-        <v>138242424</v>
+        <v>162875000</v>
       </c>
       <c r="AL85" s="13">
-        <v>162875000</v>
+        <v>161481481</v>
       </c>
       <c r="AM85" s="13">
-        <v>161481481</v>
+        <v>159687500</v>
       </c>
       <c r="AN85" s="13">
-        <v>159687500</v>
+        <v>160347826</v>
       </c>
       <c r="AO85" s="13">
-        <v>160347826</v>
+        <v>150125000</v>
       </c>
       <c r="AP85" s="13">
-        <v>150125000</v>
+        <v>81431624</v>
       </c>
       <c r="AQ85" s="13">
-        <v>81431624</v>
+        <v>109853933</v>
       </c>
       <c r="AR85" s="13">
-        <v>109853933</v>
+        <v>99261364</v>
       </c>
       <c r="AS85" s="13">
-        <v>99261364</v>
+        <v>145666667</v>
       </c>
       <c r="AT85" s="13">
-        <v>145666667</v>
+        <v>183130435</v>
       </c>
       <c r="AU85" s="13">
-        <v>183130435</v>
+        <v>70718391</v>
       </c>
       <c r="AV85" s="13">
-        <v>70718391</v>
+        <v>149177033</v>
       </c>
       <c r="AW85" s="13">
-        <v>149177033</v>
+        <v>147930556</v>
       </c>
       <c r="AX85" s="13">
-        <v>147930556</v>
+        <v>134151961</v>
       </c>
       <c r="AY85" s="13">
-        <v>134151961</v>
+        <v>259767123</v>
       </c>
       <c r="AZ85" s="13">
-        <v>259767123</v>
+        <v>177268868</v>
       </c>
       <c r="BA85" s="13">
-        <v>177268868</v>
+        <v>214432099</v>
       </c>
       <c r="BB85" s="13">
-        <v>214432099</v>
+        <v>149771993</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>61</v>
       </c>
@@ -10828,12 +10793,12 @@
       <c r="W86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y86" s="11">
+      <c r="X86" s="11">
         <v>145222222</v>
       </c>
+      <c r="Y86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Z86" s="11" t="s">
         <v>58</v>
       </c>
@@ -10843,86 +10808,86 @@
       <c r="AB86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD86" s="11">
+      <c r="AC86" s="11">
         <v>189756757</v>
       </c>
+      <c r="AD86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AE86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF86" s="11" t="s">
-        <v>58</v>
+      <c r="AF86" s="11">
+        <v>257076923</v>
       </c>
       <c r="AG86" s="11">
-        <v>257076923</v>
-      </c>
-      <c r="AH86" s="11">
         <v>166750000</v>
       </c>
-      <c r="AI86" s="11" t="s">
-        <v>58</v>
+      <c r="AH86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI86" s="11">
+        <v>175333333</v>
       </c>
       <c r="AJ86" s="11">
-        <v>175333333</v>
+        <v>146333333</v>
       </c>
       <c r="AK86" s="11">
-        <v>146333333</v>
+        <v>154000000</v>
       </c>
       <c r="AL86" s="11">
-        <v>154000000</v>
+        <v>210200000</v>
       </c>
       <c r="AM86" s="11">
-        <v>210200000</v>
+        <v>181500000</v>
       </c>
       <c r="AN86" s="11">
+        <v>208240000</v>
+      </c>
+      <c r="AO86" s="11">
+        <v>186125000</v>
+      </c>
+      <c r="AP86" s="11">
+        <v>158000000</v>
+      </c>
+      <c r="AQ86" s="11">
+        <v>201375000</v>
+      </c>
+      <c r="AR86" s="11">
+        <v>175170213</v>
+      </c>
+      <c r="AS86" s="11">
+        <v>163100000</v>
+      </c>
+      <c r="AT86" s="11">
         <v>181500000</v>
       </c>
-      <c r="AO86" s="11">
-        <v>208240000</v>
-      </c>
-      <c r="AP86" s="11">
-        <v>186125000</v>
-      </c>
-      <c r="AQ86" s="11">
-        <v>158000000</v>
-      </c>
-      <c r="AR86" s="11">
-        <v>201375000</v>
-      </c>
-      <c r="AS86" s="11">
-        <v>175170213</v>
-      </c>
-      <c r="AT86" s="11">
-        <v>163100000</v>
-      </c>
-      <c r="AU86" s="11">
-        <v>181500000</v>
-      </c>
-      <c r="AV86" s="11" t="s">
-        <v>58</v>
+      <c r="AU86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV86" s="11">
+        <v>172180851</v>
       </c>
       <c r="AW86" s="11">
-        <v>172180851</v>
+        <v>138469388</v>
       </c>
       <c r="AX86" s="11">
-        <v>138469388</v>
+        <v>203290909</v>
       </c>
       <c r="AY86" s="11">
-        <v>203290909</v>
+        <v>212142857</v>
       </c>
       <c r="AZ86" s="11">
-        <v>212142857</v>
+        <v>165396040</v>
       </c>
       <c r="BA86" s="11">
-        <v>165396040</v>
+        <v>255781250</v>
       </c>
       <c r="BB86" s="11">
-        <v>255781250</v>
+        <v>327875000</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -10979,7 +10944,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>66</v>
       </c>
@@ -11077,8 +11042,8 @@
       <c r="AH88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI88" s="11" t="s">
-        <v>58</v>
+      <c r="AI88" s="11">
+        <v>0</v>
       </c>
       <c r="AJ88" s="11">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD1F597-68B0-4BFF-B48E-63CFAB02487E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="91">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +184,9 @@
     <t>ماه 10 منتهی به 1401/10</t>
   </si>
   <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -297,7 +298,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -502,7 +503,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -549,6 +550,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -584,6 +602,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,7 +770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1496,11 +1531,11 @@
       <c r="AE11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AF11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>58</v>
@@ -1529,11 +1564,11 @@
       <c r="AP11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>0</v>
+      <c r="AQ11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS11" s="11" t="s">
         <v>58</v>
@@ -1628,101 +1663,101 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>4997</v>
       </c>
       <c r="X12" s="13">
-        <v>4997</v>
+        <v>4441</v>
       </c>
       <c r="Y12" s="13">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="Z12" s="13">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="AA12" s="13">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="AB12" s="13">
-        <v>5117</v>
+        <v>6366</v>
       </c>
       <c r="AC12" s="13">
-        <v>6366</v>
+        <v>6970</v>
       </c>
       <c r="AD12" s="13">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AE12" s="13">
-        <v>3508</v>
+        <v>5188</v>
       </c>
       <c r="AF12" s="13">
-        <v>5188</v>
+        <v>2215</v>
       </c>
       <c r="AG12" s="13">
-        <v>2215</v>
+        <v>2061</v>
       </c>
       <c r="AH12" s="13">
-        <v>2061</v>
+        <v>2723</v>
       </c>
       <c r="AI12" s="13">
-        <v>2723</v>
+        <v>5501</v>
       </c>
       <c r="AJ12" s="13">
-        <v>5501</v>
+        <v>4003</v>
       </c>
       <c r="AK12" s="13">
-        <v>4003</v>
+        <v>4551</v>
       </c>
       <c r="AL12" s="13">
-        <v>4551</v>
+        <v>3295</v>
       </c>
       <c r="AM12" s="13">
-        <v>3295</v>
+        <v>2765</v>
       </c>
       <c r="AN12" s="13">
-        <v>2765</v>
+        <v>2834</v>
       </c>
       <c r="AO12" s="13">
-        <v>2834</v>
+        <v>2715</v>
       </c>
       <c r="AP12" s="13">
-        <v>2715</v>
+        <v>4639</v>
       </c>
       <c r="AQ12" s="13">
-        <v>4639</v>
+        <v>3613</v>
       </c>
       <c r="AR12" s="13">
-        <v>3613</v>
+        <v>1794</v>
       </c>
       <c r="AS12" s="13">
-        <v>1794</v>
+        <v>2501</v>
       </c>
       <c r="AT12" s="13">
-        <v>2501</v>
+        <v>4251</v>
       </c>
       <c r="AU12" s="13">
-        <v>4251</v>
+        <v>3746</v>
       </c>
       <c r="AV12" s="13">
-        <v>3746</v>
+        <v>3859</v>
       </c>
       <c r="AW12" s="13">
-        <v>3859</v>
+        <v>4508</v>
       </c>
       <c r="AX12" s="13">
-        <v>4508</v>
+        <v>3251</v>
       </c>
       <c r="AY12" s="13">
-        <v>3251</v>
+        <v>3575</v>
       </c>
       <c r="AZ12" s="13">
-        <v>3575</v>
+        <v>3828</v>
       </c>
       <c r="BA12" s="13">
-        <v>3828</v>
+        <v>3884</v>
       </c>
       <c r="BB12" s="13">
-        <v>3884</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.25">
@@ -1787,101 +1822,101 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>3960</v>
       </c>
       <c r="X13" s="11">
-        <v>3960</v>
+        <v>2649</v>
       </c>
       <c r="Y13" s="11">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="Z13" s="11">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="AA13" s="11">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="AB13" s="11">
-        <v>4166</v>
+        <v>5116</v>
       </c>
       <c r="AC13" s="11">
-        <v>5116</v>
+        <v>5700</v>
       </c>
       <c r="AD13" s="11">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AE13" s="11">
-        <v>3767</v>
+        <v>5489</v>
       </c>
       <c r="AF13" s="11">
-        <v>5489</v>
+        <v>2828</v>
       </c>
       <c r="AG13" s="11">
-        <v>2828</v>
+        <v>885</v>
       </c>
       <c r="AH13" s="11">
-        <v>885</v>
+        <v>3298</v>
       </c>
       <c r="AI13" s="11">
-        <v>3298</v>
+        <v>5308</v>
       </c>
       <c r="AJ13" s="11">
-        <v>5308</v>
+        <v>3649</v>
       </c>
       <c r="AK13" s="11">
-        <v>3649</v>
+        <v>4833</v>
       </c>
       <c r="AL13" s="11">
-        <v>4833</v>
+        <v>3167</v>
       </c>
       <c r="AM13" s="11">
-        <v>3167</v>
+        <v>3605</v>
       </c>
       <c r="AN13" s="11">
-        <v>3605</v>
+        <v>4516</v>
       </c>
       <c r="AO13" s="11">
-        <v>4516</v>
+        <v>4017</v>
       </c>
       <c r="AP13" s="11">
-        <v>4017</v>
+        <v>4980</v>
       </c>
       <c r="AQ13" s="11">
-        <v>4980</v>
+        <v>4203</v>
       </c>
       <c r="AR13" s="11">
-        <v>4203</v>
+        <v>2345</v>
       </c>
       <c r="AS13" s="11">
-        <v>2345</v>
+        <v>3369</v>
       </c>
       <c r="AT13" s="11">
-        <v>3369</v>
+        <v>4648</v>
       </c>
       <c r="AU13" s="11">
-        <v>4648</v>
+        <v>5280</v>
       </c>
       <c r="AV13" s="11">
-        <v>5280</v>
+        <v>5422</v>
       </c>
       <c r="AW13" s="11">
-        <v>5422</v>
+        <v>5367</v>
       </c>
       <c r="AX13" s="11">
-        <v>5367</v>
+        <v>4848</v>
       </c>
       <c r="AY13" s="11">
-        <v>4848</v>
+        <v>6590</v>
       </c>
       <c r="AZ13" s="11">
-        <v>6590</v>
+        <v>6571</v>
       </c>
       <c r="BA13" s="11">
-        <v>6571</v>
+        <v>6871</v>
       </c>
       <c r="BB13" s="11">
-        <v>6871</v>
+        <v>6611</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.25">
@@ -1946,101 +1981,101 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>4231</v>
       </c>
       <c r="X14" s="13">
-        <v>4231</v>
+        <v>2713</v>
       </c>
       <c r="Y14" s="13">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="Z14" s="13">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="AA14" s="13">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="AB14" s="13">
-        <v>3392</v>
+        <v>4538</v>
       </c>
       <c r="AC14" s="13">
-        <v>4538</v>
+        <v>5244</v>
       </c>
       <c r="AD14" s="13">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AE14" s="13">
-        <v>5692</v>
+        <v>5304</v>
       </c>
       <c r="AF14" s="13">
-        <v>5304</v>
+        <v>2420</v>
       </c>
       <c r="AG14" s="13">
-        <v>2420</v>
+        <v>2852</v>
       </c>
       <c r="AH14" s="13">
-        <v>2852</v>
+        <v>3732</v>
       </c>
       <c r="AI14" s="13">
-        <v>3732</v>
+        <v>4830</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4830</v>
+        <v>4123</v>
       </c>
       <c r="AK14" s="13">
-        <v>4123</v>
+        <v>5325</v>
       </c>
       <c r="AL14" s="13">
-        <v>5325</v>
+        <v>4369</v>
       </c>
       <c r="AM14" s="13">
-        <v>4369</v>
+        <v>4139</v>
       </c>
       <c r="AN14" s="13">
-        <v>4139</v>
+        <v>3623</v>
       </c>
       <c r="AO14" s="13">
-        <v>3623</v>
+        <v>3654</v>
       </c>
       <c r="AP14" s="13">
-        <v>3654</v>
+        <v>5474</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5474</v>
+        <v>4187</v>
       </c>
       <c r="AR14" s="13">
-        <v>4187</v>
+        <v>2374</v>
       </c>
       <c r="AS14" s="13">
-        <v>2374</v>
+        <v>3537</v>
       </c>
       <c r="AT14" s="13">
-        <v>3537</v>
+        <v>4053</v>
       </c>
       <c r="AU14" s="13">
-        <v>4053</v>
+        <v>4099</v>
       </c>
       <c r="AV14" s="13">
-        <v>4099</v>
+        <v>4562</v>
       </c>
       <c r="AW14" s="13">
-        <v>4562</v>
+        <v>4648</v>
       </c>
       <c r="AX14" s="13">
-        <v>4648</v>
+        <v>3860</v>
       </c>
       <c r="AY14" s="13">
-        <v>3860</v>
+        <v>5434</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5434</v>
+        <v>5586</v>
       </c>
       <c r="BA14" s="13">
-        <v>5586</v>
+        <v>5071</v>
       </c>
       <c r="BB14" s="13">
-        <v>5071</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2104,100 +2139,100 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>13188</v>
       </c>
       <c r="X15" s="15">
-        <v>13188</v>
+        <v>9803</v>
       </c>
       <c r="Y15" s="15">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="Z15" s="15">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AA15" s="15">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AB15" s="15">
-        <v>12675</v>
+        <v>16020</v>
       </c>
       <c r="AC15" s="15">
-        <v>16020</v>
+        <v>17914</v>
       </c>
       <c r="AD15" s="15">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AE15" s="15">
-        <v>12967</v>
+        <v>15981</v>
       </c>
       <c r="AF15" s="15">
-        <v>15981</v>
+        <v>7463</v>
       </c>
       <c r="AG15" s="15">
-        <v>7463</v>
+        <v>5798</v>
       </c>
       <c r="AH15" s="15">
-        <v>5798</v>
+        <v>9753</v>
       </c>
       <c r="AI15" s="15">
-        <v>9753</v>
+        <v>15639</v>
       </c>
       <c r="AJ15" s="15">
-        <v>15639</v>
+        <v>11775</v>
       </c>
       <c r="AK15" s="15">
-        <v>11775</v>
+        <v>14709</v>
       </c>
       <c r="AL15" s="15">
-        <v>14709</v>
+        <v>10831</v>
       </c>
       <c r="AM15" s="15">
-        <v>10831</v>
+        <v>10509</v>
       </c>
       <c r="AN15" s="15">
-        <v>10509</v>
+        <v>10973</v>
       </c>
       <c r="AO15" s="15">
-        <v>10973</v>
+        <v>10386</v>
       </c>
       <c r="AP15" s="15">
-        <v>10386</v>
+        <v>15093</v>
       </c>
       <c r="AQ15" s="15">
-        <v>15093</v>
+        <v>12003</v>
       </c>
       <c r="AR15" s="15">
-        <v>12003</v>
+        <v>6513</v>
       </c>
       <c r="AS15" s="15">
-        <v>6513</v>
+        <v>9407</v>
       </c>
       <c r="AT15" s="15">
-        <v>9407</v>
+        <v>12952</v>
       </c>
       <c r="AU15" s="15">
-        <v>12952</v>
+        <v>13125</v>
       </c>
       <c r="AV15" s="15">
-        <v>13125</v>
+        <v>13843</v>
       </c>
       <c r="AW15" s="15">
-        <v>13843</v>
+        <v>14523</v>
       </c>
       <c r="AX15" s="15">
-        <v>14523</v>
+        <v>11959</v>
       </c>
       <c r="AY15" s="15">
-        <v>11959</v>
+        <v>15599</v>
       </c>
       <c r="AZ15" s="15">
-        <v>15599</v>
+        <v>15985</v>
       </c>
       <c r="BA15" s="15">
-        <v>15985</v>
+        <v>15826</v>
       </c>
       <c r="BB15" s="15">
-        <v>15826</v>
+        <v>18881</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.25">
@@ -2346,11 +2381,11 @@
       <c r="AE17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AF17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>58</v>
@@ -2379,11 +2414,11 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11">
-        <v>0</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS17" s="11" t="s">
         <v>58</v>
@@ -2478,101 +2513,101 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>6</v>
       </c>
       <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>11</v>
+      </c>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>13</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI18" s="13">
         <v>6</v>
       </c>
-      <c r="Y18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="13">
+      <c r="AJ18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>28</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>35</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>12</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>48</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>4</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>8</v>
+      </c>
+      <c r="AT18" s="13">
         <v>11</v>
       </c>
-      <c r="AD18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="13">
+      <c r="AU18" s="13">
+        <v>65</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>69</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>47</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>15</v>
+      </c>
+      <c r="AY18" s="13">
         <v>13</v>
       </c>
-      <c r="AG18" s="13">
-        <v>4</v>
-      </c>
-      <c r="AH18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI18" s="13">
+      <c r="AZ18" s="13">
+        <v>63</v>
+      </c>
+      <c r="BA18" s="13">
         <v>3</v>
       </c>
-      <c r="AJ18" s="13">
-        <v>6</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>28</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>35</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>12</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>18</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>48</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>8</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>11</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>65</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>69</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>47</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>15</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>13</v>
-      </c>
-      <c r="BA18" s="13">
-        <v>63</v>
-      </c>
       <c r="BB18" s="13">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
@@ -2637,11 +2672,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>5</v>
       </c>
       <c r="X19" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2653,85 +2688,85 @@
         <v>0</v>
       </c>
       <c r="AB19" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC19" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="11">
         <v>0</v>
       </c>
       <c r="AE19" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF19" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="11">
         <v>11</v>
       </c>
-      <c r="AG19" s="11">
-        <v>10</v>
-      </c>
-      <c r="AH19" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AI19" s="11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AJ19" s="11">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AK19" s="11">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AL19" s="11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AM19" s="11">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AN19" s="11">
+        <v>232</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>234</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>89</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>352</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>9</v>
+      </c>
+      <c r="AS19" s="11">
         <v>46</v>
       </c>
-      <c r="AO19" s="11">
-        <v>232</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>234</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>89</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>352</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>9</v>
-      </c>
       <c r="AT19" s="11">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AU19" s="11">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AV19" s="11">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AW19" s="11">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AX19" s="11">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AY19" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="AZ19" s="11">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="BA19" s="11">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="BB19" s="11">
-        <v>557</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
@@ -2796,11 +2831,11 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>9</v>
       </c>
       <c r="X20" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2812,85 +2847,85 @@
         <v>0</v>
       </c>
       <c r="AB20" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AC20" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="13">
         <v>0</v>
       </c>
       <c r="AE20" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF20" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG20" s="13">
         <v>4</v>
       </c>
-      <c r="AH20" s="13" t="s">
-        <v>58</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>6</v>
       </c>
       <c r="AI20" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ20" s="13">
         <v>3</v>
       </c>
       <c r="AK20" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>25</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>19</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>16</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>47</v>
+      </c>
+      <c r="AR20" s="13">
         <v>10</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>25</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>8</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>19</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>16</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>47</v>
       </c>
       <c r="AS20" s="13">
         <v>10</v>
       </c>
       <c r="AT20" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AV20" s="13">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AW20" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AX20" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AY20" s="13">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AZ20" s="13">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="BA20" s="13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="BB20" s="13">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.25">
@@ -2954,100 +2989,100 @@
         <v>0</v>
       </c>
       <c r="W21" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15">
+        <v>76</v>
+      </c>
+      <c r="AC21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="15">
+        <v>37</v>
+      </c>
+      <c r="AF21" s="15">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="15">
         <v>20</v>
       </c>
-      <c r="Y21" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="15">
-        <v>76</v>
-      </c>
-      <c r="AD21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="15">
-        <v>37</v>
-      </c>
-      <c r="AG21" s="15">
-        <v>18</v>
-      </c>
-      <c r="AH21" s="15">
-        <v>0</v>
-      </c>
       <c r="AI21" s="15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AJ21" s="15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AK21" s="15">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AL21" s="15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AM21" s="15">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AN21" s="15">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AO21" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AP21" s="15">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AQ21" s="15">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AR21" s="15">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AS21" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AT21" s="15">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AU21" s="15">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AV21" s="15">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AW21" s="15">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AX21" s="15">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AY21" s="15">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AZ21" s="15">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="BA21" s="15">
-        <v>176</v>
+        <v>576</v>
       </c>
       <c r="BB21" s="15">
-        <v>576</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.25">
@@ -3235,11 +3270,11 @@
       <c r="AR23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT23" s="11">
-        <v>0</v>
+      <c r="AS23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU23" s="11" t="s">
         <v>58</v>
@@ -3326,8 +3361,8 @@
       <c r="V24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="17" t="s">
-        <v>58</v>
+      <c r="W24" s="17">
+        <v>0</v>
       </c>
       <c r="X24" s="17">
         <v>0</v>
@@ -3484,100 +3519,100 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>13208</v>
       </c>
       <c r="X25" s="15">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="Y25" s="15">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="Z25" s="15">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="AA25" s="15">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="AB25" s="15">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AC25" s="15">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AD25" s="15">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AE25" s="15">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AF25" s="15">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AG25" s="15">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AH25" s="15">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AI25" s="15">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AJ25" s="15">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AK25" s="15">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AL25" s="15">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AM25" s="15">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AN25" s="15">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AO25" s="15">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AP25" s="15">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AQ25" s="15">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AR25" s="15">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AS25" s="15">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AT25" s="15">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AU25" s="15">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AV25" s="15">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AW25" s="15">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AX25" s="15">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AY25" s="15">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="AZ25" s="15">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="BA25" s="15">
-        <v>16161</v>
+        <v>16402</v>
       </c>
       <c r="BB25" s="15">
-        <v>16402</v>
+        <v>21284</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.25">
@@ -4103,11 +4138,11 @@
       <c r="AE32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG32" s="11">
-        <v>0</v>
+      <c r="AF32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH32" s="11" t="s">
         <v>58</v>
@@ -4136,11 +4171,11 @@
       <c r="AP32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR32" s="11">
-        <v>0</v>
+      <c r="AQ32" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS32" s="11" t="s">
         <v>58</v>
@@ -4235,101 +4270,101 @@
       <c r="V33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
+      <c r="W33" s="13">
+        <v>5028</v>
       </c>
       <c r="X33" s="13">
-        <v>5028</v>
+        <v>4877</v>
       </c>
       <c r="Y33" s="13">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="Z33" s="13">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="AA33" s="13">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="AB33" s="13">
-        <v>4801</v>
+        <v>5824</v>
       </c>
       <c r="AC33" s="13">
-        <v>5824</v>
+        <v>6862</v>
       </c>
       <c r="AD33" s="13">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AE33" s="13">
-        <v>4729</v>
+        <v>4990</v>
       </c>
       <c r="AF33" s="13">
-        <v>4990</v>
+        <v>1225</v>
       </c>
       <c r="AG33" s="13">
-        <v>1225</v>
+        <v>3209</v>
       </c>
       <c r="AH33" s="13">
-        <v>3209</v>
+        <v>2619</v>
       </c>
       <c r="AI33" s="13">
-        <v>2619</v>
+        <v>4945</v>
       </c>
       <c r="AJ33" s="13">
-        <v>4945</v>
+        <v>4010</v>
       </c>
       <c r="AK33" s="13">
-        <v>4010</v>
+        <v>4594</v>
       </c>
       <c r="AL33" s="13">
-        <v>4594</v>
+        <v>2861</v>
       </c>
       <c r="AM33" s="13">
-        <v>2861</v>
+        <v>3593</v>
       </c>
       <c r="AN33" s="13">
-        <v>3593</v>
+        <v>2382</v>
       </c>
       <c r="AO33" s="13">
-        <v>2382</v>
+        <v>3474</v>
       </c>
       <c r="AP33" s="13">
-        <v>3474</v>
+        <v>3958</v>
       </c>
       <c r="AQ33" s="13">
-        <v>3958</v>
+        <v>4310</v>
       </c>
       <c r="AR33" s="13">
-        <v>4310</v>
+        <v>1439</v>
       </c>
       <c r="AS33" s="13">
-        <v>1439</v>
+        <v>2751</v>
       </c>
       <c r="AT33" s="13">
-        <v>2751</v>
+        <v>3564</v>
       </c>
       <c r="AU33" s="13">
-        <v>3564</v>
+        <v>3449</v>
       </c>
       <c r="AV33" s="13">
-        <v>3449</v>
+        <v>4047</v>
       </c>
       <c r="AW33" s="13">
-        <v>4047</v>
+        <v>3956</v>
       </c>
       <c r="AX33" s="13">
-        <v>3956</v>
+        <v>3187</v>
       </c>
       <c r="AY33" s="13">
-        <v>3187</v>
+        <v>4022</v>
       </c>
       <c r="AZ33" s="13">
-        <v>4022</v>
+        <v>3509</v>
       </c>
       <c r="BA33" s="13">
-        <v>3509</v>
+        <v>4570</v>
       </c>
       <c r="BB33" s="13">
-        <v>4570</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4394,101 +4429,101 @@
       <c r="V34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="11" t="s">
-        <v>58</v>
+      <c r="W34" s="11">
+        <v>3400</v>
       </c>
       <c r="X34" s="11">
-        <v>3400</v>
+        <v>3243</v>
       </c>
       <c r="Y34" s="11">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="Z34" s="11">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="AA34" s="11">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="AB34" s="11">
-        <v>4270</v>
+        <v>4391</v>
       </c>
       <c r="AC34" s="11">
-        <v>4391</v>
+        <v>5310</v>
       </c>
       <c r="AD34" s="11">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AE34" s="11">
-        <v>4881</v>
+        <v>5074</v>
       </c>
       <c r="AF34" s="11">
-        <v>5074</v>
+        <v>1954</v>
       </c>
       <c r="AG34" s="11">
-        <v>1954</v>
+        <v>2387</v>
       </c>
       <c r="AH34" s="11">
-        <v>2387</v>
+        <v>2808</v>
       </c>
       <c r="AI34" s="11">
-        <v>2808</v>
+        <v>4656</v>
       </c>
       <c r="AJ34" s="11">
-        <v>4656</v>
+        <v>4038</v>
       </c>
       <c r="AK34" s="11">
-        <v>4038</v>
+        <v>4092</v>
       </c>
       <c r="AL34" s="11">
-        <v>4092</v>
+        <v>2895</v>
       </c>
       <c r="AM34" s="11">
-        <v>2895</v>
+        <v>4237</v>
       </c>
       <c r="AN34" s="11">
-        <v>4237</v>
+        <v>3583</v>
       </c>
       <c r="AO34" s="11">
-        <v>3583</v>
+        <v>3833</v>
       </c>
       <c r="AP34" s="11">
-        <v>3833</v>
+        <v>4767</v>
       </c>
       <c r="AQ34" s="11">
-        <v>4767</v>
+        <v>5390</v>
       </c>
       <c r="AR34" s="11">
-        <v>5390</v>
+        <v>2251</v>
       </c>
       <c r="AS34" s="11">
-        <v>2251</v>
+        <v>3756</v>
       </c>
       <c r="AT34" s="11">
-        <v>3756</v>
+        <v>3727</v>
       </c>
       <c r="AU34" s="11">
-        <v>3727</v>
+        <v>5520</v>
       </c>
       <c r="AV34" s="11">
-        <v>5520</v>
+        <v>5729</v>
       </c>
       <c r="AW34" s="11">
-        <v>5729</v>
+        <v>5236</v>
       </c>
       <c r="AX34" s="11">
-        <v>5236</v>
+        <v>4694</v>
       </c>
       <c r="AY34" s="11">
-        <v>4694</v>
+        <v>6014</v>
       </c>
       <c r="AZ34" s="11">
-        <v>6014</v>
+        <v>5909</v>
       </c>
       <c r="BA34" s="11">
-        <v>5909</v>
+        <v>7119</v>
       </c>
       <c r="BB34" s="11">
-        <v>7119</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4553,101 +4588,101 @@
       <c r="V35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="13" t="s">
-        <v>58</v>
+      <c r="W35" s="13">
+        <v>3995</v>
       </c>
       <c r="X35" s="13">
-        <v>3995</v>
+        <v>2870</v>
       </c>
       <c r="Y35" s="13">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="Z35" s="13">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="AA35" s="13">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="AB35" s="13">
-        <v>3060</v>
+        <v>4152</v>
       </c>
       <c r="AC35" s="13">
-        <v>4152</v>
+        <v>4784</v>
       </c>
       <c r="AD35" s="13">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AE35" s="13">
-        <v>5942</v>
+        <v>4383</v>
       </c>
       <c r="AF35" s="13">
-        <v>4383</v>
+        <v>2230</v>
       </c>
       <c r="AG35" s="13">
-        <v>2230</v>
+        <v>3022</v>
       </c>
       <c r="AH35" s="13">
-        <v>3022</v>
+        <v>3182</v>
       </c>
       <c r="AI35" s="13">
-        <v>3182</v>
+        <v>4672</v>
       </c>
       <c r="AJ35" s="13">
-        <v>4672</v>
+        <v>3714</v>
       </c>
       <c r="AK35" s="13">
-        <v>3714</v>
+        <v>5351</v>
       </c>
       <c r="AL35" s="13">
-        <v>5351</v>
+        <v>4041</v>
       </c>
       <c r="AM35" s="13">
-        <v>4041</v>
+        <v>4085</v>
       </c>
       <c r="AN35" s="13">
-        <v>4085</v>
+        <v>3345</v>
       </c>
       <c r="AO35" s="13">
-        <v>3345</v>
+        <v>4231</v>
       </c>
       <c r="AP35" s="13">
-        <v>4231</v>
+        <v>5165</v>
       </c>
       <c r="AQ35" s="13">
-        <v>5165</v>
+        <v>5171</v>
       </c>
       <c r="AR35" s="13">
-        <v>5171</v>
+        <v>1838</v>
       </c>
       <c r="AS35" s="13">
-        <v>1838</v>
+        <v>3684</v>
       </c>
       <c r="AT35" s="13">
-        <v>3684</v>
+        <v>3630</v>
       </c>
       <c r="AU35" s="13">
-        <v>3630</v>
+        <v>4112</v>
       </c>
       <c r="AV35" s="13">
-        <v>4112</v>
+        <v>4788</v>
       </c>
       <c r="AW35" s="13">
-        <v>4788</v>
+        <v>4406</v>
       </c>
       <c r="AX35" s="13">
-        <v>4406</v>
+        <v>3890</v>
       </c>
       <c r="AY35" s="13">
-        <v>3890</v>
+        <v>5175</v>
       </c>
       <c r="AZ35" s="13">
-        <v>5175</v>
+        <v>5002</v>
       </c>
       <c r="BA35" s="13">
-        <v>5002</v>
+        <v>5321</v>
       </c>
       <c r="BB35" s="13">
-        <v>5321</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4711,100 +4746,100 @@
         <v>0</v>
       </c>
       <c r="W36" s="15">
-        <v>0</v>
+        <v>12423</v>
       </c>
       <c r="X36" s="15">
-        <v>12423</v>
+        <v>10990</v>
       </c>
       <c r="Y36" s="15">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="Z36" s="15">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AA36" s="15">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AB36" s="15">
-        <v>12131</v>
+        <v>14367</v>
       </c>
       <c r="AC36" s="15">
-        <v>14367</v>
+        <v>16956</v>
       </c>
       <c r="AD36" s="15">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AE36" s="15">
-        <v>15552</v>
+        <v>14447</v>
       </c>
       <c r="AF36" s="15">
-        <v>14447</v>
+        <v>5409</v>
       </c>
       <c r="AG36" s="15">
-        <v>5409</v>
+        <v>8618</v>
       </c>
       <c r="AH36" s="15">
-        <v>8618</v>
+        <v>8609</v>
       </c>
       <c r="AI36" s="15">
-        <v>8609</v>
+        <v>14273</v>
       </c>
       <c r="AJ36" s="15">
-        <v>14273</v>
+        <v>11762</v>
       </c>
       <c r="AK36" s="15">
-        <v>11762</v>
+        <v>14037</v>
       </c>
       <c r="AL36" s="15">
-        <v>14037</v>
+        <v>9797</v>
       </c>
       <c r="AM36" s="15">
-        <v>9797</v>
+        <v>11915</v>
       </c>
       <c r="AN36" s="15">
-        <v>11915</v>
+        <v>9310</v>
       </c>
       <c r="AO36" s="15">
-        <v>9310</v>
+        <v>11538</v>
       </c>
       <c r="AP36" s="15">
-        <v>11538</v>
+        <v>13890</v>
       </c>
       <c r="AQ36" s="15">
-        <v>13890</v>
+        <v>14871</v>
       </c>
       <c r="AR36" s="15">
-        <v>14871</v>
+        <v>5528</v>
       </c>
       <c r="AS36" s="15">
-        <v>5528</v>
+        <v>10191</v>
       </c>
       <c r="AT36" s="15">
-        <v>10191</v>
+        <v>10921</v>
       </c>
       <c r="AU36" s="15">
-        <v>10921</v>
+        <v>13081</v>
       </c>
       <c r="AV36" s="15">
-        <v>13081</v>
+        <v>14564</v>
       </c>
       <c r="AW36" s="15">
-        <v>14564</v>
+        <v>13598</v>
       </c>
       <c r="AX36" s="15">
-        <v>13598</v>
+        <v>11771</v>
       </c>
       <c r="AY36" s="15">
-        <v>11771</v>
+        <v>15211</v>
       </c>
       <c r="AZ36" s="15">
-        <v>15211</v>
+        <v>14420</v>
       </c>
       <c r="BA36" s="15">
-        <v>14420</v>
+        <v>17010</v>
       </c>
       <c r="BB36" s="15">
-        <v>17010</v>
+        <v>20049</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4953,11 +4988,11 @@
       <c r="AE38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG38" s="11">
-        <v>0</v>
+      <c r="AF38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="11" t="s">
         <v>58</v>
@@ -4986,11 +5021,11 @@
       <c r="AP38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR38" s="11">
-        <v>0</v>
+      <c r="AQ38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS38" s="11" t="s">
         <v>58</v>
@@ -5085,101 +5120,101 @@
       <c r="V39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="13" t="s">
-        <v>58</v>
+      <c r="W39" s="13">
+        <v>6</v>
       </c>
       <c r="X39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="13">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="13">
+        <v>13</v>
+      </c>
+      <c r="AF39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AI39" s="13">
         <v>6</v>
       </c>
-      <c r="Y39" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
+      <c r="AJ39" s="13">
+        <v>8</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>28</v>
+      </c>
+      <c r="AL39" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>23</v>
+      </c>
+      <c r="AN39" s="13">
+        <v>35</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>12</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>48</v>
+      </c>
+      <c r="AR39" s="13">
+        <v>4</v>
+      </c>
+      <c r="AS39" s="13">
+        <v>8</v>
+      </c>
+      <c r="AT39" s="13">
         <v>11</v>
       </c>
-      <c r="AD39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="13">
+      <c r="AU39" s="13">
+        <v>65</v>
+      </c>
+      <c r="AV39" s="13">
+        <v>69</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>47</v>
+      </c>
+      <c r="AX39" s="13">
+        <v>15</v>
+      </c>
+      <c r="AY39" s="13">
         <v>13</v>
       </c>
-      <c r="AG39" s="13">
-        <v>4</v>
-      </c>
-      <c r="AH39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI39" s="13">
+      <c r="AZ39" s="13">
+        <v>63</v>
+      </c>
+      <c r="BA39" s="13">
         <v>3</v>
       </c>
-      <c r="AJ39" s="13">
-        <v>6</v>
-      </c>
-      <c r="AK39" s="13">
-        <v>8</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>28</v>
-      </c>
-      <c r="AM39" s="13">
-        <v>3</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>23</v>
-      </c>
-      <c r="AO39" s="13">
-        <v>35</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>12</v>
-      </c>
-      <c r="AQ39" s="13">
-        <v>18</v>
-      </c>
-      <c r="AR39" s="13">
-        <v>48</v>
-      </c>
-      <c r="AS39" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT39" s="13">
-        <v>8</v>
-      </c>
-      <c r="AU39" s="13">
-        <v>11</v>
-      </c>
-      <c r="AV39" s="13">
-        <v>65</v>
-      </c>
-      <c r="AW39" s="13">
-        <v>69</v>
-      </c>
-      <c r="AX39" s="13">
-        <v>47</v>
-      </c>
-      <c r="AY39" s="13">
-        <v>15</v>
-      </c>
-      <c r="AZ39" s="13">
-        <v>13</v>
-      </c>
-      <c r="BA39" s="13">
-        <v>63</v>
-      </c>
       <c r="BB39" s="13">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -5244,11 +5279,11 @@
       <c r="V40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="11" t="s">
-        <v>58</v>
+      <c r="W40" s="11">
+        <v>5</v>
       </c>
       <c r="X40" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
         <v>0</v>
@@ -5260,85 +5295,85 @@
         <v>0</v>
       </c>
       <c r="AB40" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AC40" s="11">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="11">
         <v>0</v>
       </c>
       <c r="AE40" s="11">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF40" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG40" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="11">
         <v>11</v>
       </c>
-      <c r="AG40" s="11">
-        <v>10</v>
-      </c>
-      <c r="AH40" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AI40" s="11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="AJ40" s="11">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="AK40" s="11">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AL40" s="11">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AM40" s="11">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="AN40" s="11">
+        <v>232</v>
+      </c>
+      <c r="AO40" s="11">
+        <v>234</v>
+      </c>
+      <c r="AP40" s="11">
+        <v>89</v>
+      </c>
+      <c r="AQ40" s="11">
+        <v>352</v>
+      </c>
+      <c r="AR40" s="11">
+        <v>9</v>
+      </c>
+      <c r="AS40" s="11">
         <v>46</v>
       </c>
-      <c r="AO40" s="11">
-        <v>232</v>
-      </c>
-      <c r="AP40" s="11">
-        <v>234</v>
-      </c>
-      <c r="AQ40" s="11">
-        <v>89</v>
-      </c>
-      <c r="AR40" s="11">
-        <v>352</v>
-      </c>
-      <c r="AS40" s="11">
-        <v>9</v>
-      </c>
       <c r="AT40" s="11">
-        <v>46</v>
+        <v>522</v>
       </c>
       <c r="AU40" s="11">
-        <v>522</v>
+        <v>209</v>
       </c>
       <c r="AV40" s="11">
-        <v>209</v>
+        <v>72</v>
       </c>
       <c r="AW40" s="11">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="AX40" s="11">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AY40" s="11">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="AZ40" s="11">
-        <v>212</v>
+        <v>81</v>
       </c>
       <c r="BA40" s="11">
-        <v>81</v>
+        <v>557</v>
       </c>
       <c r="BB40" s="11">
-        <v>557</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -5403,11 +5438,11 @@
       <c r="V41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="13" t="s">
-        <v>58</v>
+      <c r="W41" s="13">
+        <v>9</v>
       </c>
       <c r="X41" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="13">
         <v>0</v>
@@ -5419,85 +5454,85 @@
         <v>0</v>
       </c>
       <c r="AB41" s="13">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AC41" s="13">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AD41" s="13">
         <v>0</v>
       </c>
       <c r="AE41" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AF41" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG41" s="13">
         <v>4</v>
       </c>
-      <c r="AH41" s="13" t="s">
-        <v>58</v>
+      <c r="AG41" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH41" s="13">
+        <v>6</v>
       </c>
       <c r="AI41" s="13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ41" s="13">
         <v>3</v>
       </c>
       <c r="AK41" s="13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL41" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM41" s="13">
+        <v>25</v>
+      </c>
+      <c r="AN41" s="13">
+        <v>8</v>
+      </c>
+      <c r="AO41" s="13">
+        <v>19</v>
+      </c>
+      <c r="AP41" s="13">
+        <v>16</v>
+      </c>
+      <c r="AQ41" s="13">
+        <v>47</v>
+      </c>
+      <c r="AR41" s="13">
         <v>10</v>
-      </c>
-      <c r="AM41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN41" s="13">
-        <v>25</v>
-      </c>
-      <c r="AO41" s="13">
-        <v>8</v>
-      </c>
-      <c r="AP41" s="13">
-        <v>19</v>
-      </c>
-      <c r="AQ41" s="13">
-        <v>16</v>
-      </c>
-      <c r="AR41" s="13">
-        <v>47</v>
       </c>
       <c r="AS41" s="13">
         <v>10</v>
       </c>
       <c r="AT41" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="13">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AV41" s="13">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="AW41" s="13">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AX41" s="13">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AY41" s="13">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="AZ41" s="13">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="BA41" s="13">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="BB41" s="13">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
@@ -5561,100 +5596,100 @@
         <v>0</v>
       </c>
       <c r="W42" s="15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="15">
+        <v>76</v>
+      </c>
+      <c r="AC42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="15">
+        <v>37</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>18</v>
+      </c>
+      <c r="AG42" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="15">
         <v>20</v>
       </c>
-      <c r="Y42" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="15">
-        <v>76</v>
-      </c>
-      <c r="AD42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="15">
-        <v>37</v>
-      </c>
-      <c r="AG42" s="15">
-        <v>18</v>
-      </c>
-      <c r="AH42" s="15">
-        <v>0</v>
-      </c>
       <c r="AI42" s="15">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AJ42" s="15">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AK42" s="15">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AL42" s="15">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AM42" s="15">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="AN42" s="15">
-        <v>94</v>
+        <v>275</v>
       </c>
       <c r="AO42" s="15">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AP42" s="15">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="AQ42" s="15">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="AR42" s="15">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="AS42" s="15">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="AT42" s="15">
-        <v>64</v>
+        <v>533</v>
       </c>
       <c r="AU42" s="15">
-        <v>533</v>
+        <v>368</v>
       </c>
       <c r="AV42" s="15">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AW42" s="15">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="AX42" s="15">
-        <v>306</v>
+        <v>130</v>
       </c>
       <c r="AY42" s="15">
-        <v>130</v>
+        <v>326</v>
       </c>
       <c r="AZ42" s="15">
-        <v>326</v>
+        <v>176</v>
       </c>
       <c r="BA42" s="15">
-        <v>176</v>
+        <v>576</v>
       </c>
       <c r="BB42" s="15">
-        <v>576</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -5842,11 +5877,11 @@
       <c r="AR44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT44" s="11">
-        <v>0</v>
+      <c r="AS44" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU44" s="11" t="s">
         <v>58</v>
@@ -5933,8 +5968,8 @@
       <c r="V45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="17" t="s">
-        <v>58</v>
+      <c r="W45" s="17">
+        <v>0</v>
       </c>
       <c r="X45" s="17">
         <v>0</v>
@@ -6147,8 +6182,8 @@
       <c r="V47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="15" t="s">
-        <v>58</v>
+      <c r="W47" s="15">
+        <v>0</v>
       </c>
       <c r="X47" s="15">
         <v>0</v>
@@ -6305,100 +6340,100 @@
         <v>0</v>
       </c>
       <c r="W48" s="17">
-        <v>0</v>
+        <v>12443</v>
       </c>
       <c r="X48" s="17">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="Y48" s="17">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="Z48" s="17">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="AA48" s="17">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="AB48" s="17">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AC48" s="17">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AD48" s="17">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AE48" s="17">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AF48" s="17">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AG48" s="17">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AH48" s="17">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AI48" s="17">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AJ48" s="17">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AK48" s="17">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AL48" s="17">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AM48" s="17">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AN48" s="17">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AO48" s="17">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AP48" s="17">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AQ48" s="17">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AR48" s="17">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AS48" s="17">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AT48" s="17">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AU48" s="17">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AV48" s="17">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AW48" s="17">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AX48" s="17">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AY48" s="17">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="AZ48" s="17">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="BA48" s="17">
-        <v>14596</v>
+        <v>17586</v>
       </c>
       <c r="BB48" s="17">
-        <v>17586</v>
+        <v>22452</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.25">
@@ -6924,8 +6959,8 @@
       <c r="AE55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="11" t="s">
-        <v>58</v>
+      <c r="AF55" s="11">
+        <v>0</v>
       </c>
       <c r="AG55" s="11">
         <v>0</v>
@@ -6960,8 +6995,8 @@
       <c r="AQ55" s="11">
         <v>0</v>
       </c>
-      <c r="AR55" s="11">
-        <v>0</v>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS55" s="11" t="s">
         <v>58</v>
@@ -7056,101 +7091,101 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>616646</v>
       </c>
       <c r="X56" s="13">
-        <v>616646</v>
+        <v>599851</v>
       </c>
       <c r="Y56" s="13">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="Z56" s="13">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="AA56" s="13">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="AB56" s="13">
-        <v>762474</v>
+        <v>931426</v>
       </c>
       <c r="AC56" s="13">
-        <v>931426</v>
+        <v>1210523</v>
       </c>
       <c r="AD56" s="13">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AE56" s="13">
-        <v>792902</v>
+        <v>859086</v>
       </c>
       <c r="AF56" s="13">
-        <v>859086</v>
+        <v>232727</v>
       </c>
       <c r="AG56" s="13">
-        <v>232727</v>
+        <v>638333</v>
       </c>
       <c r="AH56" s="13">
-        <v>638333</v>
+        <v>599912</v>
       </c>
       <c r="AI56" s="13">
-        <v>599912</v>
+        <v>1086802</v>
       </c>
       <c r="AJ56" s="13">
-        <v>1086802</v>
+        <v>963842</v>
       </c>
       <c r="AK56" s="13">
-        <v>963842</v>
+        <v>1185274</v>
       </c>
       <c r="AL56" s="13">
-        <v>1185274</v>
+        <v>694052</v>
       </c>
       <c r="AM56" s="13">
-        <v>694052</v>
+        <v>873969</v>
       </c>
       <c r="AN56" s="13">
-        <v>873969</v>
+        <v>619276</v>
       </c>
       <c r="AO56" s="13">
-        <v>619276</v>
+        <v>856651</v>
       </c>
       <c r="AP56" s="13">
-        <v>856651</v>
+        <v>878466</v>
       </c>
       <c r="AQ56" s="13">
-        <v>878466</v>
+        <v>1000199</v>
       </c>
       <c r="AR56" s="13">
-        <v>1000199</v>
+        <v>398941</v>
       </c>
       <c r="AS56" s="13">
-        <v>398941</v>
+        <v>744596</v>
       </c>
       <c r="AT56" s="13">
-        <v>744596</v>
+        <v>1099057</v>
       </c>
       <c r="AU56" s="13">
-        <v>1099057</v>
+        <v>1141676</v>
       </c>
       <c r="AV56" s="13">
-        <v>1141676</v>
+        <v>1278262</v>
       </c>
       <c r="AW56" s="13">
-        <v>1278262</v>
+        <v>1213104</v>
       </c>
       <c r="AX56" s="13">
-        <v>1213104</v>
+        <v>1080945</v>
       </c>
       <c r="AY56" s="13">
-        <v>1080945</v>
+        <v>1430834</v>
       </c>
       <c r="AZ56" s="13">
-        <v>1430834</v>
+        <v>1264780</v>
       </c>
       <c r="BA56" s="13">
-        <v>1264780</v>
+        <v>1515421</v>
       </c>
       <c r="BB56" s="13">
-        <v>1515421</v>
+        <v>1809042</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.25">
@@ -7215,101 +7250,101 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>392359</v>
       </c>
       <c r="X57" s="11">
-        <v>392359</v>
+        <v>369450</v>
       </c>
       <c r="Y57" s="11">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="Z57" s="11">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="AA57" s="11">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="AB57" s="11">
-        <v>676661</v>
+        <v>698396</v>
       </c>
       <c r="AC57" s="11">
-        <v>698396</v>
+        <v>837746</v>
       </c>
       <c r="AD57" s="11">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AE57" s="11">
-        <v>760151</v>
+        <v>816710</v>
       </c>
       <c r="AF57" s="11">
-        <v>816710</v>
+        <v>311136</v>
       </c>
       <c r="AG57" s="11">
-        <v>311136</v>
+        <v>359496</v>
       </c>
       <c r="AH57" s="11">
-        <v>359496</v>
+        <v>427359</v>
       </c>
       <c r="AI57" s="11">
-        <v>427359</v>
+        <v>847067</v>
       </c>
       <c r="AJ57" s="11">
-        <v>847067</v>
+        <v>797931</v>
       </c>
       <c r="AK57" s="11">
-        <v>797931</v>
+        <v>818224</v>
       </c>
       <c r="AL57" s="11">
-        <v>818224</v>
+        <v>555686</v>
       </c>
       <c r="AM57" s="11">
-        <v>555686</v>
+        <v>819305</v>
       </c>
       <c r="AN57" s="11">
-        <v>819305</v>
+        <v>673372</v>
       </c>
       <c r="AO57" s="11">
-        <v>673372</v>
+        <v>689735</v>
       </c>
       <c r="AP57" s="11">
-        <v>689735</v>
+        <v>877278</v>
       </c>
       <c r="AQ57" s="11">
-        <v>877278</v>
+        <v>984707</v>
       </c>
       <c r="AR57" s="11">
-        <v>984707</v>
+        <v>446848</v>
       </c>
       <c r="AS57" s="11">
-        <v>446848</v>
+        <v>791817</v>
       </c>
       <c r="AT57" s="11">
-        <v>791817</v>
+        <v>916710</v>
       </c>
       <c r="AU57" s="11">
-        <v>916710</v>
+        <v>1394519</v>
       </c>
       <c r="AV57" s="11">
-        <v>1394519</v>
+        <v>1472106</v>
       </c>
       <c r="AW57" s="11">
-        <v>1472106</v>
+        <v>1162021</v>
       </c>
       <c r="AX57" s="11">
-        <v>1162021</v>
+        <v>1157839</v>
       </c>
       <c r="AY57" s="11">
-        <v>1157839</v>
+        <v>1626537</v>
       </c>
       <c r="AZ57" s="11">
-        <v>1626537</v>
+        <v>1506714</v>
       </c>
       <c r="BA57" s="11">
-        <v>1506714</v>
+        <v>1790087</v>
       </c>
       <c r="BB57" s="11">
-        <v>1790087</v>
+        <v>1831556</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
@@ -7374,101 +7409,101 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>309560</v>
       </c>
       <c r="X58" s="13">
-        <v>309560</v>
+        <v>190654</v>
       </c>
       <c r="Y58" s="13">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="Z58" s="13">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="AA58" s="13">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="AB58" s="13">
-        <v>272077</v>
+        <v>391506</v>
       </c>
       <c r="AC58" s="13">
-        <v>391506</v>
+        <v>471571</v>
       </c>
       <c r="AD58" s="13">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AE58" s="13">
-        <v>581794</v>
+        <v>471337</v>
       </c>
       <c r="AF58" s="13">
-        <v>471337</v>
+        <v>224718</v>
       </c>
       <c r="AG58" s="13">
-        <v>224718</v>
+        <v>304049</v>
       </c>
       <c r="AH58" s="13">
-        <v>304049</v>
+        <v>320928</v>
       </c>
       <c r="AI58" s="13">
-        <v>320928</v>
+        <v>510603</v>
       </c>
       <c r="AJ58" s="13">
-        <v>510603</v>
+        <v>470813</v>
       </c>
       <c r="AK58" s="13">
-        <v>470813</v>
+        <v>719251</v>
       </c>
       <c r="AL58" s="13">
-        <v>719251</v>
+        <v>434340</v>
       </c>
       <c r="AM58" s="13">
-        <v>434340</v>
+        <v>438896</v>
       </c>
       <c r="AN58" s="13">
-        <v>438896</v>
+        <v>363204</v>
       </c>
       <c r="AO58" s="13">
-        <v>363204</v>
+        <v>447217</v>
       </c>
       <c r="AP58" s="13">
-        <v>447217</v>
+        <v>552378</v>
       </c>
       <c r="AQ58" s="13">
-        <v>552378</v>
+        <v>582195</v>
       </c>
       <c r="AR58" s="13">
-        <v>582195</v>
+        <v>239411</v>
       </c>
       <c r="AS58" s="13">
-        <v>239411</v>
+        <v>461908</v>
       </c>
       <c r="AT58" s="13">
-        <v>461908</v>
+        <v>556739</v>
       </c>
       <c r="AU58" s="13">
-        <v>556739</v>
+        <v>587901</v>
       </c>
       <c r="AV58" s="13">
-        <v>587901</v>
+        <v>774201</v>
       </c>
       <c r="AW58" s="13">
-        <v>774201</v>
+        <v>602769</v>
       </c>
       <c r="AX58" s="13">
-        <v>602769</v>
+        <v>543359</v>
       </c>
       <c r="AY58" s="13">
-        <v>543359</v>
+        <v>762402</v>
       </c>
       <c r="AZ58" s="13">
-        <v>762402</v>
+        <v>754831</v>
       </c>
       <c r="BA58" s="13">
-        <v>754831</v>
+        <v>860800</v>
       </c>
       <c r="BB58" s="13">
-        <v>860800</v>
+        <v>1179600</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
@@ -7532,100 +7567,100 @@
         <v>0</v>
       </c>
       <c r="W59" s="15">
-        <v>0</v>
+        <v>1318565</v>
       </c>
       <c r="X59" s="15">
-        <v>1318565</v>
+        <v>1159955</v>
       </c>
       <c r="Y59" s="15">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="Z59" s="15">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AA59" s="15">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AB59" s="15">
-        <v>1711212</v>
+        <v>2021328</v>
       </c>
       <c r="AC59" s="15">
-        <v>2021328</v>
+        <v>2519840</v>
       </c>
       <c r="AD59" s="15">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AE59" s="15">
-        <v>2134847</v>
+        <v>2147133</v>
       </c>
       <c r="AF59" s="15">
-        <v>2147133</v>
+        <v>768581</v>
       </c>
       <c r="AG59" s="15">
-        <v>768581</v>
+        <v>1301878</v>
       </c>
       <c r="AH59" s="15">
-        <v>1301878</v>
+        <v>1348199</v>
       </c>
       <c r="AI59" s="15">
-        <v>1348199</v>
+        <v>2444472</v>
       </c>
       <c r="AJ59" s="15">
-        <v>2444472</v>
+        <v>2232586</v>
       </c>
       <c r="AK59" s="15">
-        <v>2232586</v>
+        <v>2722749</v>
       </c>
       <c r="AL59" s="15">
-        <v>2722749</v>
+        <v>1684078</v>
       </c>
       <c r="AM59" s="15">
-        <v>1684078</v>
+        <v>2132170</v>
       </c>
       <c r="AN59" s="15">
-        <v>2132170</v>
+        <v>1655852</v>
       </c>
       <c r="AO59" s="15">
-        <v>1655852</v>
+        <v>1993603</v>
       </c>
       <c r="AP59" s="15">
-        <v>1993603</v>
+        <v>2308122</v>
       </c>
       <c r="AQ59" s="15">
-        <v>2308122</v>
+        <v>2567101</v>
       </c>
       <c r="AR59" s="15">
-        <v>2567101</v>
+        <v>1085200</v>
       </c>
       <c r="AS59" s="15">
-        <v>1085200</v>
+        <v>1998321</v>
       </c>
       <c r="AT59" s="15">
-        <v>1998321</v>
+        <v>2572506</v>
       </c>
       <c r="AU59" s="15">
-        <v>2572506</v>
+        <v>3124096</v>
       </c>
       <c r="AV59" s="15">
-        <v>3124096</v>
+        <v>3524569</v>
       </c>
       <c r="AW59" s="15">
-        <v>3524569</v>
+        <v>2977894</v>
       </c>
       <c r="AX59" s="15">
-        <v>2977894</v>
+        <v>2782143</v>
       </c>
       <c r="AY59" s="15">
-        <v>2782143</v>
+        <v>3819773</v>
       </c>
       <c r="AZ59" s="15">
-        <v>3819773</v>
+        <v>3526325</v>
       </c>
       <c r="BA59" s="15">
-        <v>3526325</v>
+        <v>4166308</v>
       </c>
       <c r="BB59" s="15">
-        <v>4166308</v>
+        <v>4820198</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
@@ -7774,8 +7809,8 @@
       <c r="AE61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>58</v>
+      <c r="AF61" s="11">
+        <v>0</v>
       </c>
       <c r="AG61" s="11">
         <v>0</v>
@@ -7810,8 +7845,8 @@
       <c r="AQ61" s="11">
         <v>0</v>
       </c>
-      <c r="AR61" s="11">
-        <v>0</v>
+      <c r="AR61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS61" s="11" t="s">
         <v>58</v>
@@ -7906,11 +7941,11 @@
       <c r="V62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>58</v>
+      <c r="W62" s="13">
+        <v>1551</v>
       </c>
       <c r="X62" s="13">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="13">
         <v>0</v>
@@ -7922,85 +7957,85 @@
         <v>0</v>
       </c>
       <c r="AB62" s="13">
-        <v>0</v>
+        <v>3067</v>
       </c>
       <c r="AC62" s="13">
-        <v>3067</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="13">
         <v>0</v>
       </c>
       <c r="AE62" s="13">
-        <v>0</v>
+        <v>3395</v>
       </c>
       <c r="AF62" s="13">
-        <v>3395</v>
+        <v>1105</v>
       </c>
       <c r="AG62" s="13">
-        <v>1105</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="13">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="AI62" s="13">
-        <v>828</v>
+        <v>1528</v>
       </c>
       <c r="AJ62" s="13">
-        <v>1528</v>
+        <v>1403</v>
       </c>
       <c r="AK62" s="13">
-        <v>1403</v>
+        <v>7873</v>
       </c>
       <c r="AL62" s="13">
-        <v>7873</v>
+        <v>950</v>
       </c>
       <c r="AM62" s="13">
-        <v>950</v>
+        <v>5626</v>
       </c>
       <c r="AN62" s="13">
-        <v>5626</v>
+        <v>10433</v>
       </c>
       <c r="AO62" s="13">
-        <v>10433</v>
+        <v>3364</v>
       </c>
       <c r="AP62" s="13">
-        <v>3364</v>
+        <v>5220</v>
       </c>
       <c r="AQ62" s="13">
-        <v>5220</v>
+        <v>15188</v>
       </c>
       <c r="AR62" s="13">
-        <v>15188</v>
+        <v>1562</v>
       </c>
       <c r="AS62" s="13">
-        <v>1562</v>
+        <v>2366</v>
       </c>
       <c r="AT62" s="13">
-        <v>2366</v>
+        <v>5738</v>
       </c>
       <c r="AU62" s="13">
-        <v>5738</v>
+        <v>49254</v>
       </c>
       <c r="AV62" s="13">
-        <v>49254</v>
+        <v>22354</v>
       </c>
       <c r="AW62" s="13">
-        <v>22354</v>
+        <v>12742</v>
       </c>
       <c r="AX62" s="13">
-        <v>12742</v>
+        <v>4940</v>
       </c>
       <c r="AY62" s="13">
-        <v>4940</v>
+        <v>3225</v>
       </c>
       <c r="AZ62" s="13">
-        <v>3225</v>
+        <v>29139</v>
       </c>
       <c r="BA62" s="13">
-        <v>29139</v>
+        <v>1349</v>
       </c>
       <c r="BB62" s="13">
-        <v>1349</v>
+        <v>28522</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.25">
@@ -8065,11 +8100,11 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>628</v>
       </c>
       <c r="X63" s="11">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="11">
         <v>0</v>
@@ -8081,85 +8116,85 @@
         <v>0</v>
       </c>
       <c r="AB63" s="11">
-        <v>0</v>
+        <v>3433</v>
       </c>
       <c r="AC63" s="11">
-        <v>3433</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="11">
         <v>0</v>
       </c>
       <c r="AE63" s="11">
-        <v>0</v>
+        <v>1257</v>
       </c>
       <c r="AF63" s="11">
-        <v>1257</v>
+        <v>710</v>
       </c>
       <c r="AG63" s="11">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="11">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AI63" s="11">
-        <v>1500</v>
+        <v>4562</v>
       </c>
       <c r="AJ63" s="11">
-        <v>4562</v>
+        <v>1303</v>
       </c>
       <c r="AK63" s="11">
-        <v>1303</v>
+        <v>4360</v>
       </c>
       <c r="AL63" s="11">
-        <v>4360</v>
+        <v>2555</v>
       </c>
       <c r="AM63" s="11">
-        <v>2555</v>
+        <v>7376</v>
       </c>
       <c r="AN63" s="11">
-        <v>7376</v>
+        <v>34829</v>
       </c>
       <c r="AO63" s="11">
-        <v>34829</v>
+        <v>19055</v>
       </c>
       <c r="AP63" s="11">
-        <v>19055</v>
+        <v>9777</v>
       </c>
       <c r="AQ63" s="11">
-        <v>9777</v>
+        <v>34940</v>
       </c>
       <c r="AR63" s="11">
-        <v>34940</v>
+        <v>1311</v>
       </c>
       <c r="AS63" s="11">
-        <v>1311</v>
+        <v>8424</v>
       </c>
       <c r="AT63" s="11">
-        <v>8424</v>
+        <v>36915</v>
       </c>
       <c r="AU63" s="11">
-        <v>36915</v>
+        <v>31178</v>
       </c>
       <c r="AV63" s="11">
-        <v>31178</v>
+        <v>10651</v>
       </c>
       <c r="AW63" s="11">
-        <v>10651</v>
+        <v>27367</v>
       </c>
       <c r="AX63" s="11">
-        <v>27367</v>
+        <v>18963</v>
       </c>
       <c r="AY63" s="11">
-        <v>18963</v>
+        <v>37581</v>
       </c>
       <c r="AZ63" s="11">
-        <v>37581</v>
+        <v>17369</v>
       </c>
       <c r="BA63" s="11">
-        <v>17369</v>
+        <v>83423</v>
       </c>
       <c r="BB63" s="11">
-        <v>83423</v>
+        <v>279619</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
@@ -8224,11 +8259,11 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
+      <c r="W64" s="13">
+        <v>1307</v>
       </c>
       <c r="X64" s="13">
-        <v>1307</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="13">
         <v>0</v>
@@ -8240,85 +8275,85 @@
         <v>0</v>
       </c>
       <c r="AB64" s="13">
-        <v>0</v>
+        <v>7021</v>
       </c>
       <c r="AC64" s="13">
-        <v>7021</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="13">
         <v>0</v>
       </c>
       <c r="AE64" s="13">
-        <v>0</v>
+        <v>3342</v>
       </c>
       <c r="AF64" s="13">
-        <v>3342</v>
+        <v>667</v>
       </c>
       <c r="AG64" s="13">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="13">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="AI64" s="13">
-        <v>1052</v>
+        <v>439</v>
       </c>
       <c r="AJ64" s="13">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="AK64" s="13">
-        <v>462</v>
+        <v>2102</v>
       </c>
       <c r="AL64" s="13">
-        <v>2102</v>
+        <v>363</v>
       </c>
       <c r="AM64" s="13">
-        <v>363</v>
+        <v>5206</v>
       </c>
       <c r="AN64" s="13">
-        <v>5206</v>
+        <v>1489</v>
       </c>
       <c r="AO64" s="13">
-        <v>1489</v>
+        <v>3002</v>
       </c>
       <c r="AP64" s="13">
-        <v>3002</v>
+        <v>3222</v>
       </c>
       <c r="AQ64" s="13">
-        <v>3222</v>
+        <v>8233</v>
       </c>
       <c r="AR64" s="13">
-        <v>8233</v>
+        <v>1631</v>
       </c>
       <c r="AS64" s="13">
-        <v>1631</v>
+        <v>1815</v>
       </c>
       <c r="AT64" s="13">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="13">
-        <v>0</v>
+        <v>16185</v>
       </c>
       <c r="AV64" s="13">
-        <v>16185</v>
+        <v>6785</v>
       </c>
       <c r="AW64" s="13">
-        <v>6785</v>
+        <v>11181</v>
       </c>
       <c r="AX64" s="13">
-        <v>11181</v>
+        <v>8910</v>
       </c>
       <c r="AY64" s="13">
-        <v>8910</v>
+        <v>16705</v>
       </c>
       <c r="AZ64" s="13">
-        <v>16705</v>
+        <v>8185</v>
       </c>
       <c r="BA64" s="13">
-        <v>8185</v>
+        <v>5246</v>
       </c>
       <c r="BB64" s="13">
-        <v>5246</v>
+        <v>16213</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
@@ -8382,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="W65" s="15">
-        <v>0</v>
+        <v>3486</v>
       </c>
       <c r="X65" s="15">
-        <v>3486</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="15">
         <v>0</v>
@@ -8397,85 +8432,85 @@
         <v>0</v>
       </c>
       <c r="AB65" s="15">
-        <v>0</v>
+        <v>13521</v>
       </c>
       <c r="AC65" s="15">
-        <v>13521</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="15">
         <v>0</v>
       </c>
       <c r="AE65" s="15">
-        <v>0</v>
+        <v>7994</v>
       </c>
       <c r="AF65" s="15">
-        <v>7994</v>
+        <v>2482</v>
       </c>
       <c r="AG65" s="15">
-        <v>2482</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="15">
-        <v>0</v>
+        <v>3380</v>
       </c>
       <c r="AI65" s="15">
-        <v>3380</v>
+        <v>6529</v>
       </c>
       <c r="AJ65" s="15">
-        <v>6529</v>
+        <v>3168</v>
       </c>
       <c r="AK65" s="15">
-        <v>3168</v>
+        <v>14335</v>
       </c>
       <c r="AL65" s="15">
-        <v>14335</v>
+        <v>3868</v>
       </c>
       <c r="AM65" s="15">
-        <v>3868</v>
+        <v>18208</v>
       </c>
       <c r="AN65" s="15">
-        <v>18208</v>
+        <v>46751</v>
       </c>
       <c r="AO65" s="15">
-        <v>46751</v>
+        <v>25421</v>
       </c>
       <c r="AP65" s="15">
-        <v>25421</v>
+        <v>18219</v>
       </c>
       <c r="AQ65" s="15">
-        <v>18219</v>
+        <v>58361</v>
       </c>
       <c r="AR65" s="15">
-        <v>58361</v>
+        <v>4504</v>
       </c>
       <c r="AS65" s="15">
-        <v>4504</v>
+        <v>12605</v>
       </c>
       <c r="AT65" s="15">
-        <v>12605</v>
+        <v>42653</v>
       </c>
       <c r="AU65" s="15">
-        <v>42653</v>
+        <v>96617</v>
       </c>
       <c r="AV65" s="15">
-        <v>96617</v>
+        <v>39790</v>
       </c>
       <c r="AW65" s="15">
-        <v>39790</v>
+        <v>51290</v>
       </c>
       <c r="AX65" s="15">
-        <v>51290</v>
+        <v>32813</v>
       </c>
       <c r="AY65" s="15">
-        <v>32813</v>
+        <v>57511</v>
       </c>
       <c r="AZ65" s="15">
-        <v>57511</v>
+        <v>54693</v>
       </c>
       <c r="BA65" s="15">
-        <v>54693</v>
+        <v>90018</v>
       </c>
       <c r="BB65" s="15">
-        <v>90018</v>
+        <v>324354</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
@@ -8630,68 +8665,68 @@
       <c r="AG67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH67" s="11" t="s">
-        <v>58</v>
+      <c r="AH67" s="11">
+        <v>6789</v>
       </c>
       <c r="AI67" s="11">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="11">
         <v>0</v>
       </c>
       <c r="AK67" s="11">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AL67" s="11">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AM67" s="11">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AN67" s="11">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AO67" s="11">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AP67" s="11">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AQ67" s="11">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AR67" s="11">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AS67" s="11">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AT67" s="11">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AU67" s="11">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AV67" s="11">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AW67" s="11">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AX67" s="11">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AY67" s="11">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AZ67" s="11">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BA67" s="11">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="BB67" s="11">
-        <v>4371</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -8756,8 +8791,8 @@
       <c r="V68" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="17" t="s">
-        <v>58</v>
+      <c r="W68" s="17">
+        <v>0</v>
       </c>
       <c r="X68" s="17">
         <v>0</v>
@@ -8790,67 +8825,67 @@
         <v>0</v>
       </c>
       <c r="AH68" s="17">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AI68" s="17">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="17">
         <v>0</v>
       </c>
       <c r="AK68" s="17">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AL68" s="17">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AM68" s="17">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AN68" s="17">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AO68" s="17">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AP68" s="17">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AQ68" s="17">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AR68" s="17">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AS68" s="17">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AT68" s="17">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AU68" s="17">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AV68" s="17">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AW68" s="17">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AX68" s="17">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AY68" s="17">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AZ68" s="17">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="BA68" s="17">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="BB68" s="17">
-        <v>4371</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.25">
@@ -8972,8 +9007,8 @@
       <c r="V70" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="15" t="s">
-        <v>58</v>
+      <c r="W70" s="15">
+        <v>0</v>
       </c>
       <c r="X70" s="15">
         <v>0</v>
@@ -9188,8 +9223,8 @@
       <c r="V72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>58</v>
+      <c r="W72" s="11">
+        <v>0</v>
       </c>
       <c r="X72" s="11">
         <v>0</v>
@@ -9346,100 +9381,100 @@
         <v>0</v>
       </c>
       <c r="W73" s="17">
-        <v>0</v>
+        <v>1322051</v>
       </c>
       <c r="X73" s="17">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="Y73" s="17">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="Z73" s="17">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="AA73" s="17">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="AB73" s="17">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AC73" s="17">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AD73" s="17">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AE73" s="17">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AF73" s="17">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AG73" s="17">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AH73" s="17">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AI73" s="17">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AJ73" s="17">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AK73" s="17">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AL73" s="17">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AM73" s="17">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AN73" s="17">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AO73" s="17">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AP73" s="17">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AQ73" s="17">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AR73" s="17">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AS73" s="17">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AT73" s="17">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AU73" s="17">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AV73" s="17">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AW73" s="17">
-        <v>3573223</v>
+        <v>3036588</v>
       </c>
       <c r="AX73" s="17">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="AY73" s="17">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="AZ73" s="17">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="BA73" s="17">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
       <c r="BB73" s="17">
-        <v>4260697</v>
+        <v>5146420</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
@@ -9938,101 +9973,101 @@
       <c r="V80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="11" t="s">
-        <v>58</v>
+      <c r="W80" s="11">
+        <v>122642403</v>
       </c>
       <c r="X80" s="11">
-        <v>122642403</v>
+        <v>122995899</v>
       </c>
       <c r="Y80" s="11">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="Z80" s="11">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="AA80" s="11">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="AB80" s="11">
-        <v>158815663</v>
+        <v>159928915</v>
       </c>
       <c r="AC80" s="11">
-        <v>159928915</v>
+        <v>176409647</v>
       </c>
       <c r="AD80" s="11">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AE80" s="11">
-        <v>167668006</v>
+        <v>172161523</v>
       </c>
       <c r="AF80" s="11">
-        <v>172161523</v>
+        <v>189981224</v>
       </c>
       <c r="AG80" s="11">
-        <v>189981224</v>
+        <v>198919601</v>
       </c>
       <c r="AH80" s="11">
-        <v>198919601</v>
+        <v>229061474</v>
       </c>
       <c r="AI80" s="11">
-        <v>229061474</v>
+        <v>219777958</v>
       </c>
       <c r="AJ80" s="11">
-        <v>219777958</v>
+        <v>240359601</v>
       </c>
       <c r="AK80" s="11">
-        <v>240359601</v>
+        <v>258004789</v>
       </c>
       <c r="AL80" s="11">
-        <v>258004789</v>
+        <v>242590703</v>
       </c>
       <c r="AM80" s="11">
-        <v>242590703</v>
+        <v>243242137</v>
       </c>
       <c r="AN80" s="11">
-        <v>243242137</v>
+        <v>259981528</v>
       </c>
       <c r="AO80" s="11">
-        <v>259981528</v>
+        <v>246589234</v>
       </c>
       <c r="AP80" s="11">
-        <v>246589234</v>
+        <v>221946943</v>
       </c>
       <c r="AQ80" s="11">
-        <v>221946943</v>
+        <v>232064733</v>
       </c>
       <c r="AR80" s="11">
-        <v>232064733</v>
+        <v>277234885</v>
       </c>
       <c r="AS80" s="11">
-        <v>277234885</v>
+        <v>270663759</v>
       </c>
       <c r="AT80" s="11">
-        <v>270663759</v>
+        <v>308377385</v>
       </c>
       <c r="AU80" s="11">
-        <v>308377385</v>
+        <v>331016527</v>
       </c>
       <c r="AV80" s="11">
-        <v>331016527</v>
+        <v>315854213</v>
       </c>
       <c r="AW80" s="11">
-        <v>315854213</v>
+        <v>306649141</v>
       </c>
       <c r="AX80" s="11">
-        <v>306649141</v>
+        <v>339173204</v>
       </c>
       <c r="AY80" s="11">
-        <v>339173204</v>
+        <v>355751865</v>
       </c>
       <c r="AZ80" s="11">
-        <v>355751865</v>
+        <v>360438871</v>
       </c>
       <c r="BA80" s="11">
-        <v>360438871</v>
+        <v>331601969</v>
       </c>
       <c r="BB80" s="11">
-        <v>331601969</v>
+        <v>321093717</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.25">
@@ -10097,101 +10132,101 @@
       <c r="V81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>58</v>
+      <c r="W81" s="13">
+        <v>115399706</v>
       </c>
       <c r="X81" s="13">
-        <v>115399706</v>
+        <v>113922294</v>
       </c>
       <c r="Y81" s="13">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="Z81" s="13">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="AA81" s="13">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="AB81" s="13">
-        <v>158468618</v>
+        <v>159051697</v>
       </c>
       <c r="AC81" s="13">
-        <v>159051697</v>
+        <v>157767608</v>
       </c>
       <c r="AD81" s="13">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AE81" s="13">
-        <v>155736734</v>
+        <v>160959795</v>
       </c>
       <c r="AF81" s="13">
-        <v>160959795</v>
+        <v>159230297</v>
       </c>
       <c r="AG81" s="13">
-        <v>159230297</v>
+        <v>150605781</v>
       </c>
       <c r="AH81" s="13">
-        <v>150605781</v>
+        <v>152193376</v>
       </c>
       <c r="AI81" s="13">
-        <v>152193376</v>
+        <v>181930198</v>
       </c>
       <c r="AJ81" s="13">
-        <v>181930198</v>
+        <v>197605498</v>
       </c>
       <c r="AK81" s="13">
-        <v>197605498</v>
+        <v>199956989</v>
       </c>
       <c r="AL81" s="13">
-        <v>199956989</v>
+        <v>191946805</v>
       </c>
       <c r="AM81" s="13">
-        <v>191946805</v>
+        <v>193369129</v>
       </c>
       <c r="AN81" s="13">
-        <v>193369129</v>
+        <v>187935250</v>
       </c>
       <c r="AO81" s="13">
-        <v>187935250</v>
+        <v>179946517</v>
       </c>
       <c r="AP81" s="13">
-        <v>179946517</v>
+        <v>184031466</v>
       </c>
       <c r="AQ81" s="13">
-        <v>184031466</v>
+        <v>182691466</v>
       </c>
       <c r="AR81" s="13">
-        <v>182691466</v>
+        <v>198510884</v>
       </c>
       <c r="AS81" s="13">
-        <v>198510884</v>
+        <v>210813898</v>
       </c>
       <c r="AT81" s="13">
-        <v>210813898</v>
+        <v>245964583</v>
       </c>
       <c r="AU81" s="13">
-        <v>245964583</v>
+        <v>252630254</v>
       </c>
       <c r="AV81" s="13">
-        <v>252630254</v>
+        <v>256956886</v>
       </c>
       <c r="AW81" s="13">
-        <v>256956886</v>
+        <v>221929144</v>
       </c>
       <c r="AX81" s="13">
-        <v>221929144</v>
+        <v>246663613</v>
       </c>
       <c r="AY81" s="13">
-        <v>246663613</v>
+        <v>270458430</v>
       </c>
       <c r="AZ81" s="13">
-        <v>270458430</v>
+        <v>254986292</v>
       </c>
       <c r="BA81" s="13">
-        <v>254986292</v>
+        <v>251452030</v>
       </c>
       <c r="BB81" s="13">
-        <v>251452030</v>
+        <v>263760945</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.25">
@@ -10256,101 +10291,101 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>77486859</v>
       </c>
       <c r="X82" s="11">
-        <v>77486859</v>
+        <v>66429965</v>
       </c>
       <c r="Y82" s="11">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="Z82" s="11">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="AA82" s="11">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="AB82" s="11">
-        <v>88914052</v>
+        <v>94293353</v>
       </c>
       <c r="AC82" s="11">
-        <v>94293353</v>
+        <v>98572533</v>
       </c>
       <c r="AD82" s="11">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AE82" s="11">
-        <v>97912151</v>
+        <v>107537531</v>
       </c>
       <c r="AF82" s="11">
-        <v>107537531</v>
+        <v>100770404</v>
       </c>
       <c r="AG82" s="11">
-        <v>100770404</v>
+        <v>100611846</v>
       </c>
       <c r="AH82" s="11">
-        <v>100611846</v>
+        <v>100857322</v>
       </c>
       <c r="AI82" s="11">
-        <v>100857322</v>
+        <v>109290026</v>
       </c>
       <c r="AJ82" s="11">
-        <v>109290026</v>
+        <v>126767097</v>
       </c>
       <c r="AK82" s="11">
-        <v>126767097</v>
+        <v>134414315</v>
       </c>
       <c r="AL82" s="11">
-        <v>134414315</v>
+        <v>107483296</v>
       </c>
       <c r="AM82" s="11">
-        <v>107483296</v>
+        <v>107440881</v>
       </c>
       <c r="AN82" s="11">
-        <v>107440881</v>
+        <v>108581166</v>
       </c>
       <c r="AO82" s="11">
-        <v>108581166</v>
+        <v>105700071</v>
       </c>
       <c r="AP82" s="11">
-        <v>105700071</v>
+        <v>106946370</v>
       </c>
       <c r="AQ82" s="11">
-        <v>106946370</v>
+        <v>112588474</v>
       </c>
       <c r="AR82" s="11">
-        <v>112588474</v>
+        <v>130256257</v>
       </c>
       <c r="AS82" s="11">
-        <v>130256257</v>
+        <v>125382193</v>
       </c>
       <c r="AT82" s="11">
-        <v>125382193</v>
+        <v>153371625</v>
       </c>
       <c r="AU82" s="11">
-        <v>153371625</v>
+        <v>142972033</v>
       </c>
       <c r="AV82" s="11">
-        <v>142972033</v>
+        <v>161696115</v>
       </c>
       <c r="AW82" s="11">
-        <v>161696115</v>
+        <v>136806400</v>
       </c>
       <c r="AX82" s="11">
-        <v>136806400</v>
+        <v>139680977</v>
       </c>
       <c r="AY82" s="11">
-        <v>139680977</v>
+        <v>147324058</v>
       </c>
       <c r="AZ82" s="11">
-        <v>147324058</v>
+        <v>150905838</v>
       </c>
       <c r="BA82" s="11">
-        <v>150905838</v>
+        <v>161774103</v>
       </c>
       <c r="BB82" s="11">
-        <v>161774103</v>
+        <v>157890510</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.25">
@@ -10472,12 +10507,12 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11">
+      <c r="W84" s="11">
         <v>258500000</v>
       </c>
+      <c r="X84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Y84" s="11" t="s">
         <v>58</v>
       </c>
@@ -10487,86 +10522,86 @@
       <c r="AA84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC84" s="11">
+      <c r="AB84" s="11">
         <v>278818182</v>
       </c>
+      <c r="AC84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE84" s="11" t="s">
-        <v>58</v>
+      <c r="AE84" s="11">
+        <v>261153846</v>
       </c>
       <c r="AF84" s="11">
-        <v>261153846</v>
-      </c>
-      <c r="AG84" s="11">
         <v>276250000</v>
       </c>
-      <c r="AH84" s="11" t="s">
-        <v>58</v>
+      <c r="AG84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH84" s="11">
+        <v>276000000</v>
       </c>
       <c r="AI84" s="11">
-        <v>276000000</v>
+        <v>254666667</v>
       </c>
       <c r="AJ84" s="11">
-        <v>254666667</v>
+        <v>175375000</v>
       </c>
       <c r="AK84" s="11">
-        <v>175375000</v>
+        <v>281178571</v>
       </c>
       <c r="AL84" s="11">
-        <v>281178571</v>
+        <v>316666667</v>
       </c>
       <c r="AM84" s="11">
-        <v>316666667</v>
+        <v>244608696</v>
       </c>
       <c r="AN84" s="11">
-        <v>244608696</v>
+        <v>298085714</v>
       </c>
       <c r="AO84" s="11">
-        <v>298085714</v>
+        <v>280333333</v>
       </c>
       <c r="AP84" s="11">
-        <v>280333333</v>
+        <v>290000000</v>
       </c>
       <c r="AQ84" s="11">
-        <v>290000000</v>
+        <v>316416667</v>
       </c>
       <c r="AR84" s="11">
-        <v>316416667</v>
+        <v>390500000</v>
       </c>
       <c r="AS84" s="11">
-        <v>390500000</v>
+        <v>295750000</v>
       </c>
       <c r="AT84" s="11">
-        <v>295750000</v>
+        <v>521636364</v>
       </c>
       <c r="AU84" s="11">
-        <v>521636364</v>
+        <v>757753846</v>
       </c>
       <c r="AV84" s="11">
-        <v>757753846</v>
+        <v>323971014</v>
       </c>
       <c r="AW84" s="11">
-        <v>323971014</v>
+        <v>271106383</v>
       </c>
       <c r="AX84" s="11">
-        <v>271106383</v>
+        <v>329333333</v>
       </c>
       <c r="AY84" s="11">
-        <v>329333333</v>
+        <v>248076923</v>
       </c>
       <c r="AZ84" s="11">
-        <v>248076923</v>
+        <v>462523810</v>
       </c>
       <c r="BA84" s="11">
-        <v>462523810</v>
+        <v>449666667</v>
       </c>
       <c r="BB84" s="11">
-        <v>449666667</v>
+        <v>475366667</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.25">
@@ -10631,12 +10666,12 @@
       <c r="V85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="13">
+      <c r="W85" s="13">
         <v>125600000</v>
       </c>
+      <c r="X85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y85" s="13" t="s">
         <v>58</v>
       </c>
@@ -10646,86 +10681,86 @@
       <c r="AA85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC85" s="13">
+      <c r="AB85" s="13">
         <v>122607143</v>
       </c>
+      <c r="AC85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AD85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE85" s="13" t="s">
-        <v>58</v>
+      <c r="AE85" s="13">
+        <v>114272727</v>
       </c>
       <c r="AF85" s="13">
-        <v>114272727</v>
-      </c>
-      <c r="AG85" s="13">
         <v>71000000</v>
       </c>
-      <c r="AH85" s="13" t="s">
-        <v>58</v>
+      <c r="AG85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH85" s="13">
+        <v>136363636</v>
       </c>
       <c r="AI85" s="13">
-        <v>136363636</v>
+        <v>138242424</v>
       </c>
       <c r="AJ85" s="13">
-        <v>138242424</v>
+        <v>162875000</v>
       </c>
       <c r="AK85" s="13">
-        <v>162875000</v>
+        <v>161481481</v>
       </c>
       <c r="AL85" s="13">
-        <v>161481481</v>
+        <v>159687500</v>
       </c>
       <c r="AM85" s="13">
-        <v>159687500</v>
+        <v>160347826</v>
       </c>
       <c r="AN85" s="13">
-        <v>160347826</v>
+        <v>150125000</v>
       </c>
       <c r="AO85" s="13">
-        <v>150125000</v>
+        <v>81431624</v>
       </c>
       <c r="AP85" s="13">
-        <v>81431624</v>
+        <v>109853933</v>
       </c>
       <c r="AQ85" s="13">
-        <v>109853933</v>
+        <v>99261364</v>
       </c>
       <c r="AR85" s="13">
-        <v>99261364</v>
+        <v>145666667</v>
       </c>
       <c r="AS85" s="13">
-        <v>145666667</v>
+        <v>183130435</v>
       </c>
       <c r="AT85" s="13">
-        <v>183130435</v>
+        <v>70718391</v>
       </c>
       <c r="AU85" s="13">
-        <v>70718391</v>
+        <v>149177033</v>
       </c>
       <c r="AV85" s="13">
-        <v>149177033</v>
+        <v>147930556</v>
       </c>
       <c r="AW85" s="13">
-        <v>147930556</v>
+        <v>134151961</v>
       </c>
       <c r="AX85" s="13">
-        <v>134151961</v>
+        <v>259767123</v>
       </c>
       <c r="AY85" s="13">
-        <v>259767123</v>
+        <v>177268868</v>
       </c>
       <c r="AZ85" s="13">
-        <v>177268868</v>
+        <v>214432099</v>
       </c>
       <c r="BA85" s="13">
-        <v>214432099</v>
+        <v>149771993</v>
       </c>
       <c r="BB85" s="13">
-        <v>149771993</v>
+        <v>121944614</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.25">
@@ -10790,12 +10825,12 @@
       <c r="V86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="11">
+      <c r="W86" s="11">
         <v>145222222</v>
       </c>
+      <c r="X86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="Y86" s="11" t="s">
         <v>58</v>
       </c>
@@ -10805,86 +10840,86 @@
       <c r="AA86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC86" s="11">
+      <c r="AB86" s="11">
         <v>189756757</v>
       </c>
+      <c r="AC86" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AD86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE86" s="11" t="s">
-        <v>58</v>
+      <c r="AE86" s="11">
+        <v>257076923</v>
       </c>
       <c r="AF86" s="11">
-        <v>257076923</v>
-      </c>
-      <c r="AG86" s="11">
         <v>166750000</v>
       </c>
-      <c r="AH86" s="11" t="s">
-        <v>58</v>
+      <c r="AG86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH86" s="11">
+        <v>175333333</v>
       </c>
       <c r="AI86" s="11">
-        <v>175333333</v>
+        <v>146333333</v>
       </c>
       <c r="AJ86" s="11">
-        <v>146333333</v>
+        <v>154000000</v>
       </c>
       <c r="AK86" s="11">
-        <v>154000000</v>
+        <v>210200000</v>
       </c>
       <c r="AL86" s="11">
-        <v>210200000</v>
+        <v>181500000</v>
       </c>
       <c r="AM86" s="11">
+        <v>208240000</v>
+      </c>
+      <c r="AN86" s="11">
+        <v>186125000</v>
+      </c>
+      <c r="AO86" s="11">
+        <v>158000000</v>
+      </c>
+      <c r="AP86" s="11">
+        <v>201375000</v>
+      </c>
+      <c r="AQ86" s="11">
+        <v>175170213</v>
+      </c>
+      <c r="AR86" s="11">
+        <v>163100000</v>
+      </c>
+      <c r="AS86" s="11">
         <v>181500000</v>
       </c>
-      <c r="AN86" s="11">
-        <v>208240000</v>
-      </c>
-      <c r="AO86" s="11">
-        <v>186125000</v>
-      </c>
-      <c r="AP86" s="11">
-        <v>158000000</v>
-      </c>
-      <c r="AQ86" s="11">
-        <v>201375000</v>
-      </c>
-      <c r="AR86" s="11">
-        <v>175170213</v>
-      </c>
-      <c r="AS86" s="11">
-        <v>163100000</v>
-      </c>
-      <c r="AT86" s="11">
-        <v>181500000</v>
-      </c>
-      <c r="AU86" s="11" t="s">
-        <v>58</v>
+      <c r="AT86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU86" s="11">
+        <v>172180851</v>
       </c>
       <c r="AV86" s="11">
-        <v>172180851</v>
+        <v>138469388</v>
       </c>
       <c r="AW86" s="11">
-        <v>138469388</v>
+        <v>203290909</v>
       </c>
       <c r="AX86" s="11">
-        <v>203290909</v>
+        <v>212142857</v>
       </c>
       <c r="AY86" s="11">
-        <v>212142857</v>
+        <v>165396040</v>
       </c>
       <c r="AZ86" s="11">
-        <v>165396040</v>
+        <v>255781250</v>
       </c>
       <c r="BA86" s="11">
-        <v>255781250</v>
+        <v>327875000</v>
       </c>
       <c r="BB86" s="11">
-        <v>327875000</v>
+        <v>324260000</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.25">
@@ -11039,8 +11074,8 @@
       <c r="AG88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH88" s="11" t="s">
-        <v>58</v>
+      <c r="AH88" s="11">
+        <v>0</v>
       </c>
       <c r="AI88" s="11">
         <v>0</v>

--- a/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/gharn/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="80">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3330,8 +3330,8 @@
       <c r="AC11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD11" s="13" t="s">
-        <v>57</v>
+      <c r="AD11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE11" s="13" t="n">
         <v>0</v>
@@ -3366,8 +3366,8 @@
       <c r="AO11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP11" s="13" t="n">
-        <v>0</v>
+      <c r="AP11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ11" s="13" t="s">
         <v>57</v>
@@ -3417,152 +3417,152 @@
       <c r="E12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>57</v>
+      <c r="F12" s="16" t="n">
+        <v>1745</v>
       </c>
       <c r="G12" s="16" t="n">
-        <v>1745</v>
+        <v>3498</v>
       </c>
       <c r="H12" s="16" t="n">
-        <v>3498</v>
+        <v>2884</v>
       </c>
       <c r="I12" s="16" t="n">
-        <v>2884</v>
+        <v>3898</v>
       </c>
       <c r="J12" s="16" t="n">
-        <v>3898</v>
+        <v>2452</v>
       </c>
       <c r="K12" s="16" t="n">
-        <v>2452</v>
+        <v>3187</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>3187</v>
+        <v>2803</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>2803</v>
+        <v>2514</v>
       </c>
       <c r="N12" s="16" t="n">
-        <v>2514</v>
+        <v>3801</v>
       </c>
       <c r="O12" s="16" t="n">
-        <v>3801</v>
+        <v>3829</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>3829</v>
+        <v>3972</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>3972</v>
+        <v>5108</v>
       </c>
       <c r="R12" s="16" t="n">
-        <v>5108</v>
+        <v>3629</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>3629</v>
+        <v>5395</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>5395</v>
+        <v>4741</v>
       </c>
       <c r="U12" s="16" t="n">
-        <v>4741</v>
+        <v>5003</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>5003</v>
+        <v>4441</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>4441</v>
+        <v>3227</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>3227</v>
+        <v>4038</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>4038</v>
+        <v>5117</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>5117</v>
+        <v>6377</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>6377</v>
+        <v>6970</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>6970</v>
+        <v>3508</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>3508</v>
+        <v>5201</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>5201</v>
+        <v>2219</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>2219</v>
+        <v>2061</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>2061</v>
+        <v>2726</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>2726</v>
+        <v>5507</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>5507</v>
+        <v>4011</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>4011</v>
+        <v>4579</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>4579</v>
+        <v>3298</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>3298</v>
+        <v>2788</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>2788</v>
+        <v>2869</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>2869</v>
+        <v>2727</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>2727</v>
+        <v>4657</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>4657</v>
+        <v>3661</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>3661</v>
+        <v>1798</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>1798</v>
+        <v>2509</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>2509</v>
+        <v>4262</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>4262</v>
+        <v>3811</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>3811</v>
+        <v>3928</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>3928</v>
+        <v>4555</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>4555</v>
+        <v>3266</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>3266</v>
+        <v>3588</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>3588</v>
+        <v>3891</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>3891</v>
+        <v>3887</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>3887</v>
+        <v>5669</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>5669</v>
+        <v>4195</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>4195</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,152 +3576,152 @@
       <c r="E13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>57</v>
+      <c r="F13" s="13" t="n">
+        <v>2242</v>
       </c>
       <c r="G13" s="13" t="n">
-        <v>2242</v>
+        <v>4250</v>
       </c>
       <c r="H13" s="13" t="n">
-        <v>4250</v>
+        <v>2863</v>
       </c>
       <c r="I13" s="13" t="n">
-        <v>2863</v>
+        <v>4800</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>4800</v>
+        <v>3613</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>3613</v>
+        <v>4665</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>4665</v>
+        <v>3321</v>
       </c>
       <c r="M13" s="13" t="n">
-        <v>3321</v>
+        <v>2946</v>
       </c>
       <c r="N13" s="13" t="n">
-        <v>2946</v>
+        <v>3813</v>
       </c>
       <c r="O13" s="13" t="n">
-        <v>3813</v>
+        <v>4920</v>
       </c>
       <c r="P13" s="13" t="n">
-        <v>4920</v>
+        <v>5229</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>5229</v>
+        <v>4494</v>
       </c>
       <c r="R13" s="13" t="n">
-        <v>4494</v>
+        <v>3002</v>
       </c>
       <c r="S13" s="13" t="n">
-        <v>3002</v>
+        <v>4738</v>
       </c>
       <c r="T13" s="13" t="n">
-        <v>4738</v>
+        <v>3318</v>
       </c>
       <c r="U13" s="13" t="n">
-        <v>3318</v>
+        <v>3965</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>3965</v>
+        <v>2649</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2649</v>
+        <v>4152</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>4152</v>
+        <v>3219</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>3219</v>
+        <v>4166</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>4166</v>
+        <v>5144</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>5144</v>
+        <v>5700</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>5700</v>
+        <v>3767</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>3767</v>
+        <v>5500</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>5500</v>
+        <v>2838</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>2838</v>
+        <v>885</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>885</v>
+        <v>3309</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>3309</v>
+        <v>5341</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>5341</v>
+        <v>3657</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>3657</v>
+        <v>4860</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>4860</v>
+        <v>3183</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>3183</v>
+        <v>3651</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>3651</v>
+        <v>4748</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>4748</v>
+        <v>4251</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>4251</v>
+        <v>5069</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>5069</v>
+        <v>4555</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>4555</v>
+        <v>2354</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>2354</v>
+        <v>3415</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>3415</v>
+        <v>5170</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>5170</v>
+        <v>5489</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>5489</v>
+        <v>5494</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>5494</v>
+        <v>5571</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>5571</v>
+        <v>4921</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>4921</v>
+        <v>6802</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>6802</v>
+        <v>6652</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>6652</v>
+        <v>7428</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>7428</v>
+        <v>8904</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>8904</v>
+        <v>6531</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>6531</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,152 +3735,152 @@
       <c r="E14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>57</v>
+      <c r="F14" s="16" t="n">
+        <v>1838</v>
       </c>
       <c r="G14" s="16" t="n">
-        <v>1838</v>
+        <v>3469</v>
       </c>
       <c r="H14" s="16" t="n">
-        <v>3469</v>
+        <v>2743</v>
       </c>
       <c r="I14" s="16" t="n">
-        <v>2743</v>
+        <v>3519</v>
       </c>
       <c r="J14" s="16" t="n">
-        <v>3519</v>
+        <v>2665</v>
       </c>
       <c r="K14" s="16" t="n">
-        <v>2665</v>
+        <v>3141</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>3141</v>
+        <v>2877</v>
       </c>
       <c r="M14" s="16" t="n">
-        <v>2877</v>
+        <v>2278</v>
       </c>
       <c r="N14" s="16" t="n">
-        <v>2278</v>
+        <v>3015</v>
       </c>
       <c r="O14" s="16" t="n">
-        <v>3015</v>
+        <v>4016</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>4016</v>
+        <v>4010</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>4010</v>
+        <v>3544</v>
       </c>
       <c r="R14" s="16" t="n">
-        <v>3544</v>
+        <v>1584</v>
       </c>
       <c r="S14" s="16" t="n">
-        <v>1584</v>
+        <v>3328</v>
       </c>
       <c r="T14" s="16" t="n">
-        <v>3328</v>
+        <v>3107</v>
       </c>
       <c r="U14" s="16" t="n">
-        <v>3107</v>
+        <v>4240</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>4240</v>
+        <v>2713</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>2713</v>
+        <v>2941</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>2941</v>
+        <v>2879</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>2879</v>
+        <v>3392</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>3392</v>
+        <v>4575</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>4575</v>
+        <v>5244</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>5244</v>
+        <v>5692</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>5692</v>
+        <v>5317</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>5317</v>
+        <v>2424</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>2424</v>
+        <v>2852</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>2852</v>
+        <v>3738</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>3738</v>
+        <v>4833</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>4833</v>
+        <v>4126</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>4126</v>
+        <v>5335</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>5335</v>
+        <v>4371</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>4371</v>
+        <v>4164</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>4164</v>
+        <v>3631</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>3631</v>
+        <v>3673</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>3673</v>
+        <v>5490</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>5490</v>
+        <v>4234</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>4234</v>
+        <v>2384</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>2384</v>
+        <v>3547</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>3547</v>
+        <v>4053</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>4053</v>
+        <v>4193</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>4193</v>
+        <v>4611</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>4611</v>
+        <v>4703</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>4703</v>
+        <v>3902</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>3902</v>
+        <v>5535</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>5535</v>
+        <v>5618</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>5618</v>
+        <v>5087</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>5087</v>
+        <v>6711</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>6711</v>
+        <v>4861</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>4861</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,11 +4062,11 @@
       <c r="AP16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR16" s="13" t="n">
-        <v>0</v>
+      <c r="AQ16" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS16" s="13" t="s">
         <v>57</v>
@@ -4153,8 +4153,8 @@
       <c r="T17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U17" s="18" t="s">
-        <v>57</v>
+      <c r="U17" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="18" t="n">
         <v>0</v>
@@ -4266,151 +4266,151 @@
         <v>0</v>
       </c>
       <c r="F18" s="20" t="n">
-        <v>0</v>
+        <v>5825</v>
       </c>
       <c r="G18" s="20" t="n">
-        <v>5825</v>
+        <v>11217</v>
       </c>
       <c r="H18" s="20" t="n">
-        <v>11217</v>
+        <v>8490</v>
       </c>
       <c r="I18" s="20" t="n">
-        <v>8490</v>
+        <v>12217</v>
       </c>
       <c r="J18" s="20" t="n">
-        <v>12217</v>
+        <v>8730</v>
       </c>
       <c r="K18" s="20" t="n">
-        <v>8730</v>
+        <v>10993</v>
       </c>
       <c r="L18" s="20" t="n">
-        <v>10993</v>
+        <v>9001</v>
       </c>
       <c r="M18" s="20" t="n">
-        <v>9001</v>
+        <v>7738</v>
       </c>
       <c r="N18" s="20" t="n">
-        <v>7738</v>
+        <v>10629</v>
       </c>
       <c r="O18" s="20" t="n">
-        <v>10629</v>
+        <v>12765</v>
       </c>
       <c r="P18" s="20" t="n">
-        <v>12765</v>
+        <v>13211</v>
       </c>
       <c r="Q18" s="20" t="n">
-        <v>13211</v>
+        <v>13146</v>
       </c>
       <c r="R18" s="20" t="n">
-        <v>13146</v>
+        <v>8215</v>
       </c>
       <c r="S18" s="20" t="n">
-        <v>8215</v>
+        <v>13461</v>
       </c>
       <c r="T18" s="20" t="n">
-        <v>13461</v>
+        <v>11166</v>
       </c>
       <c r="U18" s="20" t="n">
-        <v>11166</v>
+        <v>13208</v>
       </c>
       <c r="V18" s="20" t="n">
-        <v>13208</v>
+        <v>9803</v>
       </c>
       <c r="W18" s="20" t="n">
-        <v>9803</v>
+        <v>10320</v>
       </c>
       <c r="X18" s="20" t="n">
-        <v>10320</v>
+        <v>10136</v>
       </c>
       <c r="Y18" s="20" t="n">
-        <v>10136</v>
+        <v>12675</v>
       </c>
       <c r="Z18" s="20" t="n">
-        <v>12675</v>
+        <v>16096</v>
       </c>
       <c r="AA18" s="20" t="n">
-        <v>16096</v>
+        <v>17914</v>
       </c>
       <c r="AB18" s="20" t="n">
-        <v>17914</v>
+        <v>12967</v>
       </c>
       <c r="AC18" s="20" t="n">
-        <v>12967</v>
+        <v>16018</v>
       </c>
       <c r="AD18" s="20" t="n">
-        <v>16018</v>
+        <v>7481</v>
       </c>
       <c r="AE18" s="20" t="n">
-        <v>7481</v>
+        <v>5798</v>
       </c>
       <c r="AF18" s="20" t="n">
-        <v>5798</v>
+        <v>9773</v>
       </c>
       <c r="AG18" s="20" t="n">
-        <v>9773</v>
+        <v>15681</v>
       </c>
       <c r="AH18" s="20" t="n">
-        <v>15681</v>
+        <v>11794</v>
       </c>
       <c r="AI18" s="20" t="n">
-        <v>11794</v>
+        <v>14774</v>
       </c>
       <c r="AJ18" s="20" t="n">
-        <v>14774</v>
+        <v>10852</v>
       </c>
       <c r="AK18" s="20" t="n">
-        <v>10852</v>
+        <v>10603</v>
       </c>
       <c r="AL18" s="20" t="n">
-        <v>10603</v>
+        <v>11248</v>
       </c>
       <c r="AM18" s="20" t="n">
-        <v>11248</v>
+        <v>10651</v>
       </c>
       <c r="AN18" s="20" t="n">
-        <v>10651</v>
+        <v>15216</v>
       </c>
       <c r="AO18" s="20" t="n">
-        <v>15216</v>
+        <v>12450</v>
       </c>
       <c r="AP18" s="20" t="n">
-        <v>12450</v>
+        <v>6536</v>
       </c>
       <c r="AQ18" s="20" t="n">
-        <v>6536</v>
+        <v>9471</v>
       </c>
       <c r="AR18" s="20" t="n">
-        <v>9471</v>
+        <v>13485</v>
       </c>
       <c r="AS18" s="20" t="n">
-        <v>13485</v>
+        <v>13493</v>
       </c>
       <c r="AT18" s="20" t="n">
-        <v>13493</v>
+        <v>14033</v>
       </c>
       <c r="AU18" s="20" t="n">
-        <v>14033</v>
+        <v>14829</v>
       </c>
       <c r="AV18" s="20" t="n">
-        <v>14829</v>
+        <v>12089</v>
       </c>
       <c r="AW18" s="20" t="n">
-        <v>12089</v>
+        <v>15925</v>
       </c>
       <c r="AX18" s="20" t="n">
-        <v>15925</v>
+        <v>16161</v>
       </c>
       <c r="AY18" s="20" t="n">
-        <v>16161</v>
+        <v>16402</v>
       </c>
       <c r="AZ18" s="20" t="n">
-        <v>16402</v>
+        <v>21284</v>
       </c>
       <c r="BA18" s="20" t="n">
-        <v>21284</v>
+        <v>15587</v>
       </c>
       <c r="BB18" s="20" t="n">
-        <v>15587</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4930,8 +4930,8 @@
       <c r="AC25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD25" s="13" t="s">
-        <v>57</v>
+      <c r="AD25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE25" s="13" t="n">
         <v>0</v>
@@ -4966,8 +4966,8 @@
       <c r="AO25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP25" s="13" t="n">
-        <v>0</v>
+      <c r="AP25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ25" s="13" t="s">
         <v>57</v>
@@ -5017,152 +5017,152 @@
       <c r="E26" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="16" t="s">
-        <v>57</v>
+      <c r="F26" s="16" t="n">
+        <v>1716</v>
       </c>
       <c r="G26" s="16" t="n">
-        <v>1716</v>
+        <v>3527</v>
       </c>
       <c r="H26" s="16" t="n">
-        <v>3527</v>
+        <v>2654</v>
       </c>
       <c r="I26" s="16" t="n">
-        <v>2654</v>
+        <v>3608</v>
       </c>
       <c r="J26" s="16" t="n">
-        <v>3608</v>
+        <v>2317</v>
       </c>
       <c r="K26" s="16" t="n">
-        <v>2317</v>
+        <v>4004</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>4004</v>
+        <v>1796</v>
       </c>
       <c r="M26" s="16" t="n">
-        <v>1796</v>
+        <v>2188</v>
       </c>
       <c r="N26" s="16" t="n">
-        <v>2188</v>
+        <v>3762</v>
       </c>
       <c r="O26" s="16" t="n">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="P26" s="16" t="n">
-        <v>3760</v>
+        <v>3851</v>
       </c>
       <c r="Q26" s="16" t="n">
-        <v>3851</v>
+        <v>5171</v>
       </c>
       <c r="R26" s="16" t="n">
-        <v>5171</v>
+        <v>3977</v>
       </c>
       <c r="S26" s="16" t="n">
-        <v>3977</v>
+        <v>4984</v>
       </c>
       <c r="T26" s="16" t="n">
-        <v>4984</v>
+        <v>4224</v>
       </c>
       <c r="U26" s="16" t="n">
-        <v>4224</v>
+        <v>5034</v>
       </c>
       <c r="V26" s="16" t="n">
-        <v>5034</v>
+        <v>4877</v>
       </c>
       <c r="W26" s="16" t="n">
-        <v>4877</v>
+        <v>3557</v>
       </c>
       <c r="X26" s="16" t="n">
-        <v>3557</v>
+        <v>4026</v>
       </c>
       <c r="Y26" s="16" t="n">
-        <v>4026</v>
+        <v>4801</v>
       </c>
       <c r="Z26" s="16" t="n">
-        <v>4801</v>
+        <v>5835</v>
       </c>
       <c r="AA26" s="16" t="n">
-        <v>5835</v>
+        <v>6862</v>
       </c>
       <c r="AB26" s="16" t="n">
-        <v>6862</v>
+        <v>4729</v>
       </c>
       <c r="AC26" s="16" t="n">
-        <v>4729</v>
+        <v>5003</v>
       </c>
       <c r="AD26" s="16" t="n">
-        <v>5003</v>
+        <v>1229</v>
       </c>
       <c r="AE26" s="16" t="n">
-        <v>1229</v>
+        <v>3209</v>
       </c>
       <c r="AF26" s="16" t="n">
-        <v>3209</v>
+        <v>2622</v>
       </c>
       <c r="AG26" s="16" t="n">
-        <v>2622</v>
+        <v>4951</v>
       </c>
       <c r="AH26" s="16" t="n">
-        <v>4951</v>
+        <v>4018</v>
       </c>
       <c r="AI26" s="16" t="n">
-        <v>4018</v>
+        <v>4622</v>
       </c>
       <c r="AJ26" s="16" t="n">
-        <v>4622</v>
+        <v>2864</v>
       </c>
       <c r="AK26" s="16" t="n">
-        <v>2864</v>
+        <v>3616</v>
       </c>
       <c r="AL26" s="16" t="n">
-        <v>3616</v>
+        <v>2417</v>
       </c>
       <c r="AM26" s="16" t="n">
-        <v>2417</v>
+        <v>3486</v>
       </c>
       <c r="AN26" s="16" t="n">
-        <v>3486</v>
+        <v>3976</v>
       </c>
       <c r="AO26" s="16" t="n">
-        <v>3976</v>
+        <v>4358</v>
       </c>
       <c r="AP26" s="16" t="n">
-        <v>4358</v>
+        <v>1443</v>
       </c>
       <c r="AQ26" s="16" t="n">
-        <v>1443</v>
+        <v>2759</v>
       </c>
       <c r="AR26" s="16" t="n">
-        <v>2759</v>
+        <v>3575</v>
       </c>
       <c r="AS26" s="16" t="n">
-        <v>3575</v>
+        <v>3514</v>
       </c>
       <c r="AT26" s="16" t="n">
-        <v>3514</v>
+        <v>4116</v>
       </c>
       <c r="AU26" s="16" t="n">
-        <v>4116</v>
+        <v>4003</v>
       </c>
       <c r="AV26" s="16" t="n">
-        <v>4003</v>
+        <v>3202</v>
       </c>
       <c r="AW26" s="16" t="n">
-        <v>3202</v>
+        <v>4035</v>
       </c>
       <c r="AX26" s="16" t="n">
-        <v>4035</v>
+        <v>3572</v>
       </c>
       <c r="AY26" s="16" t="n">
-        <v>3572</v>
+        <v>4573</v>
       </c>
       <c r="AZ26" s="16" t="n">
-        <v>4573</v>
+        <v>5694</v>
       </c>
       <c r="BA26" s="16" t="n">
-        <v>5694</v>
+        <v>4341</v>
       </c>
       <c r="BB26" s="16" t="n">
-        <v>4341</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,152 +5176,152 @@
       <c r="E27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>57</v>
+      <c r="F27" s="13" t="n">
+        <v>1980</v>
       </c>
       <c r="G27" s="13" t="n">
-        <v>1980</v>
+        <v>3784</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>3784</v>
+        <v>3314</v>
       </c>
       <c r="I27" s="13" t="n">
-        <v>3314</v>
+        <v>4337</v>
       </c>
       <c r="J27" s="13" t="n">
-        <v>4337</v>
+        <v>3362</v>
       </c>
       <c r="K27" s="13" t="n">
-        <v>3362</v>
+        <v>5284</v>
       </c>
       <c r="L27" s="13" t="n">
-        <v>5284</v>
+        <v>2702</v>
       </c>
       <c r="M27" s="13" t="n">
-        <v>2702</v>
+        <v>2593</v>
       </c>
       <c r="N27" s="13" t="n">
-        <v>2593</v>
+        <v>3706</v>
       </c>
       <c r="O27" s="13" t="n">
-        <v>3706</v>
+        <v>3763</v>
       </c>
       <c r="P27" s="13" t="n">
-        <v>3763</v>
+        <v>4919</v>
       </c>
       <c r="Q27" s="13" t="n">
-        <v>4919</v>
+        <v>4952</v>
       </c>
       <c r="R27" s="13" t="n">
-        <v>4952</v>
+        <v>2617</v>
       </c>
       <c r="S27" s="13" t="n">
-        <v>2617</v>
+        <v>4245</v>
       </c>
       <c r="T27" s="13" t="n">
-        <v>4245</v>
+        <v>3978</v>
       </c>
       <c r="U27" s="13" t="n">
-        <v>3978</v>
+        <v>3405</v>
       </c>
       <c r="V27" s="13" t="n">
-        <v>3405</v>
+        <v>3243</v>
       </c>
       <c r="W27" s="13" t="n">
-        <v>3243</v>
+        <v>4240</v>
       </c>
       <c r="X27" s="13" t="n">
-        <v>4240</v>
+        <v>3889</v>
       </c>
       <c r="Y27" s="13" t="n">
-        <v>3889</v>
+        <v>4270</v>
       </c>
       <c r="Z27" s="13" t="n">
-        <v>4270</v>
+        <v>4419</v>
       </c>
       <c r="AA27" s="13" t="n">
-        <v>4419</v>
+        <v>5310</v>
       </c>
       <c r="AB27" s="13" t="n">
-        <v>5310</v>
+        <v>4881</v>
       </c>
       <c r="AC27" s="13" t="n">
-        <v>4881</v>
+        <v>5085</v>
       </c>
       <c r="AD27" s="13" t="n">
-        <v>5085</v>
+        <v>1964</v>
       </c>
       <c r="AE27" s="13" t="n">
-        <v>1964</v>
+        <v>2387</v>
       </c>
       <c r="AF27" s="13" t="n">
-        <v>2387</v>
+        <v>2819</v>
       </c>
       <c r="AG27" s="13" t="n">
-        <v>2819</v>
+        <v>4689</v>
       </c>
       <c r="AH27" s="13" t="n">
-        <v>4689</v>
+        <v>4046</v>
       </c>
       <c r="AI27" s="13" t="n">
-        <v>4046</v>
+        <v>4119</v>
       </c>
       <c r="AJ27" s="13" t="n">
-        <v>4119</v>
+        <v>2911</v>
       </c>
       <c r="AK27" s="13" t="n">
-        <v>2911</v>
+        <v>4283</v>
       </c>
       <c r="AL27" s="13" t="n">
-        <v>4283</v>
+        <v>3815</v>
       </c>
       <c r="AM27" s="13" t="n">
-        <v>3815</v>
+        <v>4067</v>
       </c>
       <c r="AN27" s="13" t="n">
-        <v>4067</v>
+        <v>4856</v>
       </c>
       <c r="AO27" s="13" t="n">
-        <v>4856</v>
+        <v>5742</v>
       </c>
       <c r="AP27" s="13" t="n">
-        <v>5742</v>
+        <v>2260</v>
       </c>
       <c r="AQ27" s="13" t="n">
-        <v>2260</v>
+        <v>3802</v>
       </c>
       <c r="AR27" s="13" t="n">
-        <v>3802</v>
+        <v>4249</v>
       </c>
       <c r="AS27" s="13" t="n">
-        <v>4249</v>
+        <v>5729</v>
       </c>
       <c r="AT27" s="13" t="n">
-        <v>5729</v>
+        <v>5801</v>
       </c>
       <c r="AU27" s="13" t="n">
-        <v>5801</v>
+        <v>5440</v>
       </c>
       <c r="AV27" s="13" t="n">
-        <v>5440</v>
+        <v>4767</v>
       </c>
       <c r="AW27" s="13" t="n">
-        <v>4767</v>
+        <v>6226</v>
       </c>
       <c r="AX27" s="13" t="n">
-        <v>6226</v>
+        <v>5990</v>
       </c>
       <c r="AY27" s="13" t="n">
-        <v>5990</v>
+        <v>7676</v>
       </c>
       <c r="AZ27" s="13" t="n">
-        <v>7676</v>
+        <v>9237</v>
       </c>
       <c r="BA27" s="13" t="n">
-        <v>9237</v>
+        <v>7272</v>
       </c>
       <c r="BB27" s="13" t="n">
-        <v>7272</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5335,152 +5335,152 @@
       <c r="E28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>57</v>
+      <c r="F28" s="16" t="n">
+        <v>1586</v>
       </c>
       <c r="G28" s="16" t="n">
-        <v>1586</v>
+        <v>3435</v>
       </c>
       <c r="H28" s="16" t="n">
-        <v>3435</v>
+        <v>2882</v>
       </c>
       <c r="I28" s="16" t="n">
-        <v>2882</v>
+        <v>3183</v>
       </c>
       <c r="J28" s="16" t="n">
-        <v>3183</v>
+        <v>2648</v>
       </c>
       <c r="K28" s="16" t="n">
-        <v>2648</v>
+        <v>3361</v>
       </c>
       <c r="L28" s="16" t="n">
-        <v>3361</v>
+        <v>2641</v>
       </c>
       <c r="M28" s="16" t="n">
-        <v>2641</v>
+        <v>2172</v>
       </c>
       <c r="N28" s="16" t="n">
-        <v>2172</v>
+        <v>2861</v>
       </c>
       <c r="O28" s="16" t="n">
-        <v>2861</v>
+        <v>3195</v>
       </c>
       <c r="P28" s="16" t="n">
-        <v>3195</v>
+        <v>4375</v>
       </c>
       <c r="Q28" s="16" t="n">
-        <v>4375</v>
+        <v>4291</v>
       </c>
       <c r="R28" s="16" t="n">
-        <v>4291</v>
+        <v>1456</v>
       </c>
       <c r="S28" s="16" t="n">
-        <v>1456</v>
+        <v>3241</v>
       </c>
       <c r="T28" s="16" t="n">
-        <v>3241</v>
+        <v>3053</v>
       </c>
       <c r="U28" s="16" t="n">
-        <v>3053</v>
+        <v>4004</v>
       </c>
       <c r="V28" s="16" t="n">
-        <v>4004</v>
+        <v>2870</v>
       </c>
       <c r="W28" s="16" t="n">
-        <v>2870</v>
+        <v>2962</v>
       </c>
       <c r="X28" s="16" t="n">
-        <v>2962</v>
+        <v>3071</v>
       </c>
       <c r="Y28" s="16" t="n">
-        <v>3071</v>
+        <v>3060</v>
       </c>
       <c r="Z28" s="16" t="n">
-        <v>3060</v>
+        <v>4189</v>
       </c>
       <c r="AA28" s="16" t="n">
-        <v>4189</v>
+        <v>4784</v>
       </c>
       <c r="AB28" s="16" t="n">
-        <v>4784</v>
+        <v>5942</v>
       </c>
       <c r="AC28" s="16" t="n">
-        <v>5942</v>
+        <v>4396</v>
       </c>
       <c r="AD28" s="16" t="n">
-        <v>4396</v>
+        <v>2234</v>
       </c>
       <c r="AE28" s="16" t="n">
-        <v>2234</v>
+        <v>3022</v>
       </c>
       <c r="AF28" s="16" t="n">
-        <v>3022</v>
+        <v>3188</v>
       </c>
       <c r="AG28" s="16" t="n">
-        <v>3188</v>
+        <v>4675</v>
       </c>
       <c r="AH28" s="16" t="n">
-        <v>4675</v>
+        <v>3717</v>
       </c>
       <c r="AI28" s="16" t="n">
-        <v>3717</v>
+        <v>5361</v>
       </c>
       <c r="AJ28" s="16" t="n">
-        <v>5361</v>
+        <v>4043</v>
       </c>
       <c r="AK28" s="16" t="n">
-        <v>4043</v>
+        <v>4110</v>
       </c>
       <c r="AL28" s="16" t="n">
-        <v>4110</v>
+        <v>3353</v>
       </c>
       <c r="AM28" s="16" t="n">
-        <v>3353</v>
+        <v>4250</v>
       </c>
       <c r="AN28" s="16" t="n">
-        <v>4250</v>
+        <v>5181</v>
       </c>
       <c r="AO28" s="16" t="n">
-        <v>5181</v>
+        <v>5218</v>
       </c>
       <c r="AP28" s="16" t="n">
-        <v>5218</v>
+        <v>1848</v>
       </c>
       <c r="AQ28" s="16" t="n">
-        <v>1848</v>
+        <v>3694</v>
       </c>
       <c r="AR28" s="16" t="n">
-        <v>3694</v>
+        <v>3630</v>
       </c>
       <c r="AS28" s="16" t="n">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="AT28" s="16" t="n">
-        <v>4206</v>
+        <v>4837</v>
       </c>
       <c r="AU28" s="16" t="n">
-        <v>4837</v>
+        <v>4461</v>
       </c>
       <c r="AV28" s="16" t="n">
-        <v>4461</v>
+        <v>3932</v>
       </c>
       <c r="AW28" s="16" t="n">
-        <v>3932</v>
+        <v>5276</v>
       </c>
       <c r="AX28" s="16" t="n">
-        <v>5276</v>
+        <v>5034</v>
       </c>
       <c r="AY28" s="16" t="n">
-        <v>5034</v>
+        <v>5337</v>
       </c>
       <c r="AZ28" s="16" t="n">
-        <v>5337</v>
+        <v>7521</v>
       </c>
       <c r="BA28" s="16" t="n">
-        <v>7521</v>
+        <v>4977</v>
       </c>
       <c r="BB28" s="16" t="n">
-        <v>4977</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,11 +5662,11 @@
       <c r="AP30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR30" s="13" t="n">
-        <v>0</v>
+      <c r="AQ30" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AS30" s="13" t="s">
         <v>57</v>
@@ -5753,8 +5753,8 @@
       <c r="T31" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U31" s="18" t="s">
-        <v>57</v>
+      <c r="U31" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="18" t="n">
         <v>0</v>
@@ -5967,8 +5967,8 @@
       <c r="T33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U33" s="20" t="s">
-        <v>57</v>
+      <c r="U33" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="20" t="n">
         <v>0</v>
@@ -6080,151 +6080,151 @@
         <v>0</v>
       </c>
       <c r="F34" s="18" t="n">
-        <v>0</v>
+        <v>5282</v>
       </c>
       <c r="G34" s="18" t="n">
-        <v>5282</v>
+        <v>10746</v>
       </c>
       <c r="H34" s="18" t="n">
-        <v>10746</v>
+        <v>8850</v>
       </c>
       <c r="I34" s="18" t="n">
-        <v>8850</v>
+        <v>11128</v>
       </c>
       <c r="J34" s="18" t="n">
-        <v>11128</v>
+        <v>8327</v>
       </c>
       <c r="K34" s="18" t="n">
-        <v>8327</v>
+        <v>12649</v>
       </c>
       <c r="L34" s="18" t="n">
-        <v>12649</v>
+        <v>7139</v>
       </c>
       <c r="M34" s="18" t="n">
-        <v>7139</v>
+        <v>6953</v>
       </c>
       <c r="N34" s="18" t="n">
-        <v>6953</v>
+        <v>10329</v>
       </c>
       <c r="O34" s="18" t="n">
-        <v>10329</v>
+        <v>10718</v>
       </c>
       <c r="P34" s="18" t="n">
-        <v>10718</v>
+        <v>13145</v>
       </c>
       <c r="Q34" s="18" t="n">
-        <v>13145</v>
+        <v>14414</v>
       </c>
       <c r="R34" s="18" t="n">
-        <v>14414</v>
+        <v>8050</v>
       </c>
       <c r="S34" s="18" t="n">
-        <v>8050</v>
+        <v>12470</v>
       </c>
       <c r="T34" s="18" t="n">
-        <v>12470</v>
+        <v>11255</v>
       </c>
       <c r="U34" s="18" t="n">
-        <v>11255</v>
+        <v>12443</v>
       </c>
       <c r="V34" s="18" t="n">
-        <v>12443</v>
+        <v>10990</v>
       </c>
       <c r="W34" s="18" t="n">
-        <v>10990</v>
+        <v>10759</v>
       </c>
       <c r="X34" s="18" t="n">
-        <v>10759</v>
+        <v>10986</v>
       </c>
       <c r="Y34" s="18" t="n">
-        <v>10986</v>
+        <v>12131</v>
       </c>
       <c r="Z34" s="18" t="n">
-        <v>12131</v>
+        <v>14443</v>
       </c>
       <c r="AA34" s="18" t="n">
-        <v>14443</v>
+        <v>16956</v>
       </c>
       <c r="AB34" s="18" t="n">
-        <v>16956</v>
+        <v>15552</v>
       </c>
       <c r="AC34" s="18" t="n">
-        <v>15552</v>
+        <v>14484</v>
       </c>
       <c r="AD34" s="18" t="n">
-        <v>14484</v>
+        <v>5427</v>
       </c>
       <c r="AE34" s="18" t="n">
-        <v>5427</v>
+        <v>8618</v>
       </c>
       <c r="AF34" s="18" t="n">
-        <v>8618</v>
+        <v>8629</v>
       </c>
       <c r="AG34" s="18" t="n">
-        <v>8629</v>
+        <v>14315</v>
       </c>
       <c r="AH34" s="18" t="n">
-        <v>14315</v>
+        <v>11781</v>
       </c>
       <c r="AI34" s="18" t="n">
-        <v>11781</v>
+        <v>14102</v>
       </c>
       <c r="AJ34" s="18" t="n">
-        <v>14102</v>
+        <v>9818</v>
       </c>
       <c r="AK34" s="18" t="n">
-        <v>9818</v>
+        <v>12009</v>
       </c>
       <c r="AL34" s="18" t="n">
-        <v>12009</v>
+        <v>9585</v>
       </c>
       <c r="AM34" s="18" t="n">
-        <v>9585</v>
+        <v>11803</v>
       </c>
       <c r="AN34" s="18" t="n">
-        <v>11803</v>
+        <v>14013</v>
       </c>
       <c r="AO34" s="18" t="n">
-        <v>14013</v>
+        <v>15318</v>
       </c>
       <c r="AP34" s="18" t="n">
-        <v>15318</v>
+        <v>5551</v>
       </c>
       <c r="AQ34" s="18" t="n">
-        <v>5551</v>
+        <v>10255</v>
       </c>
       <c r="AR34" s="18" t="n">
-        <v>10255</v>
+        <v>11454</v>
       </c>
       <c r="AS34" s="18" t="n">
-        <v>11454</v>
+        <v>13449</v>
       </c>
       <c r="AT34" s="18" t="n">
-        <v>13449</v>
+        <v>14754</v>
       </c>
       <c r="AU34" s="18" t="n">
-        <v>14754</v>
+        <v>13904</v>
       </c>
       <c r="AV34" s="18" t="n">
-        <v>13904</v>
+        <v>11901</v>
       </c>
       <c r="AW34" s="18" t="n">
-        <v>11901</v>
+        <v>15537</v>
       </c>
       <c r="AX34" s="18" t="n">
-        <v>15537</v>
+        <v>14596</v>
       </c>
       <c r="AY34" s="18" t="n">
-        <v>14596</v>
+        <v>17586</v>
       </c>
       <c r="AZ34" s="18" t="n">
-        <v>17586</v>
+        <v>22452</v>
       </c>
       <c r="BA34" s="18" t="n">
-        <v>22452</v>
+        <v>16590</v>
       </c>
       <c r="BB34" s="18" t="n">
-        <v>16590</v>
+        <v>9127</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6744,8 +6744,8 @@
       <c r="AC41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD41" s="13" t="s">
-        <v>57</v>
+      <c r="AD41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE41" s="13" t="n">
         <v>0</v>
@@ -6780,8 +6780,8 @@
       <c r="AO41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP41" s="13" t="n">
-        <v>0</v>
+      <c r="AP41" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ41" s="13" t="s">
         <v>57</v>
@@ -6831,152 +6831,152 @@
       <c r="E42" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>57</v>
+      <c r="F42" s="16" t="n">
+        <v>146301</v>
       </c>
       <c r="G42" s="16" t="n">
-        <v>146301</v>
+        <v>306687</v>
       </c>
       <c r="H42" s="16" t="n">
-        <v>306687</v>
+        <v>265735</v>
       </c>
       <c r="I42" s="16" t="n">
-        <v>265735</v>
+        <v>377182</v>
       </c>
       <c r="J42" s="16" t="n">
-        <v>377182</v>
+        <v>272335</v>
       </c>
       <c r="K42" s="16" t="n">
-        <v>272335</v>
+        <v>478398</v>
       </c>
       <c r="L42" s="16" t="n">
-        <v>478398</v>
+        <v>210428</v>
       </c>
       <c r="M42" s="16" t="n">
-        <v>210428</v>
+        <v>240205</v>
       </c>
       <c r="N42" s="16" t="n">
-        <v>240205</v>
+        <v>403712</v>
       </c>
       <c r="O42" s="16" t="n">
-        <v>403712</v>
+        <v>382531</v>
       </c>
       <c r="P42" s="16" t="n">
-        <v>382531</v>
+        <v>410833</v>
       </c>
       <c r="Q42" s="16" t="n">
-        <v>410833</v>
+        <v>564386</v>
       </c>
       <c r="R42" s="16" t="n">
-        <v>564386</v>
+        <v>437522</v>
       </c>
       <c r="S42" s="16" t="n">
-        <v>437522</v>
+        <v>550411</v>
       </c>
       <c r="T42" s="16" t="n">
-        <v>550411</v>
+        <v>444026</v>
       </c>
       <c r="U42" s="16" t="n">
-        <v>444026</v>
+        <v>618197</v>
       </c>
       <c r="V42" s="16" t="n">
-        <v>618197</v>
+        <v>599851</v>
       </c>
       <c r="W42" s="16" t="n">
-        <v>599851</v>
+        <v>539514</v>
       </c>
       <c r="X42" s="16" t="n">
-        <v>539514</v>
+        <v>535115</v>
       </c>
       <c r="Y42" s="16" t="n">
-        <v>535115</v>
+        <v>762474</v>
       </c>
       <c r="Z42" s="16" t="n">
-        <v>762474</v>
+        <v>934493</v>
       </c>
       <c r="AA42" s="16" t="n">
-        <v>934493</v>
+        <v>1210523</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>1210523</v>
+        <v>792902</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>792902</v>
+        <v>862481</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>862481</v>
+        <v>233832</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>233832</v>
+        <v>638333</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>638333</v>
+        <v>600740</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>600740</v>
+        <v>1088330</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>1088330</v>
+        <v>965245</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>965245</v>
+        <v>1193147</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>1193147</v>
+        <v>695002</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>695002</v>
+        <v>879595</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>879595</v>
+        <v>629709</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>629709</v>
+        <v>860015</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>860015</v>
+        <v>883686</v>
       </c>
       <c r="AO42" s="16" t="n">
-        <v>883686</v>
+        <v>1015387</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>1015387</v>
+        <v>400503</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>400503</v>
+        <v>746962</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>746962</v>
+        <v>1104795</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>1104795</v>
+        <v>1190930</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>1190930</v>
+        <v>1300616</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>1300616</v>
+        <v>1225846</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>1225846</v>
+        <v>1085885</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>1085885</v>
+        <v>1434059</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>1434059</v>
+        <v>1293919</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>1293919</v>
+        <v>1516770</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>1516770</v>
+        <v>1837564</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>1837564</v>
+        <v>1277443</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>1277443</v>
+        <v>889668</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,152 +6990,152 @@
       <c r="E43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="13" t="s">
-        <v>57</v>
+      <c r="F43" s="13" t="n">
+        <v>149761</v>
       </c>
       <c r="G43" s="13" t="n">
-        <v>149761</v>
+        <v>293977</v>
       </c>
       <c r="H43" s="13" t="n">
-        <v>293977</v>
+        <v>263037</v>
       </c>
       <c r="I43" s="13" t="n">
-        <v>263037</v>
+        <v>399846</v>
       </c>
       <c r="J43" s="13" t="n">
-        <v>399846</v>
+        <v>321643</v>
       </c>
       <c r="K43" s="13" t="n">
-        <v>321643</v>
+        <v>508286</v>
       </c>
       <c r="L43" s="13" t="n">
-        <v>508286</v>
+        <v>241088</v>
       </c>
       <c r="M43" s="13" t="n">
-        <v>241088</v>
+        <v>239413</v>
       </c>
       <c r="N43" s="13" t="n">
-        <v>239413</v>
+        <v>350196</v>
       </c>
       <c r="O43" s="13" t="n">
-        <v>350196</v>
+        <v>354984</v>
       </c>
       <c r="P43" s="13" t="n">
-        <v>354984</v>
+        <v>438597</v>
       </c>
       <c r="Q43" s="13" t="n">
-        <v>438597</v>
+        <v>426526</v>
       </c>
       <c r="R43" s="13" t="n">
-        <v>426526</v>
+        <v>241638</v>
       </c>
       <c r="S43" s="13" t="n">
-        <v>241638</v>
+        <v>416145</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>416145</v>
+        <v>373148</v>
       </c>
       <c r="U43" s="13" t="n">
-        <v>373148</v>
+        <v>392987</v>
       </c>
       <c r="V43" s="13" t="n">
-        <v>392987</v>
+        <v>369450</v>
       </c>
       <c r="W43" s="13" t="n">
-        <v>369450</v>
+        <v>517319</v>
       </c>
       <c r="X43" s="13" t="n">
-        <v>517319</v>
+        <v>489695</v>
       </c>
       <c r="Y43" s="13" t="n">
-        <v>489695</v>
+        <v>676661</v>
       </c>
       <c r="Z43" s="13" t="n">
-        <v>676661</v>
+        <v>701829</v>
       </c>
       <c r="AA43" s="13" t="n">
-        <v>701829</v>
+        <v>837746</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>837746</v>
+        <v>760151</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>760151</v>
+        <v>817967</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>817967</v>
+        <v>311846</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>311846</v>
+        <v>359496</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>359496</v>
+        <v>428859</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>428859</v>
+        <v>851629</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>851629</v>
+        <v>799234</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>799234</v>
+        <v>822584</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>822584</v>
+        <v>558241</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>558241</v>
+        <v>826681</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>826681</v>
+        <v>708201</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>708201</v>
+        <v>708790</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>708790</v>
+        <v>887055</v>
       </c>
       <c r="AO43" s="13" t="n">
-        <v>887055</v>
+        <v>1019647</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>1019647</v>
+        <v>448159</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>448159</v>
+        <v>800241</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>800241</v>
+        <v>953625</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>953625</v>
+        <v>1425697</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>1425697</v>
+        <v>1482757</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>1482757</v>
+        <v>1189388</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>1189388</v>
+        <v>1176802</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>1176802</v>
+        <v>1664118</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>1664118</v>
+        <v>1524083</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>1524083</v>
+        <v>1873510</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>1873510</v>
+        <v>2111175</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>2111175</v>
+        <v>1721897</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>1721897</v>
+        <v>1050936</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,152 +7149,152 @@
       <c r="E44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>57</v>
+      <c r="F44" s="16" t="n">
+        <v>83676</v>
       </c>
       <c r="G44" s="16" t="n">
-        <v>83676</v>
+        <v>164484</v>
       </c>
       <c r="H44" s="16" t="n">
-        <v>164484</v>
+        <v>143029</v>
       </c>
       <c r="I44" s="16" t="n">
-        <v>143029</v>
+        <v>180653</v>
       </c>
       <c r="J44" s="16" t="n">
-        <v>180653</v>
+        <v>156385</v>
       </c>
       <c r="K44" s="16" t="n">
-        <v>156385</v>
+        <v>230991</v>
       </c>
       <c r="L44" s="16" t="n">
-        <v>230991</v>
+        <v>141829</v>
       </c>
       <c r="M44" s="16" t="n">
-        <v>141829</v>
+        <v>109262</v>
       </c>
       <c r="N44" s="16" t="n">
-        <v>109262</v>
+        <v>170593</v>
       </c>
       <c r="O44" s="16" t="n">
-        <v>170593</v>
+        <v>185831</v>
       </c>
       <c r="P44" s="16" t="n">
-        <v>185831</v>
+        <v>256287</v>
       </c>
       <c r="Q44" s="16" t="n">
-        <v>256287</v>
+        <v>261151</v>
       </c>
       <c r="R44" s="16" t="n">
-        <v>261151</v>
+        <v>81195</v>
       </c>
       <c r="S44" s="16" t="n">
-        <v>81195</v>
+        <v>196733</v>
       </c>
       <c r="T44" s="16" t="n">
-        <v>196733</v>
+        <v>182428</v>
       </c>
       <c r="U44" s="16" t="n">
-        <v>182428</v>
+        <v>310867</v>
       </c>
       <c r="V44" s="16" t="n">
-        <v>310867</v>
+        <v>190654</v>
       </c>
       <c r="W44" s="16" t="n">
-        <v>190654</v>
+        <v>200646</v>
       </c>
       <c r="X44" s="16" t="n">
-        <v>200646</v>
+        <v>216550</v>
       </c>
       <c r="Y44" s="16" t="n">
-        <v>216550</v>
+        <v>272077</v>
       </c>
       <c r="Z44" s="16" t="n">
-        <v>272077</v>
+        <v>398527</v>
       </c>
       <c r="AA44" s="16" t="n">
-        <v>398527</v>
+        <v>471571</v>
       </c>
       <c r="AB44" s="16" t="n">
-        <v>471571</v>
+        <v>581794</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>581794</v>
+        <v>474679</v>
       </c>
       <c r="AD44" s="16" t="n">
-        <v>474679</v>
+        <v>225385</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>225385</v>
+        <v>304049</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>304049</v>
+        <v>321980</v>
       </c>
       <c r="AG44" s="16" t="n">
-        <v>321980</v>
+        <v>511042</v>
       </c>
       <c r="AH44" s="16" t="n">
-        <v>511042</v>
+        <v>471275</v>
       </c>
       <c r="AI44" s="16" t="n">
-        <v>471275</v>
+        <v>721353</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>721353</v>
+        <v>434703</v>
       </c>
       <c r="AK44" s="16" t="n">
-        <v>434703</v>
+        <v>444102</v>
       </c>
       <c r="AL44" s="16" t="n">
-        <v>444102</v>
+        <v>364693</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>364693</v>
+        <v>450219</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>450219</v>
+        <v>555600</v>
       </c>
       <c r="AO44" s="16" t="n">
-        <v>555600</v>
+        <v>590428</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>590428</v>
+        <v>241042</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>241042</v>
+        <v>463723</v>
       </c>
       <c r="AR44" s="16" t="n">
-        <v>463723</v>
+        <v>556739</v>
       </c>
       <c r="AS44" s="16" t="n">
-        <v>556739</v>
+        <v>604086</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>604086</v>
+        <v>780986</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>780986</v>
+        <v>613950</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>613950</v>
+        <v>552269</v>
       </c>
       <c r="AW44" s="16" t="n">
-        <v>552269</v>
+        <v>779107</v>
       </c>
       <c r="AX44" s="16" t="n">
-        <v>779107</v>
+        <v>763016</v>
       </c>
       <c r="AY44" s="16" t="n">
-        <v>763016</v>
+        <v>866046</v>
       </c>
       <c r="AZ44" s="16" t="n">
-        <v>866046</v>
+        <v>1195813</v>
       </c>
       <c r="BA44" s="16" t="n">
-        <v>1195813</v>
+        <v>725719</v>
       </c>
       <c r="BB44" s="16" t="n">
-        <v>725719</v>
+        <v>421795</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7443,74 +7443,74 @@
       <c r="AE46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>57</v>
+      <c r="AF46" s="13" t="n">
+        <v>6789</v>
       </c>
       <c r="AG46" s="13" t="n">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AI46" s="13" t="n">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AJ46" s="13" t="n">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AK46" s="13" t="n">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AL46" s="13" t="n">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AM46" s="13" t="n">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AN46" s="13" t="n">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AO46" s="13" t="n">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AP46" s="13" t="n">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AQ46" s="13" t="n">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AR46" s="13" t="n">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AS46" s="13" t="n">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AT46" s="13" t="n">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AU46" s="13" t="n">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AV46" s="13" t="n">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AW46" s="13" t="n">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AX46" s="13" t="n">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="AY46" s="13" t="n">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="AZ46" s="13" t="n">
-        <v>4371</v>
+        <v>1868</v>
       </c>
       <c r="BA46" s="13" t="n">
-        <v>1868</v>
+        <v>6831</v>
       </c>
       <c r="BB46" s="13" t="n">
-        <v>6831</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,8 +7569,8 @@
       <c r="T47" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="U47" s="18" t="s">
-        <v>57</v>
+      <c r="U47" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="23" t="n">
         <v>0</v>
@@ -7603,73 +7603,73 @@
         <v>0</v>
       </c>
       <c r="AF47" s="23" t="n">
-        <v>0</v>
+        <v>6789</v>
       </c>
       <c r="AG47" s="23" t="n">
-        <v>6789</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="23" t="n">
         <v>0</v>
       </c>
       <c r="AI47" s="23" t="n">
-        <v>0</v>
+        <v>5565</v>
       </c>
       <c r="AJ47" s="23" t="n">
-        <v>5565</v>
+        <v>2306</v>
       </c>
       <c r="AK47" s="23" t="n">
-        <v>2306</v>
+        <v>1518</v>
       </c>
       <c r="AL47" s="23" t="n">
-        <v>1518</v>
+        <v>19527</v>
       </c>
       <c r="AM47" s="23" t="n">
-        <v>19527</v>
+        <v>5089</v>
       </c>
       <c r="AN47" s="23" t="n">
-        <v>5089</v>
+        <v>1558</v>
       </c>
       <c r="AO47" s="23" t="n">
-        <v>1558</v>
+        <v>1839</v>
       </c>
       <c r="AP47" s="23" t="n">
-        <v>1839</v>
+        <v>1485</v>
       </c>
       <c r="AQ47" s="23" t="n">
-        <v>1485</v>
+        <v>8779</v>
       </c>
       <c r="AR47" s="23" t="n">
-        <v>8779</v>
+        <v>4375</v>
       </c>
       <c r="AS47" s="23" t="n">
-        <v>4375</v>
+        <v>9332</v>
       </c>
       <c r="AT47" s="23" t="n">
-        <v>9332</v>
+        <v>8864</v>
       </c>
       <c r="AU47" s="23" t="n">
-        <v>8864</v>
+        <v>7404</v>
       </c>
       <c r="AV47" s="23" t="n">
-        <v>7404</v>
+        <v>7218</v>
       </c>
       <c r="AW47" s="23" t="n">
-        <v>7218</v>
+        <v>966</v>
       </c>
       <c r="AX47" s="23" t="n">
-        <v>966</v>
+        <v>3723</v>
       </c>
       <c r="AY47" s="23" t="n">
-        <v>3723</v>
+        <v>4371</v>
       </c>
       <c r="AZ47" s="23" t="n">
-        <v>4371</v>
+        <v>1868</v>
       </c>
       <c r="BA47" s="23" t="n">
-        <v>1868</v>
+        <v>6831</v>
       </c>
       <c r="BB47" s="23" t="n">
-        <v>6831</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7785,8 +7785,8 @@
       <c r="T49" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U49" s="20" t="s">
-        <v>57</v>
+      <c r="U49" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="24" t="n">
         <v>0</v>
@@ -8001,8 +8001,8 @@
       <c r="T51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>57</v>
+      <c r="U51" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V51" s="13" t="n">
         <v>0</v>
@@ -8114,151 +8114,151 @@
         <v>0</v>
       </c>
       <c r="F52" s="23" t="n">
-        <v>0</v>
+        <v>379738</v>
       </c>
       <c r="G52" s="23" t="n">
-        <v>379738</v>
+        <v>765148</v>
       </c>
       <c r="H52" s="23" t="n">
-        <v>765148</v>
+        <v>671801</v>
       </c>
       <c r="I52" s="23" t="n">
-        <v>671801</v>
+        <v>957681</v>
       </c>
       <c r="J52" s="23" t="n">
-        <v>957681</v>
+        <v>750363</v>
       </c>
       <c r="K52" s="23" t="n">
-        <v>750363</v>
+        <v>1217675</v>
       </c>
       <c r="L52" s="23" t="n">
-        <v>1217675</v>
+        <v>593345</v>
       </c>
       <c r="M52" s="23" t="n">
-        <v>593345</v>
+        <v>588880</v>
       </c>
       <c r="N52" s="23" t="n">
-        <v>588880</v>
+        <v>924501</v>
       </c>
       <c r="O52" s="23" t="n">
-        <v>924501</v>
+        <v>923346</v>
       </c>
       <c r="P52" s="23" t="n">
-        <v>923346</v>
+        <v>1105717</v>
       </c>
       <c r="Q52" s="23" t="n">
-        <v>1105717</v>
+        <v>1252063</v>
       </c>
       <c r="R52" s="23" t="n">
-        <v>1252063</v>
+        <v>760355</v>
       </c>
       <c r="S52" s="23" t="n">
-        <v>760355</v>
+        <v>1163289</v>
       </c>
       <c r="T52" s="23" t="n">
-        <v>1163289</v>
+        <v>999602</v>
       </c>
       <c r="U52" s="23" t="n">
-        <v>999602</v>
+        <v>1322051</v>
       </c>
       <c r="V52" s="23" t="n">
-        <v>1322051</v>
+        <v>1159955</v>
       </c>
       <c r="W52" s="23" t="n">
-        <v>1159955</v>
+        <v>1257479</v>
       </c>
       <c r="X52" s="23" t="n">
-        <v>1257479</v>
+        <v>1241360</v>
       </c>
       <c r="Y52" s="23" t="n">
-        <v>1241360</v>
+        <v>1711212</v>
       </c>
       <c r="Z52" s="23" t="n">
-        <v>1711212</v>
+        <v>2034849</v>
       </c>
       <c r="AA52" s="23" t="n">
-        <v>2034849</v>
+        <v>2519840</v>
       </c>
       <c r="AB52" s="23" t="n">
-        <v>2519840</v>
+        <v>2134847</v>
       </c>
       <c r="AC52" s="23" t="n">
-        <v>2134847</v>
+        <v>2155127</v>
       </c>
       <c r="AD52" s="23" t="n">
-        <v>2155127</v>
+        <v>771063</v>
       </c>
       <c r="AE52" s="23" t="n">
-        <v>771063</v>
+        <v>1301878</v>
       </c>
       <c r="AF52" s="23" t="n">
-        <v>1301878</v>
+        <v>1358368</v>
       </c>
       <c r="AG52" s="23" t="n">
-        <v>1358368</v>
+        <v>2451001</v>
       </c>
       <c r="AH52" s="23" t="n">
-        <v>2451001</v>
+        <v>2235754</v>
       </c>
       <c r="AI52" s="23" t="n">
-        <v>2235754</v>
+        <v>2742649</v>
       </c>
       <c r="AJ52" s="23" t="n">
-        <v>2742649</v>
+        <v>1690252</v>
       </c>
       <c r="AK52" s="23" t="n">
-        <v>1690252</v>
+        <v>2151896</v>
       </c>
       <c r="AL52" s="23" t="n">
-        <v>2151896</v>
+        <v>1722130</v>
       </c>
       <c r="AM52" s="23" t="n">
-        <v>1722130</v>
+        <v>2024113</v>
       </c>
       <c r="AN52" s="23" t="n">
-        <v>2024113</v>
+        <v>2327899</v>
       </c>
       <c r="AO52" s="23" t="n">
-        <v>2327899</v>
+        <v>2627301</v>
       </c>
       <c r="AP52" s="23" t="n">
-        <v>2627301</v>
+        <v>1091189</v>
       </c>
       <c r="AQ52" s="23" t="n">
-        <v>1091189</v>
+        <v>2019705</v>
       </c>
       <c r="AR52" s="23" t="n">
-        <v>2019705</v>
+        <v>2619534</v>
       </c>
       <c r="AS52" s="23" t="n">
-        <v>2619534</v>
+        <v>3230045</v>
       </c>
       <c r="AT52" s="23" t="n">
-        <v>3230045</v>
+        <v>3573223</v>
       </c>
       <c r="AU52" s="23" t="n">
-        <v>3573223</v>
+        <v>3036588</v>
       </c>
       <c r="AV52" s="23" t="n">
-        <v>3036588</v>
+        <v>2822174</v>
       </c>
       <c r="AW52" s="23" t="n">
-        <v>2822174</v>
+        <v>3878250</v>
       </c>
       <c r="AX52" s="23" t="n">
-        <v>3878250</v>
+        <v>3584741</v>
       </c>
       <c r="AY52" s="23" t="n">
-        <v>3584741</v>
+        <v>4260697</v>
       </c>
       <c r="AZ52" s="23" t="n">
-        <v>4260697</v>
+        <v>5146420</v>
       </c>
       <c r="BA52" s="23" t="n">
-        <v>5146420</v>
+        <v>3731890</v>
       </c>
       <c r="BB52" s="23" t="n">
-        <v>3731890</v>
+        <v>2364535</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8706,152 +8706,152 @@
       <c r="E59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>57</v>
+      <c r="F59" s="13" t="n">
+        <v>85256993</v>
       </c>
       <c r="G59" s="13" t="n">
-        <v>85256993</v>
+        <v>86954069</v>
       </c>
       <c r="H59" s="13" t="n">
-        <v>86954069</v>
+        <v>100126225</v>
       </c>
       <c r="I59" s="13" t="n">
-        <v>100126225</v>
+        <v>104540466</v>
       </c>
       <c r="J59" s="13" t="n">
-        <v>104540466</v>
+        <v>117537764</v>
       </c>
       <c r="K59" s="13" t="n">
-        <v>117537764</v>
+        <v>119480020</v>
       </c>
       <c r="L59" s="13" t="n">
-        <v>119480020</v>
+        <v>117164811</v>
       </c>
       <c r="M59" s="13" t="n">
-        <v>117164811</v>
+        <v>109782907</v>
       </c>
       <c r="N59" s="13" t="n">
-        <v>109782907</v>
+        <v>107313131</v>
       </c>
       <c r="O59" s="13" t="n">
-        <v>107313131</v>
+        <v>101736968</v>
       </c>
       <c r="P59" s="13" t="n">
-        <v>101736968</v>
+        <v>106682160</v>
       </c>
       <c r="Q59" s="13" t="n">
-        <v>106682160</v>
+        <v>109144459</v>
       </c>
       <c r="R59" s="13" t="n">
-        <v>109144459</v>
+        <v>110013075</v>
       </c>
       <c r="S59" s="13" t="n">
-        <v>110013075</v>
+        <v>110435594</v>
       </c>
       <c r="T59" s="13" t="n">
-        <v>110435594</v>
+        <v>105119792</v>
       </c>
       <c r="U59" s="13" t="n">
-        <v>105119792</v>
+        <v>122804331</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>122804331</v>
+        <v>122995899</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>122995899</v>
+        <v>151676694</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>151676694</v>
+        <v>132914804</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>132914804</v>
+        <v>158815663</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>158815663</v>
+        <v>160153042</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>160153042</v>
+        <v>176409647</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>176409647</v>
+        <v>167668006</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>167668006</v>
+        <v>172392764</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>172392764</v>
+        <v>190262002</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>190262002</v>
+        <v>198919601</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>198919601</v>
+        <v>229115179</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>229115179</v>
+        <v>219820238</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>219820238</v>
+        <v>240230214</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>240230214</v>
+        <v>258145175</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>258145175</v>
+        <v>242668296</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>242668296</v>
+        <v>243250830</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>243250830</v>
+        <v>260533306</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>260533306</v>
+        <v>246705393</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>246705393</v>
+        <v>222255030</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>222255030</v>
+        <v>232993805</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>232993805</v>
+        <v>277548857</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>277548857</v>
+        <v>270736499</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>270736499</v>
+        <v>309033566</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>309033566</v>
+        <v>338910074</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>338910074</v>
+        <v>315990282</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>315990282</v>
+        <v>306231826</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>306231826</v>
+        <v>339127108</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>339127108</v>
+        <v>355404957</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>355404957</v>
+        <v>362239362</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>362239362</v>
+        <v>331679423</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>331679423</v>
+        <v>322719354</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>322719354</v>
+        <v>294273900</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>294273900</v>
+        <v>343103741</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8865,152 +8865,152 @@
       <c r="E60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>57</v>
+      <c r="F60" s="16" t="n">
+        <v>75636869</v>
       </c>
       <c r="G60" s="16" t="n">
-        <v>75636869</v>
+        <v>77689482</v>
       </c>
       <c r="H60" s="16" t="n">
-        <v>77689482</v>
+        <v>79371454</v>
       </c>
       <c r="I60" s="16" t="n">
-        <v>79371454</v>
+        <v>92194143</v>
       </c>
       <c r="J60" s="16" t="n">
-        <v>92194143</v>
+        <v>95670137</v>
       </c>
       <c r="K60" s="16" t="n">
-        <v>95670137</v>
+        <v>96193414</v>
       </c>
       <c r="L60" s="16" t="n">
-        <v>96193414</v>
+        <v>89225759</v>
       </c>
       <c r="M60" s="16" t="n">
-        <v>89225759</v>
+        <v>92330505</v>
       </c>
       <c r="N60" s="16" t="n">
-        <v>92330505</v>
+        <v>94494334</v>
       </c>
       <c r="O60" s="16" t="n">
-        <v>94494334</v>
+        <v>94335371</v>
       </c>
       <c r="P60" s="16" t="n">
-        <v>94335371</v>
+        <v>89163854</v>
       </c>
       <c r="Q60" s="16" t="n">
-        <v>89163854</v>
+        <v>86132068</v>
       </c>
       <c r="R60" s="16" t="n">
-        <v>86132068</v>
+        <v>92333970</v>
       </c>
       <c r="S60" s="16" t="n">
-        <v>92333970</v>
+        <v>98031802</v>
       </c>
       <c r="T60" s="16" t="n">
-        <v>98031802</v>
+        <v>93802916</v>
       </c>
       <c r="U60" s="16" t="n">
-        <v>93802916</v>
+        <v>115414684</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>115414684</v>
+        <v>113922294</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>113922294</v>
+        <v>122009198</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>122009198</v>
+        <v>125917974</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>125917974</v>
+        <v>158468618</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>158468618</v>
+        <v>158820774</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>158820774</v>
+        <v>157767608</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>157767608</v>
+        <v>155736734</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>155736734</v>
+        <v>160858800</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>160858800</v>
+        <v>158781059</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>158781059</v>
+        <v>150605781</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>150605781</v>
+        <v>152131607</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>152131607</v>
+        <v>181622734</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>181622734</v>
+        <v>197536827</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>197536827</v>
+        <v>199704783</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>199704783</v>
+        <v>191769495</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>191769495</v>
+        <v>193014476</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>193014476</v>
+        <v>185635911</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>185635911</v>
+        <v>174278338</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>174278338</v>
+        <v>182671952</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>182671952</v>
+        <v>177576977</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>177576977</v>
+        <v>198300442</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>198300442</v>
+        <v>210478958</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>210478958</v>
+        <v>224435161</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>224435161</v>
+        <v>248856170</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>248856170</v>
+        <v>255603689</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>255603689</v>
+        <v>218637500</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>218637500</v>
+        <v>246864275</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>246864275</v>
+        <v>267285255</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>267285255</v>
+        <v>254437896</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>254437896</v>
+        <v>244073736</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>244073736</v>
+        <v>228556349</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>228556349</v>
+        <v>236784516</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>236784516</v>
+        <v>253910606</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9024,152 +9024,152 @@
       <c r="E61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>57</v>
+      <c r="F61" s="13" t="n">
+        <v>52759142</v>
       </c>
       <c r="G61" s="13" t="n">
-        <v>52759142</v>
+        <v>47884716</v>
       </c>
       <c r="H61" s="13" t="n">
-        <v>47884716</v>
+        <v>49628383</v>
       </c>
       <c r="I61" s="13" t="n">
-        <v>49628383</v>
+        <v>56755577</v>
       </c>
       <c r="J61" s="13" t="n">
-        <v>56755577</v>
+        <v>59057779</v>
       </c>
       <c r="K61" s="13" t="n">
-        <v>59057779</v>
+        <v>68726867</v>
       </c>
       <c r="L61" s="13" t="n">
-        <v>68726867</v>
+        <v>53702764</v>
       </c>
       <c r="M61" s="13" t="n">
-        <v>53702764</v>
+        <v>50304788</v>
       </c>
       <c r="N61" s="13" t="n">
-        <v>50304788</v>
+        <v>59627053</v>
       </c>
       <c r="O61" s="13" t="n">
-        <v>59627053</v>
+        <v>58163067</v>
       </c>
       <c r="P61" s="13" t="n">
-        <v>58163067</v>
+        <v>58579886</v>
       </c>
       <c r="Q61" s="13" t="n">
-        <v>58579886</v>
+        <v>60860172</v>
       </c>
       <c r="R61" s="13" t="n">
-        <v>60860172</v>
+        <v>55765797</v>
       </c>
       <c r="S61" s="13" t="n">
-        <v>55765797</v>
+        <v>60701327</v>
       </c>
       <c r="T61" s="13" t="n">
-        <v>60701327</v>
+        <v>59753685</v>
       </c>
       <c r="U61" s="13" t="n">
-        <v>59753685</v>
+        <v>77639111</v>
       </c>
       <c r="V61" s="13" t="n">
-        <v>77639111</v>
+        <v>66429965</v>
       </c>
       <c r="W61" s="13" t="n">
-        <v>66429965</v>
+        <v>67740041</v>
       </c>
       <c r="X61" s="13" t="n">
-        <v>67740041</v>
+        <v>70514490</v>
       </c>
       <c r="Y61" s="13" t="n">
-        <v>70514490</v>
+        <v>88914052</v>
       </c>
       <c r="Z61" s="13" t="n">
-        <v>88914052</v>
+        <v>95136548</v>
       </c>
       <c r="AA61" s="13" t="n">
-        <v>95136548</v>
+        <v>98572533</v>
       </c>
       <c r="AB61" s="13" t="n">
-        <v>98572533</v>
+        <v>97912151</v>
       </c>
       <c r="AC61" s="13" t="n">
-        <v>97912151</v>
+        <v>107979754</v>
       </c>
       <c r="AD61" s="13" t="n">
-        <v>107979754</v>
+        <v>100888541</v>
       </c>
       <c r="AE61" s="13" t="n">
-        <v>100888541</v>
+        <v>100611846</v>
       </c>
       <c r="AF61" s="13" t="n">
-        <v>100611846</v>
+        <v>100997491</v>
       </c>
       <c r="AG61" s="13" t="n">
-        <v>100997491</v>
+        <v>109313797</v>
       </c>
       <c r="AH61" s="13" t="n">
-        <v>109313797</v>
+        <v>126789077</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>126789077</v>
+        <v>134555680</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>134555680</v>
+        <v>107519911</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>107519911</v>
+        <v>108054015</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>108054015</v>
+        <v>108766180</v>
       </c>
       <c r="AM61" s="13" t="n">
-        <v>108766180</v>
+        <v>105933882</v>
       </c>
       <c r="AN61" s="13" t="n">
-        <v>105933882</v>
+        <v>107237985</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>107237985</v>
+        <v>113152166</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>113152166</v>
+        <v>130433983</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>130433983</v>
+        <v>125534109</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>125534109</v>
+        <v>153371625</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>153371625</v>
+        <v>143624822</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>143624822</v>
+        <v>161460823</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>161460823</v>
+        <v>137626093</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>137626093</v>
+        <v>140454985</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>140454985</v>
+        <v>147670015</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>147670015</v>
+        <v>151572507</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>151572507</v>
+        <v>162272063</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>162272063</v>
+        <v>158996543</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>158996543</v>
+        <v>145814547</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>145814547</v>
+        <v>176114823</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9318,8 +9318,8 @@
       <c r="AE63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF63" s="13" t="s">
-        <v>57</v>
+      <c r="AF63" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AG63" s="13" t="n">
         <v>0</v>
